--- a/Dataset/Folds/Fold_5/Excel/14.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/14.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13196" uniqueCount="1919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14756" uniqueCount="2123">
   <si>
     <t>Doi</t>
   </si>
@@ -6590,6 +6590,769 @@
   </si>
   <si>
     <t>[Arenas%Joaqu\u00edn%coreGivesNoEmail%1,                        Calvo%Boyero Fernando%coreGivesNoEmail%1,                        Castillo%Garc\u00eda Adri\u00e1n%coreGivesNoEmail%1,                        COVID-19%Hospital \u201912 Octubre\u2019 Clinical Biochemisty Study Group%coreGivesNoEmail%1,                        Cueto%Felgueroso Cecilia%coreGivesNoEmail%1,                        Luc\u00eda%Mulas Alejandro%coreGivesNoEmail%1,                        L\u00f3pez%Jim\u00e9nez Ana%coreGivesNoEmail%1,                        Mart\u00edn%Casanueva Miguel \u00c1ngel%coreGivesNoEmail%1,                        Santos%Lozano Alejandro%coreGivesNoEmail%1,                        Valenzuela%Ruiz Pedro Luis%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                            Min%He%NULL%1,                            Wanhong%Yin%NULL%1,                            Xuelian%Liao%NULL%1,                            Bo%Wang%NULL%6,                            Xiaodong%Jin%NULL%1,                            Yao%Ma%NULL%2,                            Jirong%Yue%NULL%1,                            Lang%Bai%NULL%1,                            Dan%Liu%NULL%3,                            Ting%Zhu%NULL%1,                            Zhixin%Huang%NULL%1,                            Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                            Shuchang%Zhou%NULL%1,                            Yujin%Wang%NULL%1,                            Wenzhi%Lv%NULL%2,                            Shili%Wang%NULL%1,                            Ting%Wang%751884926@qq.com%1,                            Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                            Yan-chak%Li%NULL%1,                            Sonali%Bose%NULL%1,                            Ravi%Iyengar%NULL%1,                            Supinda%Bunyavanich%NULL%1,                            Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                            Mengfei%Guo%NULL%1,                            Limin%Duan%NULL%1,                            Feng%Wu%NULL%1,                            Guorong%Hu%NULL%1,                            Zhihui%Wang%NULL%1,                            Qi%Huang%NULL%1,                            Tingting%Liao%NULL%1,                            Juanjuan%Xu%NULL%1,                            Yanling%Ma%NULL%1,                            Zhilei%Lv%NULL%1,                            Wenjing%Xiao%NULL%1,                            Zilin%Zhao%NULL%1,                            Xueyun%Tan%NULL%1,                            Daquan%Meng%NULL%1,                            Shujing%Zhang%NULL%1,                            E%Zhou%NULL%1,                            Zhengrong%Yin%NULL%1,                            Wei%Geng%NULL%1,                            Xuan%Wang%NULL%1,                            Jianchu%Zhang%NULL%1,                            Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                            Yu%Zhang%whxhzy@163.com%1,                            Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                            Francesco%Arru%NULL%2,                            Francesco%Arru%NULL%0,                            Andrea%De Vito%NULL%3,                            Alessandro%Sassu%NULL%2,                            Alessandro%Sassu%NULL%0,                            Giovanni%Valdes%NULL%1,                            Valentina%Scano%NULL%1,                            Elisabetta%Zinellu%NULL%1,                            Roberto%Perra%NULL%1,                            Giordano%Madeddu%NULL%3,                            Ciriaco%Carru%NULL%1,                            Pietro%Pirina%NULL%3,                            Arduino A.%Mangoni%NULL%2,                            Arduino A.%Mangoni%NULL%0,                            Sergio%Babudieri%NULL%4,                            Sergio%Babudieri%NULL%0,                            Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                            Pablo%Ryan%NULL%1,                            Jorge%Valencia%NULL%2,                            Jorge%Valencia%NULL%0,                            Mario%Pérez-Butragueño%NULL%2,                            Mario%Pérez-Butragueño%NULL%0,                            Eva%Jiménez%NULL%2,                            Eva%Jiménez%NULL%0,                            Mario%Fontán-Vela%NULL%1,                            Elsa%Izquierdo-García%NULL%2,                            Elsa%Izquierdo-García%NULL%0,                            Inés%Fernandez-Jimenez%NULL%1,                            Elena%Álvaro-Alonso%NULL%1,                            Andrea%Lazaro%NULL%2,                            Andrea%Lazaro%NULL%0,                            Marta%Alvarado%NULL%1,                            Helena%Notario%NULL%1,                            Salvador%Resino%NULL%1,                            Daniel%Velez-Serrano%NULL%1,                            Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                            Yiru%Wang%NULL%2,                            Xuecheng%Zhao%NULL%1,                            Lixuan%Wang%NULL%1,                            Feng%Liu%NULL%3,                            Tao%Wang%NULL%15,                            Dawei%Ye%NULL%2,                            Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                            Valentina%Zuccaro%NULL%1,                            Luca%Novelli%NULL%1,                            Lorenzo%Zileri%NULL%2,                            Lorenzo%Zileri%NULL%0,                            Ciro%Celsa%NULL%1,                            Federico%Raimondi%NULL%2,                            Federico%Raimondi%NULL%0,                            Mauro%Gori%NULL%1,                            Giulia%Cammà%NULL%1,                            Salvatore%Battaglia%NULL%1,                            Vincenzo Giuseppe%Genova%NULL%1,                            Laura%Paris%NULL%1,                            Matteo%Tacelli%NULL%1,                            Francesco Antonio%Mancarella%NULL%1,                            Marco%Enea%NULL%1,                            Massimo%Attanasio%NULL%1,                            Michele%Senni%NULL%1,                            Fabiano%Di Marco%NULL%1,                            Luca Ferdinando%Lorini%NULL%1,                            Stefano%Fagiuoli%NULL%1,                            Raffaele%Bruno%NULL%2,                            Calogero%Cammà%NULL%1,                            Antonio%Gasbarrini%NULL%3,                            Francesco%Di Gennaro%NULL%2,                            Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                            Gan-xun%Li%NULL%1,                            Lin%Chen%NULL%3,                            Chang%Shu%NULL%2,                            Jia%Song%NULL%1,                            Wei%Wang%NULL%2,                            Yu-wei%Wang%NULL%1,                            Qian%Chen%NULL%2,                            Guan-nan%Jin%NULL%1,                            Tong-tong%Liu%NULL%1,                            Jun-nan%Liang%NULL%1,                            Peng%Zhu%NULL%1,                            Wei%Zhu%NULL%5,                            Yong%Li%NULL%2,                            Bin-hao%Zhang%NULL%1,                            Huan%Feng%NULL%1,                            Wan-guang%Zhang%NULL%1,                            Zhen-yu%Yin%NULL%1,                            Wen-kui%Yu%NULL%1,                            Yang%Yang%NULL%2,                            Hua-qiu%Zhang%NULL%1,                            Zhou-ping%Tang%NULL%1,                            Hui%Wang%NULL%4,                            Jun-bo%Hu%NULL%1,                            Ji-hong%Liu%NULL%1,                            Ping%Yin%NULL%1,                            Xiao-ping%Chen%NULL%1,                            Bixiang%Zhang%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                            Günay%Can%NULL%2,                            Günay%Can%NULL%0,                            Rıdvan%Karaali%NULL%1,                            Şermin%Börekçi%NULL%1,                            İlker İnanç%Balkan%NULL%1,                            Bilun%Gemicioğlu%NULL%1,                            Dildar%Konukoğlu%NULL%1,                            Ethem%Erginöz%NULL%1,                            Mehmet Sarper%Erdoğan%NULL%1,                            Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                            Danila%Azzolina%NULL%1,                            Eyal%Hayden%NULL%2,                            Eyal%Hayden%NULL%0,                            Gianluca%Gaidano%NULL%2,                            Gianluca%Gaidano%NULL%0,                            Mario%Pirisi%NULL%2,                            Mario%Pirisi%NULL%0,                            Antonio%Acquaviva%NULL%2,                            Antonio%Acquaviva%NULL%0,                            Gianluca%Aimaretti%NULL%2,                            Gianluca%Aimaretti%NULL%0,                            Paolo%Aluffi Valletti%NULL%3,                            Paolo%Aluffi Valletti%NULL%0,                            Roberto%Angilletta%NULL%2,                            Roberto%Angilletta%NULL%0,                            Roberto%Arioli%NULL%2,                            Roberto%Arioli%NULL%0,                            Gian Carlo%Avanzi%NULL%2,                            Gian Carlo%Avanzi%NULL%0,                            Gianluca%Avino%NULL%2,                            Gianluca%Avino%NULL%0,                            Piero Emilio%Balbo%NULL%2,                            Piero Emilio%Balbo%NULL%0,                            Giulia%Baldon%NULL%2,                            Giulia%Baldon%NULL%0,                            Francesca%Baorda%NULL%2,                            Francesca%Baorda%NULL%0,                            Emanuela%Barbero%NULL%2,                            Emanuela%Barbero%NULL%0,                            Alessio%Baricich%NULL%2,                            Alessio%Baricich%NULL%0,                            Michela%Barini%NULL%2,                            Michela%Barini%NULL%0,                            Francesco%Barone-Adesi%NULL%2,                            Francesco%Barone-Adesi%NULL%0,                            Sofia%Battistini%NULL%2,                            Sofia%Battistini%NULL%0,                            Michela%Beltrame%NULL%2,                            Michela%Beltrame%NULL%0,                            Matteo%Bertoli%NULL%2,                            Matteo%Bertoli%NULL%0,                            Stephanie%Bertolin%NULL%2,                            Stephanie%Bertolin%NULL%0,                            Marinella%Bertolotti%NULL%2,                            Marinella%Bertolotti%NULL%0,                            Marta%Betti%NULL%2,                            Marta%Betti%NULL%0,                            Flavio%Bobbio%NULL%2,                            Flavio%Bobbio%NULL%0,                            Paolo%Boffano%NULL%2,                            Paolo%Boffano%NULL%0,                            Lucio%Boglione%NULL%2,                            Lucio%Boglione%NULL%0,                            Silvio%Borrè%NULL%2,                            Silvio%Borrè%NULL%0,                            Matteo%Brucoli%NULL%2,                            Matteo%Brucoli%NULL%0,                            Elisa%Calzaducca%NULL%2,                            Elisa%Calzaducca%NULL%0,                            Edoardo%Cammarata%NULL%2,                            Edoardo%Cammarata%NULL%0,                            Vincenzo%Cantaluppi%NULL%2,                            Vincenzo%Cantaluppi%NULL%0,                            Roberto%Cantello%NULL%2,                            Roberto%Cantello%NULL%0,                            Andrea%Capponi%NULL%2,                            Andrea%Capponi%NULL%0,                            Alessandro%Carriero%NULL%2,                            Alessandro%Carriero%NULL%0,                            Giuseppe Francesco%Casciaro%NULL%2,                            Giuseppe Francesco%Casciaro%NULL%0,                            Luigi Mario%Castello%NULL%2,                            Luigi Mario%Castello%NULL%0,                            Federico%Ceruti%NULL%2,                            Federico%Ceruti%NULL%0,                            Guido%Chichino%NULL%2,                            Guido%Chichino%NULL%0,                            Emilio%Chirico%NULL%2,                            Emilio%Chirico%NULL%0,                            Carlo%Cisari%NULL%1,                            Micol Giulia%Cittone%NULL%2,                            Micol Giulia%Cittone%NULL%0,                            Crizia%Colombo%NULL%2,                            Crizia%Colombo%NULL%0,                            Cristoforo%Comi%NULL%2,                            Cristoforo%Comi%NULL%0,                            Eleonora%Croce%NULL%2,                            Eleonora%Croce%NULL%0,                            Tommaso%Daffara%NULL%2,                            Tommaso%Daffara%NULL%0,                            Pietro%Danna%NULL%2,                            Pietro%Danna%NULL%0,                            Francesco%Della Corte%NULL%2,                            Francesco%Della Corte%NULL%0,                            Simona%De Vecchi%NULL%2,                            Simona%De Vecchi%NULL%0,                            Umberto%Dianzani%NULL%2,                            Umberto%Dianzani%NULL%0,                            Davide%Di Benedetto%NULL%2,                            Davide%Di Benedetto%NULL%0,                            Elia%Esposto%NULL%2,                            Elia%Esposto%NULL%0,                            Fabrizio%Faggiano%NULL%2,                            Fabrizio%Faggiano%NULL%0,                            Zeno%Falaschi%NULL%2,                            Zeno%Falaschi%NULL%0,                            Daniela%Ferrante%NULL%2,                            Daniela%Ferrante%NULL%0,                            Alice%Ferrero%NULL%2,                            Alice%Ferrero%NULL%0,                            Ileana%Gagliardi%NULL%2,                            Ileana%Gagliardi%NULL%0,                            Alessandra%Galbiati%NULL%2,                            Alessandra%Galbiati%NULL%0,                            Silvia%Gallo%NULL%2,                            Silvia%Gallo%NULL%0,                            Pietro Luigi%Garavelli%NULL%2,                            Pietro Luigi%Garavelli%NULL%0,                            Clara Ada%Gardino%NULL%2,                            Clara Ada%Gardino%NULL%0,                            Massimiliano%Garzaro%NULL%3,                            Massimiliano%Garzaro%NULL%0,                            Maria Luisa%Gastaldello%NULL%2,                            Maria Luisa%Gastaldello%NULL%0,                            Francesco%Gavelli%NULL%2,                            Francesco%Gavelli%NULL%0,                            Alessandra%Gennari%NULL%2,                            Alessandra%Gennari%NULL%0,                            Greta Maria%Giacomini%NULL%2,                            Greta Maria%Giacomini%NULL%0,                            Irene%Giacone%NULL%2,                            Irene%Giacone%NULL%0,                            Valentina%Giai Via%NULL%2,                            Valentina%Giai Via%NULL%0,                            Francesca%Giolitti%NULL%2,                            Francesca%Giolitti%NULL%0,                            Laura Cristina%Gironi%NULL%2,                            Laura Cristina%Gironi%NULL%0,                            Carla%Gramaglia%NULL%2,                            Carla%Gramaglia%NULL%0,                            Leonardo%Grisafi%NULL%2,                            Leonardo%Grisafi%NULL%0,                            Ilaria%Inserra%NULL%2,                            Ilaria%Inserra%NULL%0,                            Marco%Invernizzi%NULL%2,                            Marco%Invernizzi%NULL%0,                            Marco%Krengli%NULL%2,                            Marco%Krengli%NULL%0,                            Emanuela%Labella%NULL%2,                            Emanuela%Labella%NULL%0,                            Irene Cecilia%Landi%NULL%2,                            Irene Cecilia%Landi%NULL%0,                            Raffaella%Landi%NULL%2,                            Raffaella%Landi%NULL%0,                            Ilaria%Leone%NULL%2,                            Ilaria%Leone%NULL%0,                            Veronica%Lio%NULL%2,                            Veronica%Lio%NULL%0,                            Luca%Lorenzini%NULL%2,                            Luca%Lorenzini%NULL%0,                            Antonio%Maconi%NULL%2,                            Antonio%Maconi%NULL%0,                            Mario%Malerba%NULL%2,                            Mario%Malerba%NULL%0,                            Giulia Francesca%Manfredi%NULL%2,                            Giulia Francesca%Manfredi%NULL%0,                            Maria%Martelli%NULL%2,                            Maria%Martelli%NULL%0,                            Letizia%Marzari%NULL%2,                            Letizia%Marzari%NULL%0,                            Paolo%Marzullo%NULL%2,                            Paolo%Marzullo%NULL%0,                            Marco%Mennuni%NULL%2,                            Marco%Mennuni%NULL%0,                            Claudia%Montabone%NULL%2,                            Claudia%Montabone%NULL%0,                            Umberto%Morosini%NULL%2,                            Umberto%Morosini%NULL%0,                            Marco%Mussa%NULL%2,                            Marco%Mussa%NULL%0,                            Ilaria%Nerici%NULL%2,                            Ilaria%Nerici%NULL%0,                            Alessandro%Nuzzo%NULL%2,                            Alessandro%Nuzzo%NULL%0,                            Carlo%Olivieri%NULL%2,                            Carlo%Olivieri%NULL%0,                            Samuel Alberto%Padelli%NULL%2,                            Samuel Alberto%Padelli%NULL%0,                            Massimiliano%Panella%NULL%2,                            Massimiliano%Panella%NULL%0,                            Andrea%Parisini%NULL%2,                            Andrea%Parisini%NULL%0,                            Alessio%Paschè%NULL%2,                            Alessio%Paschè%NULL%0,                            Filippo%Patrucco%NULL%2,                            Filippo%Patrucco%NULL%0,                            Giuseppe%Patti%NULL%2,                            Giuseppe%Patti%NULL%0,                            Alberto%Pau%NULL%2,                            Alberto%Pau%NULL%0,                            Anita Rebecca%Pedrinelli%NULL%2,                            Anita Rebecca%Pedrinelli%NULL%0,                            Ilaria%Percivale%NULL%2,                            Ilaria%Percivale%NULL%0,                            Luca%Ragazzoni%NULL%2,                            Luca%Ragazzoni%NULL%0,                            Roberta%Re%NULL%2,                            Roberta%Re%NULL%0,                            Cristina%Rigamonti%NULL%2,                            Cristina%Rigamonti%NULL%0,                            Eleonora%Rizzi%NULL%2,                            Eleonora%Rizzi%NULL%0,                            Andrea%Rognoni%NULL%2,                            Andrea%Rognoni%NULL%0,                            Annalisa%Roveta%NULL%2,                            Annalisa%Roveta%NULL%0,                            Luigia%Salamina%NULL%2,                            Luigia%Salamina%NULL%0,                            Matteo%Santagostino%NULL%2,                            Matteo%Santagostino%NULL%0,                            Massimo%Saraceno%NULL%2,                            Massimo%Saraceno%NULL%0,                            Paola%Savoia%NULL%2,                            Paola%Savoia%NULL%0,                            Marco%Sciarra%NULL%2,                            Marco%Sciarra%NULL%0,                            Andrea%Schimmenti%NULL%2,                            Andrea%Schimmenti%NULL%0,                            Lorenza%Scotti%NULL%2,                            Lorenza%Scotti%NULL%0,                            Enrico%Spinoni%NULL%2,                            Enrico%Spinoni%NULL%0,                            Carlo%Smirne%NULL%2,                            Carlo%Smirne%NULL%0,                            Vanessa%Tarantino%NULL%2,                            Vanessa%Tarantino%NULL%0,                            Paolo Amedeo%Tillio%NULL%2,                            Paolo Amedeo%Tillio%NULL%0,                            Stelvio%Tonello%NULL%2,                            Stelvio%Tonello%NULL%0,                            Rosanna%Vaschetto%NULL%2,                            Rosanna%Vaschetto%NULL%0,                            Veronica%Vassia%NULL%2,                            Veronica%Vassia%NULL%0,                            Domenico%Zagaria%NULL%2,                            Domenico%Zagaria%NULL%0,                            Elisa%Zavattaro%NULL%2,                            Elisa%Zavattaro%NULL%0,                            Patrizia%Zeppegno%NULL%2,                            Patrizia%Zeppegno%NULL%0,                            Francesca%Zottarelli%NULL%2,                            Francesca%Zottarelli%NULL%0,                            Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                            Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                            Marta%Ottone%NULL%2,                            Marta%Ottone%NULL%0,                            Tommaso%Fasano%NULL%1,                            Pierpaolo%Pattacini%NULL%1,                            Valentina%Iotti%NULL%1,                            Lucia%Spaggiari%NULL%1,                            Riccardo%Bonacini%NULL%1,                            Andrea%Nitrosi%NULL%1,                            Efrem%Bonelli%NULL%1,                            Simone%Canovi%NULL%1,                            Rossana%Colla%NULL%1,                            Alessandro%Zerbini%NULL%1,                            Marco%Massari%NULL%1,                            Ivana%Lattuada%NULL%1,                            Anna Maria%Ferrari%NULL%1,                            Paolo%Giorgi Rossi%NULL%1,                            Massimo%Costantini%NULL%1,                            Roberto%Grilli%NULL%1,                            Massimiliano%Marino%NULL%1,                            Giulio%Formoso%NULL%1,                            Debora%Formisano%NULL%1,                            Emanuela%Bedeschi%NULL%1,                            Cinzia%Perilli%NULL%1,                            Elisabetta%La Rosa%NULL%1,                            Eufemia%Bisaccia%NULL%1,                            Ivano%Venturi%NULL%1,                            Massimo%Vicentini%NULL%1,                            Cinzia%Campari%NULL%1,                            Francesco%Gioia%NULL%1,                            Serena%Broccoli%NULL%1,                            Pamela%Mancuso%NULL%1,                            Marco%Foracchia%NULL%1,                            Mirco%Pinotti%NULL%1,                            Nicola%Facciolongo%NULL%1,                            Laura%Trabucco%NULL%1,                            Stefano%De Pietri%NULL%1,                            Giorgio Francesco%Danelli%NULL%1,                            Laura%Albertazzi%NULL%1,                            Enrica%Bellesia%NULL%1,                            Mattia%Corradini%NULL%1,                            Elena%Magnani%NULL%1,                            Annalisa%Pilia%NULL%1,                            Alessandra%Polese%NULL%1,                            Silvia Storchi%Incerti%NULL%1,                            Piera%Zaldini%NULL%1,                            Bonanno%Orsola%NULL%1,                            Matteo%Revelli%NULL%1,                            Carlo%Salvarani%NULL%1,                            Carmine%Pinto%NULL%1,                            Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                            Hong-Qiu%Gu%NULL%1,                            Yi%Liu (刘艺)%NULL%1,                            Guqin%Zhang%NULL%1,                            Hang%Yang%NULL%1,                            Huifang%Hu%NULL%1,                            Chenyang%Lu%NULL%1,                            Yang%Li%NULL%3,                            Liyi%Wang%NULL%1,                            Yi%Liu (刘毅)%yi2006liu@163.com%1,                            Yi%Zhao%zhao.y1977@163.com%1,                            Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                            Tawsifur%Rahman%NULL%2,                            Tawsifur%Rahman%NULL%0,                            Amith%Khandakar%NULL%3,                            Somaya%Al-Madeed%NULL%2,                            Susu M.%Zughaier%NULL%5,                            Suhail A. R.%Doi%NULL%3,                            Hanadi%Hassen%NULL%1,                            Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                            Jia%Sun%NULL%1,                            Yi-Xin%Li%NULL%1,                            Qian%Chen%NULL%0,                            Qing-Quan%Liu%NULL%1,                            Zhou%Sun%NULL%1,                            Ran%Pang%NULL%1,                            Fei%Chen%NULL%1,                            Bing-Yang%Xu%NULL%1,                            Anne%Manyande%NULL%1,                            Taane G%Clark%NULL%1,                            Jin-Ping%Li%NULL%1,                            Ilkay Erdogan%Orhan%NULL%1,                            Yu-Ke%Tian%NULL%1,                            Tao%Wang%wt7636@126.com%0,                            Wei%Wu%wt7636@126.com%1,                            Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                            Caiping%Song%NULL%1,                            En%Liu%NULL%1,                            Xi%Liu%NULL%1,                            Hao%Wu%NULL%1,                            Hui%Lin%NULL%1,                            Yuliang%Liu%NULL%1,                            Qi%Li%NULL%1,                            Zhi%Xu%NULL%1,                            XiaoBao%Ren%NULL%1,                            Cheng%Zhang%NULL%1,                            Wenjing%Zhang%NULL%1,                            Wei%Duan%NULL%2,                            Yongfeng%Tian%NULL%1,                            Ping%Li%NULL%1,                            Mingdong%Hu%NULL%1,                            Shiming%Yang%NULL%1,                            Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                            Changli%Li%NULL%1,                            Li%Zheng%NULL%1,                            Wenzhi%Lv%NULL%0,                            Zhigang%He%NULL%1,                            Xinwu%Cui%NULL%1,                            Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                            Hayne Cho%Park%NULL%2,                            Hayne Cho%Park%NULL%0,                            Ajin%Cho%NULL%1,                            Juhee%Kim%NULL%1,                            Kyu-sang%Yun%NULL%1,                            Jinseog%Kim%NULL%1,                            Young-Ki%Lee%NULL%1,                            Sinan%Kardes.%NULL%2,                            Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                            Xiaoyu%Fang%NULL%1,                            Lixia%Cheng%NULL%1,                            Penghao%Wang%NULL%1,                            Shen%Li%NULL%1,                            Hao%Yu%NULL%1,                            Yao%Zhang%NULL%2,                            Nan%Jiang%NULL%1,                            Tingting%Zeng%NULL%1,                            Chao%Hou%NULL%1,                            Jing%Zhou%NULL%1,                            Shiru%Li%NULL%1,                            Yingzi%Pan%NULL%1,                            Yitong%Li%NULL%1,                            Lili%Nie%NULL%1,                            Yang%Li%NULL%0,                            Qidi%Sun%NULL%1,                            Hong%Jia%NULL%1,                            Mengxia%Li%NULL%1,                            Guoqiang%Cao%NULL%1,                            Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                            Lucas A%Ramos%NULL%2,                            Lucas A%Ramos%NULL%0,                            Wouter%Potters%NULL%1,                            Marcus L F%Janssen%NULL%1,                            Deborah%Hubers%NULL%1,                            Shi%Hu%NULL%1,                            Egill A%Fridgeirsson%NULL%1,                            Dan%Piña-Fuentes%NULL%1,                            Rajat%Thomas%NULL%1,                            Iwan C C%van der Horst%NULL%1,                            Christian%Herff%NULL%2,                            Christian%Herff%NULL%0,                            Pieter%Kubben%NULL%1,                            Paul W G%Elbers%NULL%1,                            Henk A%Marquering%NULL%1,                            Max%Welling%NULL%1,                            Suat%Simsek%NULL%1,                            Martijn D%de Kruif%NULL%1,                            Tom%Dormans%NULL%1,                            Lucas M%Fleuren%NULL%1,                            Michiel%Schinkel%NULL%1,                            Peter G%Noordzij%NULL%1,                            Joop P%van den Bergh%NULL%2,                            Joop P%van den Bergh%NULL%0,                            Caroline E%Wyers%NULL%1,                            David T B%Buis%NULL%2,                            David T B%Buis%NULL%0,                            W Joost%Wiersinga%NULL%1,                            Ella H C%van den Hout%NULL%1,                            Auke C%Reidinga%NULL%1,                            Daisy%Rusch%NULL%1,                            Kim C E%Sigaloff%NULL%1,                            Renee A%Douma%NULL%1,                            Lianne%de Haan%NULL%1,                            Niels C%Gritters van den Oever%NULL%1,                            Roger J M W%Rennenberg%NULL%1,                            Guido A%van Wingen%NULL%1,                            Marcel J H%Aries%NULL%1,                            Martijn%Beudel%NULL%2,                            Martijn%Beudel%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                            Fajer A.%Al-Ishaq%NULL%2,                            Fajer A.%Al-Ishaq%NULL%0,                            Fatima S.%Al-Mohannadi%NULL%1,                            Reem S.%Mubarak%NULL%1,                            Maryam H.%Al-Hitmi%NULL%1,                            Khandaker Reajul%Islam%NULL%1,                            Amith%Khandakar%NULL%0,                            Ali Ait%Hssain%NULL%3,                            Ali Ait%Hssain%NULL%0,                            Somaya%Al-Madeed%NULL%0,                            Susu M.%Zughaier%NULL%0,                            Susu M.%Zughaier%NULL%0,                            Muhammad E. H.%Chowdhury%NULL%3,                            Muhammad E. H.%Chowdhury%NULL%0,                            Antonella%Santone%NULL%3,                            Antonella%Santone%NULL%0,                            Antonella%Santone%NULL%0,                            Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                            Amith%Khandakar%NULL%0,                            Md Enamul%Hoque%NULL%2,                            Md Enamul%Hoque%NULL%0,                            Nabil%Ibtehaz%NULL%2,                            Nabil%Ibtehaz%NULL%0,                            Saad Bin%Kashem%NULL%2,                            Saad Bin%Kashem%NULL%0,                            Reehum%Masud%NULL%1,                            Lutfunnahar%Shampa%NULL%1,                            Mohammad Mehedi%Hasan%NULL%1,                            Mohammad Tariqul%Islam%NULL%1,                            Somaya%Al-Maadeed%NULL%2,                            Somaya%Al-Maadeed%NULL%0,                            Susu M.%Zughaier%NULL%0,                            Susu M.%Zughaier%NULL%0,                            Saif%Badran%NULL%2,                            Saif%Badran%NULL%0,                            Suhail A. R.%Doi%NULL%0,                            Suhail A. R.%Doi%NULL%0,                            Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                            Pablo%Rodríguez-Belenguer%NULL%2,                            Pablo%Rodríguez-Belenguer%NULL%0,                            Antonio J.%Serrano-López%NULL%1,                            Emilio%Soria-Olivas%NULL%2,                            Emilio%Soria-Olivas%NULL%0,                            Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                            Haibo%Ai%NULL%1,                            Yunong%Fu%NULL%1,                            Qinglin%Li%NULL%1,                            Ruixia%Cui%NULL%1,                            Xiaohua%Ma%NULL%1,                            Yan-fen%Ma%NULL%1,                            Zi%Wang%NULL%1,                            Tong%Liu%NULL%1,                            Yunxiang%Long%NULL%1,                            Kai%Qu%NULL%1,                            Chang%Liu%NULL%1,                            Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                            Dawei%Zhang%NULL%1,                            Jing%Xu%NULL%6,                            Zhu%Chen%NULL%1,                            Tieniu%Yang%NULL%1,                            Peng%Zhao%NULL%2,                            Guofeng%Chen%NULL%1,                            Gregory%Cheng%NULL%1,                            Yudong%Wang%NULL%1,                            Jingfeng%Bi%NULL%1,                            Lin%Tan%NULL%1,                            George%Lau%NULL%1,                            Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                            Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                            Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                            Giulia%Suigo%NULL%1,                            Davide%Zampini%NULL%1,                            Matteo%Pistoia%NULL%1,                            Mariella%Ciola%NULL%1,                            Tommaso%Ciampani%NULL%1,                            Carolina%Ultori%NULL%1,                            Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                            John R%Adler%NULL%3,                            Sultan M%Kamran%NULL%2,                            Sultan M%Kamran%NULL%0,                            Zill-e-Humayun%Mirza%NULL%1,                            Hussain Abdul%Moeed%NULL%1,                            Arshad%Naseem%NULL%1,                            Maryam%Hussain%NULL%1,                            Imran%Fazal%NULL%1,                            Farrukh%Saeed%NULL%1,                            Wasim%Alamgir%NULL%1,                            Salman%Saleem%NULL%1,                            Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                            María M.%Martín%NULL%1,                            Mónica%Argueso%NULL%1,                            Jordi%Solé-Violán%NULL%1,                            Alina%Perez%NULL%1,                            José Alberto%Marcos Y Ramos%NULL%1,                            Luis%Ramos-Gómez%NULL%1,                            Sergio%López%NULL%1,                            Andrés%Franco%NULL%1,                            Agustín F.%González-Rivero%NULL%1,                            María%Martín%NULL%1,                            Verónica%Gonzalez%NULL%1,                            Julia%Alcoba-Flórez%NULL%1,                            Miguel Ángel%Rodriguez%NULL%1,                            Marta%Riaño-Ruiz%NULL%1,                            Juan%Guillermo O Campo%NULL%1,                            Lourdes%González%NULL%1,                            Tamara%Cantera%NULL%1,                            Raquel%Ortiz-López%NULL%1,                            Nazario%Ojeda%NULL%1,                            Aurelio%Rodríguez-Pérez%NULL%1,                            Casimira%Domínguez%NULL%1,                            Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                            Rita%Kukafka%NULL%1,                            Arriel%Benis%NULL%2,                            Arriel%Benis%NULL%0,                            Jinfeng%Li%NULL%1,                            Pan%Pan%NULL%2,                            Pan%Pan%NULL%0,                            Yichao%Li%NULL%2,                            Yichao%Li%NULL%0,                            Yongjiu%Xiao%NULL%2,                            Yongjiu%Xiao%NULL%0,                            Bingchao%Han%NULL%2,                            Bingchao%Han%NULL%0,                            Longxiang%Su%NULL%2,                            Longxiang%Su%NULL%0,                            Mingliang%Su%NULL%2,                            Mingliang%Su%NULL%0,                            Yansheng%Li%NULL%2,                            Yansheng%Li%NULL%0,                            Siqi%Zhang%NULL%2,                            Siqi%Zhang%NULL%0,                            Dapeng%Jiang%NULL%2,                            Dapeng%Jiang%NULL%0,                            Xia%Chen%NULL%2,                            Xia%Chen%NULL%0,                            Fuquan%Zhou%NULL%2,                            Fuquan%Zhou%NULL%0,                            Ling%Ma%NULL%2,                            Ling%Ma%NULL%0,                            Pengtao%Bao%NULL%2,                            Pengtao%Bao%NULL%0,                            Lixin%Xie%xielx301@126.com%2,                            Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                            Cristina%Roca-Oporto%NULL%2,                            Guillermo%Martín-Gutiérrez%NULL%2,                            María Dolores%Avilés%NULL%2,                            Carmen%Gómez-González%NULL%2,                            María Dolores%Navarro-Amuedo%NULL%2,                            Julia%Praena-Segovia%NULL%2,                            José%Molina%NULL%2,                            María%Paniagua-García%NULL%2,                            Horacio%García-Delgado%NULL%2,                            Antonio%Domínguez-Petit%NULL%2,                            Jerónimo%Pachón%NULL%2,                            José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                            Barry R.%Meisenberg%NULL%2,                            Barry R.%Meisenberg%NULL%0,                            James H.%MacDonald%NULL%1,                            Nandakumar%Menon%NULL%1,                            Marcia B.%Fowler%NULL%1,                            Michaline%West%NULL%1,                            Jane%Rhule%NULL%1,                            Sadaf S.%Qureshi%NULL%1,                            Eileen B.%MacDonald%NULL%1,                            Yu Ru%Kou%NULL%2,                            Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                            Sarah%Poole%NULL%2,                            Sarah%Poole%NULL%0,                            Meeta%Pradhan%NULL%1,                            Akhil%Vaid%NULL%3,                            Akhil%Vaid%NULL%0,                            Sulaiman%Somani%NULL%3,                            Sulaiman%Somani%NULL%0,                            Adam J%Russak%NULL%2,                            Adam J%Russak%NULL%0,                            Jessica K%De Freitas%NULL%2,                            Jessica K%De Freitas%NULL%0,                            Fayzan F%Chaudhry%NULL%2,                            Fayzan F%Chaudhry%NULL%0,                            Ishan%Paranjpe%NULL%3,                            Ishan%Paranjpe%NULL%0,                            Kipp W%Johnson%NULL%2,                            Kipp W%Johnson%NULL%0,                            Samuel J%Lee%NULL%2,                            Samuel J%Lee%NULL%0,                            Riccardo%Miotto%NULL%2,                            Riccardo%Miotto%NULL%0,                            Felix%Richter%NULL%3,                            Felix%Richter%NULL%0,                            Shan%Zhao%NULL%3,                            Shan%Zhao%NULL%0,                            Noam D%Beckmann%NULL%2,                            Noam D%Beckmann%NULL%0,                            Nidhi%Naik%NULL%2,                            Nidhi%Naik%NULL%0,                            Arash%Kia%NULL%2,                            Arash%Kia%NULL%0,                            Prem%Timsina%NULL%2,                            Prem%Timsina%NULL%0,                            Anuradha%Lala%NULL%2,                            Anuradha%Lala%NULL%0,                            Manish%Paranjpe%NULL%2,                            Manish%Paranjpe%NULL%0,                            Eddye%Golden%NULL%2,                            Eddye%Golden%NULL%0,                            Matteo%Danieletto%NULL%2,                            Matteo%Danieletto%NULL%0,                            Manbir%Singh%NULL%2,                            Manbir%Singh%NULL%0,                            Dara%Meyer%NULL%2,                            Dara%Meyer%NULL%0,                            Paul F%O'Reilly%NULL%2,                            Paul F%O'Reilly%NULL%0,                            Laura%Huckins%NULL%2,                            Laura%Huckins%NULL%0,                            Patricia%Kovatch%NULL%2,                            Patricia%Kovatch%NULL%0,                            Joseph%Finkelstein%NULL%2,                            Joseph%Finkelstein%NULL%0,                            Robert M.%Freeman%NULL%2,                            Robert M.%Freeman%NULL%0,                            Edgar%Argulian%NULL%2,                            Edgar%Argulian%NULL%0,                            Andrew%Kasarskis%NULL%2,                            Andrew%Kasarskis%NULL%0,                            Bethany%Percha%NULL%2,                            Bethany%Percha%NULL%0,                            Judith A%Aberg%NULL%2,                            Judith A%Aberg%NULL%0,                            Emilia%Bagiella%NULL%3,                            Emilia%Bagiella%NULL%0,                            Carol R%Horowitz%NULL%2,                            Carol R%Horowitz%NULL%0,                            Barbara%Murphy%NULL%2,                            Barbara%Murphy%NULL%0,                            Eric J%Nestler%NULL%2,                            Eric J%Nestler%NULL%0,                            Eric E%Schadt%NULL%2,                            Eric E%Schadt%NULL%0,                            Judy H%Cho%NULL%2,                            Judy H%Cho%NULL%0,                            Carlos%Cordon-Cardo%NULL%2,                            Carlos%Cordon-Cardo%NULL%0,                            Valentin%Fuster%NULL%3,                            Valentin%Fuster%NULL%0,                            Dennis S%Charney%NULL%2,                            Dennis S%Charney%NULL%0,                            David L%Reich%NULL%2,                            David L%Reich%NULL%0,                            Erwin P%Bottinger%NULL%2,                            Erwin P%Bottinger%NULL%0,                            Matthew A%Levin%NULL%2,                            Matthew A%Levin%NULL%0,                            Jagat%Narula%NULL%3,                            Jagat%Narula%NULL%0,                            Zahi A%Fayad%NULL%2,                            Zahi A%Fayad%NULL%0,                            Allan C%Just%NULL%2,                            Allan C%Just%NULL%0,                            Alexander W%Charney%NULL%2,                            Alexander W%Charney%NULL%0,                            Girish N%Nadkarni%NULL%2,                            Girish N%Nadkarni%NULL%0,                            Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                            Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                            Anne%Chen%NULL%2,                            Wei%Hou%NULL%3,                            James M.%Graham%NULL%1,                            Haifang%Li%NULL%2,                            Paul S.%Richman%NULL%1,                            Henry C.%Thode%NULL%1,                            Adam J.%Singer%NULL%1,                            Tim Q.%Duong%NULL%1,                            Muhammad%Adrish%NULL%9,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0,                            Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                            Qin%Liu%NULL%2,                            Xiao%Zhang%NULL%2,                            Shuyi%Liu%NULL%1,                            Weiqi%Chen%NULL%1,                            Jingjing%You%NULL%1,                            Qiuying%Chen%NULL%1,                            Minmin%Li%NULL%1,                            Zhuozhi%Chen%NULL%1,                            Luyan%Chen%NULL%1,                            Lv%Chen%NULL%1,                            Yuhao%Dong%NULL%1,                            Qingsi%Zeng%NULL%1,                            Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                            Lei%Nie%NULL%1,                            Dongde%Wu%NULL%1,                            Jian%Chen%NULL%2,                            Zhifeng%Yang%NULL%1,                            Ling%Zhang%NULL%3,                            Dongqing%Li%NULL%1,                            Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                            Burcin%Hakoglu%NULL%2,                            Burcin%Hakoglu%NULL%0,                            Ali%Kadri Cirak%NULL%1,                            Gulru%Polat%NULL%1,                            Berna%Komurcuoglu%NULL%1,                            Berrin%Akkol%NULL%1,                            Cagri%Atasoy%NULL%1,                            Eda%Bayramic%NULL%1,                            Gunseli%Balci%NULL%1,                            Sena%Ataman%NULL%1,                            Sinem%Ermin%NULL%1,                            Enver%Yalniz%NULL%1,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                            Qiaosen%Chen%NULL%2,                            Qiaosen%Chen%NULL%0,                            Sumeng%Li%NULL%1,                            Huadong%Li%NULL%1,                            Qian%Zhang%NULL%1,                            Sihong%Lu%NULL%1,                            Li%Wu%NULL%1,                            Leiqun%Xiong%NULL%1,                            Bobin%Mi%NULL%1,                            Di%Liu%NULL%3,                            Mengji%Lu%NULL%1,                            Dongliang%Yang%NULL%1,                            Hongbo%Jiang%hongbojiang3@163.com%1,                            Shaoping%Zheng%zhengspxx@126.com%1,                            Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                            Hua%Zhang%NULL%2,                            Rui%Qiao%NULL%1,                            Qinggang%Ge%NULL%1,                            Shuisheng%Zhang%NULL%1,                            Zongxuan%Zhao%NULL%1,                            Ci%Tian%NULL%1,                            Qingbian%Ma%NULL%2,                            Qingbian%Ma%NULL%0,                            Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                            Antonia%Ho%NULL%2,                            Riinu%Pius%NULL%2,                            Iain%Buchan%NULL%1,                            Gail%Carson%NULL%2,                            Thomas M%Drake%NULL%1,                            Jake%Dunning%NULL%2,                            Cameron J%Fairfield%NULL%2,                            Carrol%Gamble%NULL%2,                            Christopher A%Green%NULL%2,                            Rishi%Gupta%NULL%1,                            Sophie%Halpin%NULL%2,                            Hayley E%Hardwick%NULL%1,                            Karl A%Holden%NULL%1,                            Peter W%Horby%NULL%2,                            Clare%Jackson%NULL%2,                            Kenneth A%Mclean%NULL%2,                            Laura%Merson%NULL%2,                            Jonathan S%Nguyen-Van-Tam%NULL%1,                            Lisa%Norman%NULL%2,                            Mahdad%Noursadeghi%NULL%2,                            Piero L%Olliaro%NULL%1,                            Mark G%Pritchard%NULL%1,                            Clark D%Russell%NULL%2,                            Catherine A%Shaw%NULL%2,                            Aziz%Sheikh%NULL%2,                            Tom%Solomon%NULL%2,                            Cathie%Sudlow%NULL%1,                            Olivia V%Swann%NULL%1,                            Lance CW%Turtle%NULL%2,                            Peter JM%Openshaw%NULL%2,                            J Kenneth%Baillie%NULL%2,                            Malcolm G%Semple%NULL%3,                            Annemarie B%Docherty%NULL%3,                            Annemarie B%Docherty%NULL%0,                            Ewen M%Harrison%NULL%3,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            J Kenneth%Baillie%NULL%0,                            Malcolm G%Semple%NULL%0,                            Peter JM%Openshaw%NULL%0,                            Gail%Carson%NULL%0,                            Beatrice%Alex%NULL%1,                            Benjamin%Bach%NULL%1,                            Wendy S%Barclay%NULL%1,                            Debby%Bogaert%NULL%1,                            Meera%Chand%NULL%1,                            Graham S%Cooke%NULL%1,                            Annemarie B%Docherty%NULL%0,                            Jake%Dunning%NULL%0,                            Ana%da Silva Filipe%NULL%1,                            Tom%Fletcher%NULL%1,                            Christopher A%Green%NULL%0,                            Ewen M%Harrison%NULL%0,                            Julian A%Hiscox%NULL%1,                            Antonia Ying Wai%Ho%NULL%1,                            Peter W%Horby%NULL%0,                            Samreen%Ijaz%NULL%1,                            Saye%Khoo%NULL%1,                            Paul%Klenerman%NULL%1,                            Andrew%Law%NULL%2,                            Wei Shen%Lim%NULL%1,                            Alexander J%Mentzer%NULL%1,                            Laura%Merson%NULL%0,                            Alison M%Meynert%NULL%1,                            Mahdad%Noursadeghi%NULL%0,                            Shona C%Moore%NULL%2,                            Massimo%Palmarini%NULL%1,                            William A%Paxton%NULL%1,                            Georgios%Pollakis%NULL%1,                            Nicholas%Price%NULL%1,                            Andrew%Rambaut%NULL%1,                            David L%Robertson%NULL%1,                            Clark D%Russell%NULL%0,                            Vanessa%Sancho-Shimizu%NULL%1,                            Janet T%Scott%NULL%1,                            Louise%Sigfrid%NULL%1,                            Tom%Solomon%NULL%0,                            Shiranee%Sriskandan%NULL%1,                            David%Stuart%NULL%1,                            Charlotte%Summers%NULL%1,                            Richard S%Tedder%NULL%1,                            Emma C%Thomson%NULL%1,                            Ryan S%Thwaites%NULL%1,                            Lance CW%Turtle%NULL%0,                            Maria%Zambon%NULL%1,                            Hayley%Hardwick%NULL%1,                            Chloe%Donohue%NULL%1,                            Jane%Ewins%NULL%1,                            Wilna%Oosthuyzen%NULL%1,                            Fiona%Griffiths%NULL%1,                            Lisa%Norman%NULL%0,                            Riinu%Pius%NULL%0,                            Tom M%Drake%NULL%1,                            Cameron J%Fairfield%NULL%0,                            Stephen%Knight%NULL%1,                            Kenneth A%Mclean%NULL%0,                            Derek%Murphy%NULL%1,                            Catherine A%Shaw%NULL%0,                            Jo%Dalton%NULL%1,                            Michelle%Girvan%NULL%1,                            Egle%Saviciute%NULL%1,                            Stephanie%Roberts%NULL%1,                            Janet%Harrison%NULL%1,                            Laura%Marsh%NULL%1,                            Marie%Connor%NULL%1,                            Sophie%Halpin%NULL%0,                            Clare%Jackson%NULL%0,                            Carrol%Gamble%NULL%0,                            Gary%Leeming%NULL%1,                            Andrew%Law%NULL%0,                            Ross%Hendry%NULL%1,                            James%Scott-Brown%NULL%1,                            William%Greenhalf%NULL%1,                            Victoria%Shaw%NULL%1,                            Sarah%McDonald%NULL%2,                            Katie A%Ahmed%NULL%1,                            Jane A%Armstrong%NULL%1,                            Milton%Ashworth%NULL%1,                            Innocent G%Asiimwe%NULL%1,                            Siddharth%Bakshi%NULL%1,                            Samantha L%Barlow%NULL%1,                            Laura%Booth%NULL%1,                            Benjamin%Brennan%NULL%1,                            Katie%Bullock%NULL%1,                            Benjamin WA%Catterall%NULL%1,                            Jordan J%Clark%NULL%1,                            Emily A%Clarke%NULL%1,                            Sarah%Cole%NULL%1,                            Louise%Cooper%NULL%1,                            Helen%Cox%NULL%1,                            Christopher%Davis%NULL%1,                            Oslem%Dincarslan%NULL%1,                            Chris%Dunn%NULL%1,                            Philip%Dyer%NULL%1,                            Angela%Elliott%NULL%1,                            Anthony%Evans%NULL%1,                            Lewis WS%Fisher%NULL%1,                            Terry%Foster%NULL%1,                            Isabel%Garcia-Dorival%NULL%1,                            Willliam%Greenhalf%NULL%1,                            Philip%Gunning%NULL%1,                            Catherine%Hartley%NULL%1,                            Antonia%Ho%NULL%0,                            Rebecca L%Jensen%NULL%1,                            Christopher B%Jones%NULL%1,                            Trevor R%Jones%NULL%1,                            Shadia%Khandaker%NULL%1,                            Katharine%King%NULL%1,                            Robyn T%Kiy%NULL%1,                            Chrysa%Koukorava%NULL%1,                            Annette%Lake%NULL%1,                            Suzannah%Lant%NULL%1,                            Diane%Latawiec%NULL%1,                            L%Lavelle-Langham%NULL%1,                            Daniella%Lefteri%NULL%1,                            Lauren%Lett%NULL%1,                            Lucia A%Livoti%NULL%1,                            Maria%Mancini%NULL%1,                            Sarah%McDonald%NULL%0,                            Laurence%McEvoy%NULL%1,                            John%McLauchlan%NULL%1,                            Soeren%Metelmann%NULL%1,                            Nahida S%Miah%NULL%1,                            Joanna%Middleton%NULL%1,                            Joyce%Mitchell%NULL%1,                            Shona C%Moore%NULL%0,                            Ellen G%Murphy%NULL%1,                            Rebekah%Penrice-Randal%NULL%1,                            Jack%Pilgrim%NULL%1,                            Tessa%Prince%NULL%1,                            Will%Reynolds%NULL%1,                            P Matthew%Ridley%NULL%1,                            Debby%Sales%NULL%1,                            Victoria E%Shaw%NULL%1,                            Rebecca K%Shears%NULL%1,                            Benjamin%Small%NULL%1,                            Krishanthi S%Subramaniam%NULL%1,                            Agnieska%Szemiel%NULL%1,                            Aislynn%Taggart%NULL%1,                            Jolanta%Tanianis-Hughes%NULL%1,                            Jordan%Thomas%NULL%1,                            Erwan%Trochu%NULL%1,                            Libby%van Tonder%NULL%1,                            Eve%Wilcock%NULL%1,                            J Eunice%Zhang%NULL%1,                            Kayode%Adeniji%NULL%1,                            Daniel%Agranoff%NULL%1,                            Ken%Agwuh%NULL%1,                            Dhiraj%Ail%NULL%1,                            Ana%Alegria%NULL%1,                            Brian%Angus%NULL%1,                            Abdul%Ashish%NULL%1,                            Dougal%Atkinson%NULL%1,                            Shahedal%Bari%NULL%1,                            Gavin%Barlow%NULL%1,                            Stella%Barnass%NULL%1,                            Nicholas%Barrett%NULL%2,                            Christopher%Bassford%NULL%1,                            David%Baxter%NULL%1,                            Michael%Beadsworth%NULL%1,                            Jolanta%Bernatoniene%NULL%1,                            John%Berridge%NULL%1,                            Nicola%Best%NULL%1,                            Pieter%Bothma%NULL%1,                            David%Brealey%NULL%1,                            Robin%Brittain-Long%NULL%1,                            Naomi%Bulteel%NULL%1,                            Tom%Burden%NULL%1,                            Andrew%Burtenshaw%NULL%1,                            Vikki%Caruth%NULL%1,                            David%Chadwick%NULL%1,                            Duncan%Chambler%NULL%1,                            Nigel%Chee%NULL%1,                            Jenny%Child%NULL%1,                            Srikanth%Chukkambotla%NULL%1,                            Tom%Clark%NULL%1,                            Paul%Collini%NULL%1,                            Catherine%Cosgrove%NULL%1,                            Jason%Cupitt%NULL%1,                            Maria-Teresa%Cutino-Moguel%NULL%1,                            Paul%Dark%NULL%1,                            Chris%Dawson%NULL%1,                            Samir%Dervisevic%NULL%1,                            Phil%Donnison%NULL%1,                            Sam%Douthwaite%NULL%1,                            Ingrid%DuRand%NULL%1,                            Ahilanadan%Dushianthan%NULL%1,                            Tristan%Dyer%NULL%1,                            Cariad%Evans%NULL%1,                            Chi%Eziefula%NULL%1,                            Chrisopher%Fegan%NULL%1,                            Adam%Finn%NULL%1,                            Duncan%Fullerton%NULL%1,                            Sanjeev%Garg%NULL%2,                            Sanjeev%Garg%NULL%0,                            Atul%Garg%NULL%1,                            Jo%Godden%NULL%1,                            Arthur%Goldsmith%NULL%1,                            Clive%Graham%NULL%1,                            Elaine%Hardy%NULL%1,                            Stuart%Hartshorn%NULL%1,                            Daniel%Harvey%NULL%1,                            Peter%Havalda%NULL%1,                            Daniel B%Hawcutt%NULL%1,                            Maria%Hobrok%NULL%1,                            Luke%Hodgson%NULL%1,                            Anita%Holme%NULL%1,                            Anil%Hormis%NULL%1,                            Michael%Jacobs%NULL%1,                            Susan%Jain%NULL%1,                            Paul%Jennings%NULL%1,                            Agilan%Kaliappan%NULL%1,                            Vidya%Kasipandian%NULL%1,                            Stephen%Kegg%NULL%1,                            Michael%Kelsey%NULL%1,                            Jason%Kendall%NULL%1,                            Caroline%Kerrison%NULL%1,                            Ian%Kerslake%NULL%1,                            Oliver%Koch%NULL%2,                            Gouri%Koduri%NULL%1,                            George%Koshy%NULL%1,                            Shondipon%Laha%NULL%1,                            Susan%Larkin%NULL%1,                            Tamas%Leiner%NULL%1,                            Patrick%Lillie%NULL%1,                            James%Limb%NULL%1,                            Vanessa%Linnett%NULL%1,                            Jeff%Little%NULL%1,                            Michael%MacMahon%NULL%1,                            Emily%MacNaughton%NULL%1,                            Ravish%Mankregod%NULL%1,                            Huw%Masson%NULL%1,                            Elijah%Matovu%NULL%1,                            Katherine%McCullough%NULL%1,                            Ruth%McEwen%NULL%1,                            Manjula%Meda%NULL%1,                            Gary%Mills%NULL%1,                            Jane%Minton%NULL%1,                            Mariyam%Mirfenderesky%NULL%1,                            Kavya%Mohandas%NULL%1,                            Quen%Mok%NULL%1,                            James%Moon%NULL%1,                            Elinoor%Moore%NULL%1,                            Patrick%Morgan%NULL%1,                            Craig%Morris%NULL%1,                            Katherine%Mortimore%NULL%1,                            Samuel%Moses%NULL%1,                            Mbiye%Mpenge%NULL%1,                            Rohinton%Mulla%NULL%1,                            Michael%Murphy%NULL%1,                            Megan%Nagel%NULL%1,                            Thapas%Nagarajan%NULL%1,                            Mark%Nelson%NULL%1,                            Igor%Otahal%NULL%1,                            Mark%Pais%NULL%1,                            Selva%Panchatsharam%NULL%1,                            Hassan%Paraiso%NULL%1,                            Brij%Patel%NULL%1,                            Justin%Pepperell%NULL%1,                            Mark%Peters%NULL%1,                            Mandeep%Phull%NULL%1,                            Stefania%Pintus%NULL%1,                            Jagtur Singh%Pooni%NULL%1,                            Frank%Post%NULL%1,                            David%Price%NULL%1,                            Rachel%Prout%NULL%1,                            Nikolas%Rae%NULL%1,                            Henrik%Reschreiter%NULL%1,                            Tim%Reynolds%NULL%1,                            Neil%Richardson%NULL%1,                            Mark%Roberts%NULL%1,                            Devender%Roberts%NULL%1,                            Alistair%Rose%NULL%1,                            Guy%Rousseau%NULL%1,                            Brendan%Ryan%NULL%1,                            Taranprit%Saluja%NULL%1,                            Aarti%Shah%NULL%1,                            Prad%Shanmuga%NULL%1,                            Anil%Sharma%NULL%1,                            Anna%Shawcross%NULL%1,                            Jeremy%Sizer%NULL%1,                            Richard%Smith%NULL%1,                            Catherine%Snelson%NULL%1,                            Nick%Spittle%NULL%1,                            Nikki%Staines%NULL%1,                            Tom%Stambach%NULL%1,                            Richard%Stewart%NULL%1,                            Pradeep%Subudhi%NULL%1,                            Tamas%Szakmany%NULL%1,                            Kate%Tatham%NULL%1,                            Jo%Thomas%NULL%1,                            Chris%Thompson%NULL%1,                            Robert%Thompson%NULL%1,                            Ascanio%Tridente%NULL%1,                            Darell%Tupper-Carey%NULL%1,                            Mary%Twagira%NULL%1,                            Andrew%Ustianowski%NULL%1,                            Nick%Vallotton%NULL%1,                            Lisa%Vincent-Smith%NULL%1,                            Shico%Visuvanathan%NULL%1,                            Alan%Vuylsteke%NULL%1,                            Sam%Waddy%NULL%1,                            Rachel%Wake%NULL%1,                            Andrew%Walden%NULL%1,                            Ingeborg%Welters%NULL%1,                            Tony%Whitehouse%NULL%1,                            Paul%Whittaker%NULL%1,                            Ashley%Whittington%NULL%1,                            Meme%Wijesinghe%NULL%1,                            Martin%Williams%NULL%1,                            Lawrence%Wilson%NULL%1,                            Sarah%Wilson%NULL%1,                            Stephen%Winchester%NULL%1,                            Martin%Wiselka%NULL%1,                            Adam%Wolverson%NULL%1,                            Daniel G%Wooton%NULL%1,                            Andrew%Workman%NULL%1,                            Bryan%Yates%NULL%1,                            Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                            Braulio A.%Marfil‐Garza%NULL%1,                            Erick%Martínez Rodríguez%NULL%1,                            José Omar%Barreto Rodríguez%NULL%1,                            Alicia Estela%López Romo%NULL%1,                            Paolo%Alberti Minutti%NULL%1,                            Juan Vicente%Alejandre Loya%NULL%1,                            Félix Emmanuel%Pérez Talavera%NULL%1,                            Freddy José%Ávila Cervera%NULL%1,                            Adriana%Velazquez Burciaga%NULL%1,                            Oscar%Morado Aramburo%NULL%1,                            Luis Alberto%Piña Olguín%NULL%1,                            Adrian%Soto‐Rodríguez%NULL%1,                            Andrés%Castañeda Prado%NULL%1,                            Patricio%Santillán Doherty%NULL%1,                            Juan%O Galindo%NULL%1,                            Luis Alberto%Guízar García%NULL%1,                            Daniel%Hernández Gordillo%NULL%1,                            Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                            Aatish%Patel%NULL%1,                            Esmita%Charani%NULL%1,                            Sarah%Denny%NULL%1,                            Saleh A.%Alqahtani%NULL%1,                            Gary W.%Davies%NULL%1,                            Nabeela%Mughal%NULL%1,                            Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                            Hyunsun%Lim%NULL%1,                            Dong-Wook%Kim%NULL%1,                            Jung Hyun%Chang%NULL%1,                            Yoon Jung%Choi%chris316@yuhs.ac%1,                            Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                            Wenhua%Liang%NULL%3,                            Mei%Jiang%NULL%2,                            Weijie%Guan%NULL%3,                            Chen%Zhan%NULL%2,                            Tao%Wang%NULL%0,                            Chunli%Tang%NULL%3,                            Ling%Sang%NULL%3,                            Jiaxing%Liu%NULL%2,                            Zhengyi%Ni%NULL%2,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%8,                            Hong%Shan%NULL%5,                            Chunliang%Lei%NULL%2,                            Yixiang%Peng%NULL%2,                            Li%Wei%NULL%5,                            Yong%Liu%NULL%5,                            Yahua%Hu%NULL%2,                            Peng%Peng%NULL%7,                            Jianming%Wang%NULL%2,                            Jiyang%Liu%NULL%2,                            Zhong%Chen%NULL%5,                            Gang%Li%NULL%5,                            Zhijian%Zheng%NULL%2,                            Shaoqin%Qiu%NULL%2,                            Jie%Luo%NULL%5,                            Changjiang%Ye%NULL%2,                            Shaoyong%Zhu%NULL%2,                            Xiaoqing%Liu%NULL%2,                            Linling%Cheng%NULL%2,                            Feng%Ye%NULL%2,                            Jinping%Zheng%NULL%2,                            Nuofu%Zhang%NULL%2,                            Yimin%Li%NULL%2,                            Jianxing%He%NULL%2,                            Shiyue%Li%lishiyue@188.com%3,                            Nanshan%Zhong%NULL%4,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                            Liu%Hu%NULL%1,                            Yiru%Wang%NULL%0,                            Luyan%Huang%NULL%1,                            Lingxi%Zhao%NULL%1,                            Congcong%Zhang%NULL%1,                            Xiyue%Liu%NULL%1,                            Ranran%Xu%NULL%1,                            Feng%Liu%NULL%0,                            Jinping%Li%NULL%1,                            Dawei%Ye%NULL%0,                            Tao%Wang%NULL%0,                            Yongman%Lv%lvyongman@126.com%0,                            Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                            Carol A C%Coupland%NULL%1,                            Ruth H%Keogh%NULL%1,                            Karla%Diaz-Ordaz%NULL%1,                            Elizabeth%Williamson%NULL%1,                            Ewen M%Harrison%NULL%0,                            Andrew%Hayward%NULL%1,                            Harry%Hemingway%NULL%1,                            Peter%Horby%NULL%1,                            Nisha%Mehta%NULL%1,                            Jonathan%Benger%NULL%1,                            Kamlesh%Khunti%NULL%0,                            David%Spiegelhalter%NULL%1,                            Aziz%Sheikh%NULL%0,                            Jonathan%Valabhji%NULL%0,                            Ronan A%Lyons%NULL%1,                            John%Robson%NULL%1,                            Malcolm G%Semple%NULL%0,                            Frank%Kee%NULL%1,                            Peter%Johnson%NULL%1,                            Susan%Jebb%NULL%1,                            Tony%Williams%NULL%1,                            Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                            Guang-Yao%Cai%NULL%1,                            Wei%Fang%NULL%2,                            Hua-Yi%Li%NULL%1,                            Si-Yuan%Wang%NULL%2,                            Si-Yuan%Wang%NULL%0,                            Lingxi%Chen%NULL%1,                            Yang%Yu%NULL%1,                            Dan%Liu%NULL%0,                            Sen%Xu%NULL%2,                            Peng-Fei%Cui%NULL%1,                            Shao-Qing%Zeng%NULL%2,                            Shao-Qing%Zeng%NULL%0,                            Xin-Xia%Feng%NULL%1,                            Rui-Di%Yu%NULL%1,                            Ya%Wang%NULL%2,                            Yuan%Yuan%NULL%1,                            Xiao-Fei%Jiao%NULL%1,                            Jian-Hua%Chi%NULL%1,                            Jia-Hao%Liu%NULL%1,                            Ru-Yuan%Li%NULL%1,                            Xu%Zheng%NULL%1,                            Chun-Yan%Song%NULL%1,                            Ning%Jin%NULL%1,                            Wen-Jian%Gong%NULL%1,                            Xing-Yu%Liu%NULL%1,                            Lei%Huang%NULL%2,                            Xun%Tian%NULL%1,                            Lin%Li%NULL%1,                            Hui%Xing%NULL%1,                            Ding%Ma%NULL%1,                            Chun-Rui%Li%NULL%1,                            Fei%Ye%yeyuanbei@hotmail.com%1,                            Qing-Lei%Gao%qingleigao@hotmail.com%2,                            Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                            Ang%Li%NULL%1,                            Mengfan%Jiao%NULL%1,                            Qingmiao%Shi%NULL%1,                            Xiaocai%An%NULL%1,                            Yonghai%Feng%NULL%1,                            Lihua%Xing%NULL%1,                            Hongxia%Liang%NULL%1,                            Jiajun%Chen%NULL%1,                            Huiling%Li%NULL%1,                            Juan%Li%NULL%0,                            Zhigang%Ren%NULL%1,                            Ranran%Sun%NULL%1,                            Guangying%Cui%NULL%1,                            Yongjian%Zhou%NULL%1,                            Ming%Cheng%NULL%1,                            Pengfei%Jiao%NULL%1,                            Yu%Wang%NULL%2,                            Jiyuan%Xing%NULL%1,                            Shen%Shen%NULL%1,                            Qingxian%Zhang%NULL%1,                            Aiguo%Xu%NULL%1,                            Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                            Michael%Ng%NULL%1,                            Shuang%Xu%NULL%1,                            Zhouming%Xu%NULL%1,                            Hui%Qiu%NULL%1,                            Yuwei%Liu%NULL%1,                            Jiayou%Lyu%NULL%1,                            Jiwen%You%NULL%1,                            Peng%Zhao%NULL%0,                            Shihao%Wang%NULL%1,                            Yunfei%Tang%NULL%1,                            Hao%Cui%NULL%1,                            Changxiao%Yu%NULL%1,                            Feng%Wang%NULL%5,                            Fei%Shao%NULL%1,                            Peng%Sun%NULL%1,                            Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                            Huifang%Wang%NULL%1,                            Junwei%Huang%NULL%1,                            Yan%Geng%NULL%1,                            Shuqi%Jiang%NULL%1,                            Qiuping%Zhou%NULL%1,                            Xuan%Chen%NULL%1,                            Hongping%Hu%NULL%1,                            Weifeng%Li%NULL%1,                            Chengbin%Zhou%NULL%1,                            Xinglin%Gao%NULL%1,                            Na%Peng%pnatz@163.com%1,                            Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                            Dandan%Cheng%NULL%1,                            Yiwei%Cao%NULL%1,                            Chuan%Hu%NULL%1,                            Fenglin%Zou%NULL%1,                            Wencheng%Yu%NULL%1,                            Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                            Min Kyu%Kang%NULL%2,                            Min Kyu%Kang%NULL%0,                            Yu Rim%Lee%NULL%2,                            Yu Rim%Lee%NULL%0,                            Jeong Eun%Song%NULL%2,                            Jeong Eun%Song%NULL%0,                            Na Young%Kim%NULL%1,                            Young Oh%Kweon%NULL%1,                            Won Young%Tak%NULL%1,                            Se Young%Jang%NULL%1,                            Changhyeong%Lee%NULL%2,                            Changhyeong%Lee%NULL%0,                            Byung Seok%Kim%NULL%1,                            Jae Seok%Hwang%NULL%1,                            Byoung Kuk%Jang%NULL%1,                            Jinmok%Bae%NULL%1,                            Ji Yeon%Lee%NULL%0,                            Jeong Ill%Suh%NULL%1,                            Soo Young%Park%NULL%1,                            Woo Jin%Chung%NULL%2,                            Woo Jin%Chung%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                            Cristina%Roca-Oporto%NULL%0,                            Guillermo%Martín-Gutiérrez%NULL%0,                            María Dolores%Avilés%NULL%0,                            Carmen%Gómez-González%NULL%0,                            María Dolores%Navarro-Amuedo%NULL%0,                            Julia%Praena-Segovia%NULL%0,                            José%Molina%NULL%0,                            María%Paniagua-García%NULL%0,                            Horacio%García-Delgado%NULL%0,                            Antonio%Domínguez-Petit%NULL%0,                            Jerónimo%Pachón%NULL%0,                            José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%1,                             Min%He%NULL%1,                             Wanhong%Yin%NULL%1,                             Xuelian%Liao%NULL%1,                             Bo%Wang%NULL%5,                             Xiaodong%Jin%NULL%1,                             Yao%Ma%NULL%2,                             Jirong%Yue%NULL%1,                             Lang%Bai%NULL%1,                             Dan%Liu%NULL%3,                             Ting%Zhu%NULL%1,                             Zhixin%Huang%NULL%1,                             Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%1,                             Shuchang%Zhou%NULL%1,                             Yujin%Wang%NULL%1,                             Wenzhi%Lv%NULL%2,                             Shili%Wang%NULL%1,                             Ting%Wang%751884926@qq.com%1,                             Xiaoming%Li%lilyboston2002@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%1,                             Yan-chak%Li%NULL%1,                             Sonali%Bose%NULL%1,                             Ravi%Iyengar%NULL%1,                             Supinda%Bunyavanich%NULL%1,                             Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%1,                             Mengfei%Guo%NULL%1,                             Limin%Duan%NULL%1,                             Feng%Wu%NULL%1,                             Guorong%Hu%NULL%1,                             Zhihui%Wang%NULL%1,                             Qi%Huang%NULL%1,                             Tingting%Liao%NULL%1,                             Juanjuan%Xu%NULL%1,                             Yanling%Ma%NULL%1,                             Zhilei%Lv%NULL%1,                             Wenjing%Xiao%NULL%1,                             Zilin%Zhao%NULL%1,                             Xueyun%Tan%NULL%1,                             Daquan%Meng%NULL%1,                             Shujing%Zhang%NULL%1,                             E%Zhou%NULL%1,                             Zhengrong%Yin%NULL%1,                             Wei%Geng%NULL%1,                             Xuan%Wang%NULL%1,                             Jianchu%Zhang%NULL%1,                             Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1,                             Yu%Zhang%whxhzy@163.com%1,                             Yang%Jin%whuhjy@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%1,                             Francesco%Arru%NULL%2,                             Francesco%Arru%NULL%0,                             Andrea%De Vito%NULL%3,                             Alessandro%Sassu%NULL%2,                             Alessandro%Sassu%NULL%0,                             Giovanni%Valdes%NULL%1,                             Valentina%Scano%NULL%1,                             Elisabetta%Zinellu%NULL%1,                             Roberto%Perra%NULL%1,                             Giordano%Madeddu%NULL%3,                             Ciriaco%Carru%NULL%1,                             Pietro%Pirina%NULL%3,                             Arduino A.%Mangoni%NULL%2,                             Arduino A.%Mangoni%NULL%0,                             Sergio%Babudieri%NULL%4,                             Sergio%Babudieri%NULL%0,                             Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%1,                             Pablo%Ryan%NULL%1,                             Jorge%Valencia%NULL%2,                             Jorge%Valencia%NULL%0,                             Mario%Pérez-Butragueño%NULL%2,                             Mario%Pérez-Butragueño%NULL%0,                             Eva%Jiménez%NULL%2,                             Eva%Jiménez%NULL%0,                             Mario%Fontán-Vela%NULL%1,                             Elsa%Izquierdo-García%NULL%2,                             Elsa%Izquierdo-García%NULL%0,                             Inés%Fernandez-Jimenez%NULL%1,                             Elena%Álvaro-Alonso%NULL%1,                             Andrea%Lazaro%NULL%2,                             Andrea%Lazaro%NULL%0,                             Marta%Alvarado%NULL%1,                             Helena%Notario%NULL%1,                             Salvador%Resino%NULL%1,                             Daniel%Velez-Serrano%NULL%1,                             Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%1,                             Yiru%Wang%NULL%2,                             Xuecheng%Zhao%NULL%1,                             Lixuan%Wang%NULL%1,                             Feng%Liu%NULL%3,                             Tao%Wang%NULL%15,                             Dawei%Ye%NULL%2,                             Yongman%Lv%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%1,                             Valentina%Zuccaro%NULL%1,                             Luca%Novelli%NULL%1,                             Lorenzo%Zileri%NULL%2,                             Lorenzo%Zileri%NULL%0,                             Ciro%Celsa%NULL%1,                             Federico%Raimondi%NULL%2,                             Federico%Raimondi%NULL%0,                             Mauro%Gori%NULL%1,                             Giulia%Cammà%NULL%1,                             Salvatore%Battaglia%NULL%1,                             Vincenzo Giuseppe%Genova%NULL%1,                             Laura%Paris%NULL%1,                             Matteo%Tacelli%NULL%1,                             Francesco Antonio%Mancarella%NULL%1,                             Marco%Enea%NULL%1,                             Massimo%Attanasio%NULL%1,                             Michele%Senni%NULL%1,                             Fabiano%Di Marco%NULL%1,                             Luca Ferdinando%Lorini%NULL%1,                             Stefano%Fagiuoli%NULL%1,                             Raffaele%Bruno%NULL%2,                             Calogero%Cammà%NULL%1,                             Antonio%Gasbarrini%NULL%3,                             Francesco%Di Gennaro%NULL%2,                             Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%1,                             Gan-xun%Li%NULL%1,                             Lin%Chen%NULL%3,                             Chang%Shu%NULL%2,                             Jia%Song%NULL%1,                             Wei%Wang%NULL%2,                             Yu-wei%Wang%NULL%1,                             Qian%Chen%NULL%2,                             Guan-nan%Jin%NULL%1,                             Tong-tong%Liu%NULL%1,                             Jun-nan%Liang%NULL%1,                             Peng%Zhu%NULL%1,                             Wei%Zhu%NULL%5,                             Yong%Li%NULL%2,                             Bin-hao%Zhang%NULL%1,                             Huan%Feng%NULL%1,                             Wan-guang%Zhang%NULL%1,                             Zhen-yu%Yin%NULL%1,                             Wen-kui%Yu%NULL%1,                             Yang%Yang%NULL%2,                             Hua-qiu%Zhang%NULL%1,                             Zhou-ping%Tang%NULL%1,                             Hui%Wang%NULL%4,                             Jun-bo%Hu%NULL%1,                             Ji-hong%Liu%NULL%1,                             Ping%Yin%NULL%1,                             Xiao-ping%Chen%NULL%1,                             Bixiang%Zhang%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%1,                             Günay%Can%NULL%2,                             Günay%Can%NULL%0,                             Rıdvan%Karaali%NULL%1,                             Şermin%Börekçi%NULL%1,                             İlker İnanç%Balkan%NULL%1,                             Bilun%Gemicioğlu%NULL%1,                             Dildar%Konukoğlu%NULL%1,                             Ethem%Erginöz%NULL%1,                             Mehmet Sarper%Erdoğan%NULL%1,                             Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%1,                             Danila%Azzolina%NULL%1,                             Eyal%Hayden%NULL%2,                             Eyal%Hayden%NULL%0,                             Gianluca%Gaidano%NULL%2,                             Gianluca%Gaidano%NULL%0,                             Mario%Pirisi%NULL%2,                             Mario%Pirisi%NULL%0,                             Antonio%Acquaviva%NULL%2,                             Antonio%Acquaviva%NULL%0,                             Gianluca%Aimaretti%NULL%2,                             Gianluca%Aimaretti%NULL%0,                             Paolo%Aluffi Valletti%NULL%3,                             Paolo%Aluffi Valletti%NULL%0,                             Roberto%Angilletta%NULL%2,                             Roberto%Angilletta%NULL%0,                             Roberto%Arioli%NULL%2,                             Roberto%Arioli%NULL%0,                             Gian Carlo%Avanzi%NULL%2,                             Gian Carlo%Avanzi%NULL%0,                             Gianluca%Avino%NULL%2,                             Gianluca%Avino%NULL%0,                             Piero Emilio%Balbo%NULL%2,                             Piero Emilio%Balbo%NULL%0,                             Giulia%Baldon%NULL%2,                             Giulia%Baldon%NULL%0,                             Francesca%Baorda%NULL%2,                             Francesca%Baorda%NULL%0,                             Emanuela%Barbero%NULL%2,                             Emanuela%Barbero%NULL%0,                             Alessio%Baricich%NULL%2,                             Alessio%Baricich%NULL%0,                             Michela%Barini%NULL%2,                             Michela%Barini%NULL%0,                             Francesco%Barone-Adesi%NULL%2,                             Francesco%Barone-Adesi%NULL%0,                             Sofia%Battistini%NULL%2,                             Sofia%Battistini%NULL%0,                             Michela%Beltrame%NULL%2,                             Michela%Beltrame%NULL%0,                             Matteo%Bertoli%NULL%2,                             Matteo%Bertoli%NULL%0,                             Stephanie%Bertolin%NULL%2,                             Stephanie%Bertolin%NULL%0,                             Marinella%Bertolotti%NULL%2,                             Marinella%Bertolotti%NULL%0,                             Marta%Betti%NULL%2,                             Marta%Betti%NULL%0,                             Flavio%Bobbio%NULL%2,                             Flavio%Bobbio%NULL%0,                             Paolo%Boffano%NULL%2,                             Paolo%Boffano%NULL%0,                             Lucio%Boglione%NULL%2,                             Lucio%Boglione%NULL%0,                             Silvio%Borrè%NULL%2,                             Silvio%Borrè%NULL%0,                             Matteo%Brucoli%NULL%2,                             Matteo%Brucoli%NULL%0,                             Elisa%Calzaducca%NULL%2,                             Elisa%Calzaducca%NULL%0,                             Edoardo%Cammarata%NULL%2,                             Edoardo%Cammarata%NULL%0,                             Vincenzo%Cantaluppi%NULL%2,                             Vincenzo%Cantaluppi%NULL%0,                             Roberto%Cantello%NULL%2,                             Roberto%Cantello%NULL%0,                             Andrea%Capponi%NULL%2,                             Andrea%Capponi%NULL%0,                             Alessandro%Carriero%NULL%2,                             Alessandro%Carriero%NULL%0,                             Giuseppe Francesco%Casciaro%NULL%2,                             Giuseppe Francesco%Casciaro%NULL%0,                             Luigi Mario%Castello%NULL%2,                             Luigi Mario%Castello%NULL%0,                             Federico%Ceruti%NULL%2,                             Federico%Ceruti%NULL%0,                             Guido%Chichino%NULL%2,                             Guido%Chichino%NULL%0,                             Emilio%Chirico%NULL%2,                             Emilio%Chirico%NULL%0,                             Carlo%Cisari%NULL%1,                             Micol Giulia%Cittone%NULL%2,                             Micol Giulia%Cittone%NULL%0,                             Crizia%Colombo%NULL%2,                             Crizia%Colombo%NULL%0,                             Cristoforo%Comi%NULL%2,                             Cristoforo%Comi%NULL%0,                             Eleonora%Croce%NULL%2,                             Eleonora%Croce%NULL%0,                             Tommaso%Daffara%NULL%2,                             Tommaso%Daffara%NULL%0,                             Pietro%Danna%NULL%2,                             Pietro%Danna%NULL%0,                             Francesco%Della Corte%NULL%2,                             Francesco%Della Corte%NULL%0,                             Simona%De Vecchi%NULL%2,                             Simona%De Vecchi%NULL%0,                             Umberto%Dianzani%NULL%2,                             Umberto%Dianzani%NULL%0,                             Davide%Di Benedetto%NULL%2,                             Davide%Di Benedetto%NULL%0,                             Elia%Esposto%NULL%2,                             Elia%Esposto%NULL%0,                             Fabrizio%Faggiano%NULL%2,                             Fabrizio%Faggiano%NULL%0,                             Zeno%Falaschi%NULL%2,                             Zeno%Falaschi%NULL%0,                             Daniela%Ferrante%NULL%2,                             Daniela%Ferrante%NULL%0,                             Alice%Ferrero%NULL%2,                             Alice%Ferrero%NULL%0,                             Ileana%Gagliardi%NULL%2,                             Ileana%Gagliardi%NULL%0,                             Alessandra%Galbiati%NULL%2,                             Alessandra%Galbiati%NULL%0,                             Silvia%Gallo%NULL%2,                             Silvia%Gallo%NULL%0,                             Pietro Luigi%Garavelli%NULL%2,                             Pietro Luigi%Garavelli%NULL%0,                             Clara Ada%Gardino%NULL%2,                             Clara Ada%Gardino%NULL%0,                             Massimiliano%Garzaro%NULL%3,                             Massimiliano%Garzaro%NULL%0,                             Maria Luisa%Gastaldello%NULL%2,                             Maria Luisa%Gastaldello%NULL%0,                             Francesco%Gavelli%NULL%2,                             Francesco%Gavelli%NULL%0,                             Alessandra%Gennari%NULL%2,                             Alessandra%Gennari%NULL%0,                             Greta Maria%Giacomini%NULL%2,                             Greta Maria%Giacomini%NULL%0,                             Irene%Giacone%NULL%2,                             Irene%Giacone%NULL%0,                             Valentina%Giai Via%NULL%2,                             Valentina%Giai Via%NULL%0,                             Francesca%Giolitti%NULL%2,                             Francesca%Giolitti%NULL%0,                             Laura Cristina%Gironi%NULL%2,                             Laura Cristina%Gironi%NULL%0,                             Carla%Gramaglia%NULL%2,                             Carla%Gramaglia%NULL%0,                             Leonardo%Grisafi%NULL%2,                             Leonardo%Grisafi%NULL%0,                             Ilaria%Inserra%NULL%2,                             Ilaria%Inserra%NULL%0,                             Marco%Invernizzi%NULL%2,                             Marco%Invernizzi%NULL%0,                             Marco%Krengli%NULL%2,                             Marco%Krengli%NULL%0,                             Emanuela%Labella%NULL%2,                             Emanuela%Labella%NULL%0,                             Irene Cecilia%Landi%NULL%2,                             Irene Cecilia%Landi%NULL%0,                             Raffaella%Landi%NULL%2,                             Raffaella%Landi%NULL%0,                             Ilaria%Leone%NULL%2,                             Ilaria%Leone%NULL%0,                             Veronica%Lio%NULL%2,                             Veronica%Lio%NULL%0,                             Luca%Lorenzini%NULL%2,                             Luca%Lorenzini%NULL%0,                             Antonio%Maconi%NULL%2,                             Antonio%Maconi%NULL%0,                             Mario%Malerba%NULL%2,                             Mario%Malerba%NULL%0,                             Giulia Francesca%Manfredi%NULL%2,                             Giulia Francesca%Manfredi%NULL%0,                             Maria%Martelli%NULL%2,                             Maria%Martelli%NULL%0,                             Letizia%Marzari%NULL%2,                             Letizia%Marzari%NULL%0,                             Paolo%Marzullo%NULL%2,                             Paolo%Marzullo%NULL%0,                             Marco%Mennuni%NULL%2,                             Marco%Mennuni%NULL%0,                             Claudia%Montabone%NULL%2,                             Claudia%Montabone%NULL%0,                             Umberto%Morosini%NULL%2,                             Umberto%Morosini%NULL%0,                             Marco%Mussa%NULL%2,                             Marco%Mussa%NULL%0,                             Ilaria%Nerici%NULL%2,                             Ilaria%Nerici%NULL%0,                             Alessandro%Nuzzo%NULL%2,                             Alessandro%Nuzzo%NULL%0,                             Carlo%Olivieri%NULL%2,                             Carlo%Olivieri%NULL%0,                             Samuel Alberto%Padelli%NULL%2,                             Samuel Alberto%Padelli%NULL%0,                             Massimiliano%Panella%NULL%2,                             Massimiliano%Panella%NULL%0,                             Andrea%Parisini%NULL%2,                             Andrea%Parisini%NULL%0,                             Alessio%Paschè%NULL%2,                             Alessio%Paschè%NULL%0,                             Filippo%Patrucco%NULL%2,                             Filippo%Patrucco%NULL%0,                             Giuseppe%Patti%NULL%2,                             Giuseppe%Patti%NULL%0,                             Alberto%Pau%NULL%2,                             Alberto%Pau%NULL%0,                             Anita Rebecca%Pedrinelli%NULL%2,                             Anita Rebecca%Pedrinelli%NULL%0,                             Ilaria%Percivale%NULL%2,                             Ilaria%Percivale%NULL%0,                             Luca%Ragazzoni%NULL%2,                             Luca%Ragazzoni%NULL%0,                             Roberta%Re%NULL%2,                             Roberta%Re%NULL%0,                             Cristina%Rigamonti%NULL%2,                             Cristina%Rigamonti%NULL%0,                             Eleonora%Rizzi%NULL%2,                             Eleonora%Rizzi%NULL%0,                             Andrea%Rognoni%NULL%2,                             Andrea%Rognoni%NULL%0,                             Annalisa%Roveta%NULL%2,                             Annalisa%Roveta%NULL%0,                             Luigia%Salamina%NULL%2,                             Luigia%Salamina%NULL%0,                             Matteo%Santagostino%NULL%2,                             Matteo%Santagostino%NULL%0,                             Massimo%Saraceno%NULL%2,                             Massimo%Saraceno%NULL%0,                             Paola%Savoia%NULL%2,                             Paola%Savoia%NULL%0,                             Marco%Sciarra%NULL%2,                             Marco%Sciarra%NULL%0,                             Andrea%Schimmenti%NULL%2,                             Andrea%Schimmenti%NULL%0,                             Lorenza%Scotti%NULL%2,                             Lorenza%Scotti%NULL%0,                             Enrico%Spinoni%NULL%2,                             Enrico%Spinoni%NULL%0,                             Carlo%Smirne%NULL%2,                             Carlo%Smirne%NULL%0,                             Vanessa%Tarantino%NULL%2,                             Vanessa%Tarantino%NULL%0,                             Paolo Amedeo%Tillio%NULL%2,                             Paolo Amedeo%Tillio%NULL%0,                             Stelvio%Tonello%NULL%2,                             Stelvio%Tonello%NULL%0,                             Rosanna%Vaschetto%NULL%2,                             Rosanna%Vaschetto%NULL%0,                             Veronica%Vassia%NULL%2,                             Veronica%Vassia%NULL%0,                             Domenico%Zagaria%NULL%2,                             Domenico%Zagaria%NULL%0,                             Elisa%Zavattaro%NULL%2,                             Elisa%Zavattaro%NULL%0,                             Patrizia%Zeppegno%NULL%2,                             Patrizia%Zeppegno%NULL%0,                             Francesca%Zottarelli%NULL%2,                             Francesca%Zottarelli%NULL%0,                             Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2,                             Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%1,                             Marta%Ottone%NULL%2,                             Marta%Ottone%NULL%0,                             Tommaso%Fasano%NULL%1,                             Pierpaolo%Pattacini%NULL%1,                             Valentina%Iotti%NULL%1,                             Lucia%Spaggiari%NULL%1,                             Riccardo%Bonacini%NULL%1,                             Andrea%Nitrosi%NULL%1,                             Efrem%Bonelli%NULL%1,                             Simone%Canovi%NULL%1,                             Rossana%Colla%NULL%1,                             Alessandro%Zerbini%NULL%1,                             Marco%Massari%NULL%1,                             Ivana%Lattuada%NULL%1,                             Anna Maria%Ferrari%NULL%1,                             Paolo%Giorgi Rossi%NULL%1,                             Massimo%Costantini%NULL%1,                             Roberto%Grilli%NULL%1,                             Massimiliano%Marino%NULL%1,                             Giulio%Formoso%NULL%1,                             Debora%Formisano%NULL%1,                             Emanuela%Bedeschi%NULL%1,                             Cinzia%Perilli%NULL%1,                             Elisabetta%La Rosa%NULL%1,                             Eufemia%Bisaccia%NULL%1,                             Ivano%Venturi%NULL%1,                             Massimo%Vicentini%NULL%1,                             Cinzia%Campari%NULL%1,                             Francesco%Gioia%NULL%1,                             Serena%Broccoli%NULL%1,                             Pamela%Mancuso%NULL%1,                             Marco%Foracchia%NULL%1,                             Mirco%Pinotti%NULL%1,                             Nicola%Facciolongo%NULL%1,                             Laura%Trabucco%NULL%1,                             Stefano%De Pietri%NULL%1,                             Giorgio Francesco%Danelli%NULL%1,                             Laura%Albertazzi%NULL%1,                             Enrica%Bellesia%NULL%1,                             Mattia%Corradini%NULL%1,                             Elena%Magnani%NULL%1,                             Annalisa%Pilia%NULL%1,                             Alessandra%Polese%NULL%1,                             Silvia Storchi%Incerti%NULL%1,                             Piera%Zaldini%NULL%1,                             Bonanno%Orsola%NULL%1,                             Matteo%Revelli%NULL%1,                             Carlo%Salvarani%NULL%1,                             Carmine%Pinto%NULL%1,                             Francesco%Venturelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%1,                             Hong-Qiu%Gu%NULL%1,                             Yi%Liu (刘艺)%NULL%1,                             Guqin%Zhang%NULL%1,                             Hang%Yang%NULL%1,                             Huifang%Hu%NULL%1,                             Chenyang%Lu%NULL%1,                             Yang%Li%NULL%3,                             Liyi%Wang%NULL%1,                             Yi%Liu (刘毅)%yi2006liu@163.com%1,                             Yi%Zhao%zhao.y1977@163.com%1,                             Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%1,                             Tawsifur%Rahman%NULL%2,                             Tawsifur%Rahman%NULL%0,                             Amith%Khandakar%NULL%3,                             Somaya%Al-Madeed%NULL%2,                             Susu M.%Zughaier%NULL%5,                             Suhail A. R.%Doi%NULL%3,                             Hanadi%Hassen%NULL%1,                             Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%1,                             Jia%Sun%NULL%1,                             Yi-Xin%Li%NULL%1,                             Qian%Chen%NULL%0,                             Qing-Quan%Liu%NULL%1,                             Zhou%Sun%NULL%1,                             Ran%Pang%NULL%1,                             Fei%Chen%NULL%1,                             Bing-Yang%Xu%NULL%1,                             Anne%Manyande%NULL%1,                             Taane G%Clark%NULL%1,                             Jin-Ping%Li%NULL%1,                             Ilkay Erdogan%Orhan%NULL%1,                             Yu-Ke%Tian%NULL%1,                             Tao%Wang%wt7636@126.com%0,                             Wei%Wu%wt7636@126.com%1,                             Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%1,                             Caiping%Song%NULL%1,                             En%Liu%NULL%1,                             Xi%Liu%NULL%1,                             Hao%Wu%NULL%1,                             Hui%Lin%NULL%1,                             Yuliang%Liu%NULL%1,                             Qi%Li%NULL%1,                             Zhi%Xu%NULL%1,                             XiaoBao%Ren%NULL%1,                             Cheng%Zhang%NULL%1,                             Wenjing%Zhang%NULL%1,                             Wei%Duan%NULL%2,                             Yongfeng%Tian%NULL%1,                             Ping%Li%NULL%1,                             Mingdong%Hu%NULL%1,                             Shiming%Yang%NULL%1,                             Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%1,                             Changli%Li%NULL%1,                             Li%Zheng%NULL%1,                             Wenzhi%Lv%NULL%0,                             Zhigang%He%NULL%1,                             Xinwu%Cui%NULL%1,                             Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%1,                             Hayne Cho%Park%NULL%2,                             Hayne Cho%Park%NULL%0,                             Ajin%Cho%NULL%1,                             Juhee%Kim%NULL%1,                             Kyu-sang%Yun%NULL%1,                             Jinseog%Kim%NULL%1,                             Young-Ki%Lee%NULL%1,                             Sinan%Kardes.%NULL%2,                             Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%1,                             Xiaoyu%Fang%NULL%1,                             Lixia%Cheng%NULL%1,                             Penghao%Wang%NULL%1,                             Shen%Li%NULL%1,                             Hao%Yu%NULL%1,                             Yao%Zhang%NULL%2,                             Nan%Jiang%NULL%1,                             Tingting%Zeng%NULL%1,                             Chao%Hou%NULL%1,                             Jing%Zhou%NULL%1,                             Shiru%Li%NULL%1,                             Yingzi%Pan%NULL%1,                             Yitong%Li%NULL%1,                             Lili%Nie%NULL%1,                             Yang%Li%NULL%0,                             Qidi%Sun%NULL%1,                             Hong%Jia%NULL%1,                             Mengxia%Li%NULL%1,                             Guoqiang%Cao%NULL%1,                             Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%1,                             Lucas A%Ramos%NULL%2,                             Lucas A%Ramos%NULL%0,                             Wouter%Potters%NULL%1,                             Marcus L F%Janssen%NULL%1,                             Deborah%Hubers%NULL%1,                             Shi%Hu%NULL%1,                             Egill A%Fridgeirsson%NULL%1,                             Dan%Piña-Fuentes%NULL%1,                             Rajat%Thomas%NULL%1,                             Iwan C C%van der Horst%NULL%1,                             Christian%Herff%NULL%2,                             Christian%Herff%NULL%0,                             Pieter%Kubben%NULL%1,                             Paul W G%Elbers%NULL%1,                             Henk A%Marquering%NULL%1,                             Max%Welling%NULL%1,                             Suat%Simsek%NULL%1,                             Martijn D%de Kruif%NULL%1,                             Tom%Dormans%NULL%1,                             Lucas M%Fleuren%NULL%1,                             Michiel%Schinkel%NULL%1,                             Peter G%Noordzij%NULL%1,                             Joop P%van den Bergh%NULL%2,                             Joop P%van den Bergh%NULL%0,                             Caroline E%Wyers%NULL%1,                             David T B%Buis%NULL%2,                             David T B%Buis%NULL%0,                             W Joost%Wiersinga%NULL%1,                             Ella H C%van den Hout%NULL%1,                             Auke C%Reidinga%NULL%1,                             Daisy%Rusch%NULL%1,                             Kim C E%Sigaloff%NULL%1,                             Renee A%Douma%NULL%1,                             Lianne%de Haan%NULL%1,                             Niels C%Gritters van den Oever%NULL%1,                             Roger J M W%Rennenberg%NULL%1,                             Guido A%van Wingen%NULL%1,                             Marcel J H%Aries%NULL%1,                             Martijn%Beudel%NULL%2,                             Martijn%Beudel%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%2,                             Fajer A.%Al-Ishaq%NULL%2,                             Fajer A.%Al-Ishaq%NULL%0,                             Fatima S.%Al-Mohannadi%NULL%1,                             Reem S.%Mubarak%NULL%1,                             Maryam H.%Al-Hitmi%NULL%1,                             Khandaker Reajul%Islam%NULL%1,                             Amith%Khandakar%NULL%0,                             Ali Ait%Hssain%NULL%3,                             Ali Ait%Hssain%NULL%0,                             Somaya%Al-Madeed%NULL%0,                             Susu M.%Zughaier%NULL%0,                             Susu M.%Zughaier%NULL%0,                             Muhammad E. H.%Chowdhury%NULL%3,                             Muhammad E. H.%Chowdhury%NULL%0,                             Antonella%Santone%NULL%3,                             Antonella%Santone%NULL%0,                             Antonella%Santone%NULL%0,                             Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0,                             Amith%Khandakar%NULL%0,                             Md Enamul%Hoque%NULL%2,                             Md Enamul%Hoque%NULL%0,                             Nabil%Ibtehaz%NULL%2,                             Nabil%Ibtehaz%NULL%0,                             Saad Bin%Kashem%NULL%2,                             Saad Bin%Kashem%NULL%0,                             Reehum%Masud%NULL%1,                             Lutfunnahar%Shampa%NULL%1,                             Mohammad Mehedi%Hasan%NULL%1,                             Mohammad Tariqul%Islam%NULL%1,                             Somaya%Al-Maadeed%NULL%2,                             Somaya%Al-Maadeed%NULL%0,                             Susu M.%Zughaier%NULL%0,                             Susu M.%Zughaier%NULL%0,                             Saif%Badran%NULL%2,                             Saif%Badran%NULL%0,                             Suhail A. R.%Doi%NULL%0,                             Suhail A. R.%Doi%NULL%0,                             Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0]</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%1,                             Pablo%Rodríguez-Belenguer%NULL%2,                             Pablo%Rodríguez-Belenguer%NULL%0,                             Antonio J.%Serrano-López%NULL%1,                             Emilio%Soria-Olivas%NULL%2,                             Emilio%Soria-Olivas%NULL%0,                             Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%1,                             Haibo%Ai%NULL%1,                             Yunong%Fu%NULL%1,                             Qinglin%Li%NULL%1,                             Ruixia%Cui%NULL%1,                             Xiaohua%Ma%NULL%1,                             Yan-fen%Ma%NULL%1,                             Zi%Wang%NULL%1,                             Tong%Liu%NULL%1,                             Yunxiang%Long%NULL%1,                             Kai%Qu%NULL%1,                             Chang%Liu%NULL%1,                             Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%1,                             Dawei%Zhang%NULL%1,                             Jing%Xu%NULL%6,                             Zhu%Chen%NULL%1,                             Tieniu%Yang%NULL%1,                             Peng%Zhao%NULL%2,                             Guofeng%Chen%NULL%1,                             Gregory%Cheng%NULL%1,                             Yudong%Wang%NULL%1,                             Jingfeng%Bi%NULL%1,                             Lin%Tan%NULL%1,                             George%Lau%NULL%1,                             Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%1,                             Girolamo%Sala%girolamo.sala@asst-valleolona.it%1,                             Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1,                             Giulia%Suigo%NULL%1,                             Davide%Zampini%NULL%1,                             Matteo%Pistoia%NULL%1,                             Mariella%Ciola%NULL%1,                             Tommaso%Ciampani%NULL%1,                             Carolina%Ultori%NULL%1,                             Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0,                             John R%Adler%NULL%3,                             Sultan M%Kamran%NULL%2,                             Sultan M%Kamran%NULL%0,                             Zill-e-Humayun%Mirza%NULL%1,                             Hussain Abdul%Moeed%NULL%1,                             Arshad%Naseem%NULL%1,                             Maryam%Hussain%NULL%1,                             Imran%Fazal%NULL%1,                             Farrukh%Saeed%NULL%1,                             Wasim%Alamgir%NULL%1,                             Salman%Saleem%NULL%1,                             Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%1,                             María M.%Martín%NULL%1,                             Mónica%Argueso%NULL%1,                             Jordi%Solé-Violán%NULL%1,                             Alina%Perez%NULL%1,                             José Alberto%Marcos Y Ramos%NULL%1,                             Luis%Ramos-Gómez%NULL%1,                             Sergio%López%NULL%1,                             Andrés%Franco%NULL%1,                             Agustín F.%González-Rivero%NULL%1,                             María%Martín%NULL%1,                             Verónica%Gonzalez%NULL%1,                             Julia%Alcoba-Flórez%NULL%1,                             Miguel Ángel%Rodriguez%NULL%1,                             Marta%Riaño-Ruiz%NULL%1,                             Juan%Guillermo O Campo%NULL%1,                             Lourdes%González%NULL%1,                             Tamara%Cantera%NULL%1,                             Raquel%Ortiz-López%NULL%1,                             Nazario%Ojeda%NULL%1,                             Aurelio%Rodríguez-Pérez%NULL%1,                             Casimira%Domínguez%NULL%1,                             Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%7,                             Rita%Kukafka%NULL%1,                             Arriel%Benis%NULL%2,                             Arriel%Benis%NULL%0,                             Jinfeng%Li%NULL%1,                             Pan%Pan%NULL%2,                             Pan%Pan%NULL%0,                             Yichao%Li%NULL%2,                             Yichao%Li%NULL%0,                             Yongjiu%Xiao%NULL%2,                             Yongjiu%Xiao%NULL%0,                             Bingchao%Han%NULL%2,                             Bingchao%Han%NULL%0,                             Longxiang%Su%NULL%2,                             Longxiang%Su%NULL%0,                             Mingliang%Su%NULL%2,                             Mingliang%Su%NULL%0,                             Yansheng%Li%NULL%2,                             Yansheng%Li%NULL%0,                             Siqi%Zhang%NULL%2,                             Siqi%Zhang%NULL%0,                             Dapeng%Jiang%NULL%2,                             Dapeng%Jiang%NULL%0,                             Xia%Chen%NULL%2,                             Xia%Chen%NULL%0,                             Fuquan%Zhou%NULL%2,                             Fuquan%Zhou%NULL%0,                             Ling%Ma%NULL%2,                             Ling%Ma%NULL%0,                             Pengtao%Bao%NULL%2,                             Pengtao%Bao%NULL%0,                             Lixin%Xie%xielx301@126.com%2,                             Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%2,                             Cristina%Roca-Oporto%NULL%2,                             Guillermo%Martín-Gutiérrez%NULL%2,                             María Dolores%Avilés%NULL%2,                             Carmen%Gómez-González%NULL%2,                             María Dolores%Navarro-Amuedo%NULL%2,                             Julia%Praena-Segovia%NULL%2,                             José%Molina%NULL%2,                             María%Paniagua-García%NULL%2,                             Horacio%García-Delgado%NULL%2,                             Antonio%Domínguez-Petit%NULL%2,                             Jerónimo%Pachón%NULL%2,                             José Miguel%Cisneros%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%1,                             Barry R.%Meisenberg%NULL%2,                             Barry R.%Meisenberg%NULL%0,                             James H.%MacDonald%NULL%1,                             Nandakumar%Menon%NULL%1,                             Marcia B.%Fowler%NULL%1,                             Michaline%West%NULL%1,                             Jane%Rhule%NULL%1,                             Sadaf S.%Qureshi%NULL%1,                             Eileen B.%MacDonald%NULL%1,                             Yu Ru%Kou%NULL%2,                             Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0,                             Sarah%Poole%NULL%2,                             Sarah%Poole%NULL%0,                             Meeta%Pradhan%NULL%1,                             Akhil%Vaid%NULL%3,                             Akhil%Vaid%NULL%0,                             Sulaiman%Somani%NULL%3,                             Sulaiman%Somani%NULL%0,                             Adam J%Russak%NULL%2,                             Adam J%Russak%NULL%0,                             Jessica K%De Freitas%NULL%2,                             Jessica K%De Freitas%NULL%0,                             Fayzan F%Chaudhry%NULL%2,                             Fayzan F%Chaudhry%NULL%0,                             Ishan%Paranjpe%NULL%3,                             Ishan%Paranjpe%NULL%0,                             Kipp W%Johnson%NULL%2,                             Kipp W%Johnson%NULL%0,                             Samuel J%Lee%NULL%2,                             Samuel J%Lee%NULL%0,                             Riccardo%Miotto%NULL%2,                             Riccardo%Miotto%NULL%0,                             Felix%Richter%NULL%3,                             Felix%Richter%NULL%0,                             Shan%Zhao%NULL%3,                             Shan%Zhao%NULL%0,                             Noam D%Beckmann%NULL%2,                             Noam D%Beckmann%NULL%0,                             Nidhi%Naik%NULL%2,                             Nidhi%Naik%NULL%0,                             Arash%Kia%NULL%2,                             Arash%Kia%NULL%0,                             Prem%Timsina%NULL%2,                             Prem%Timsina%NULL%0,                             Anuradha%Lala%NULL%2,                             Anuradha%Lala%NULL%0,                             Manish%Paranjpe%NULL%2,                             Manish%Paranjpe%NULL%0,                             Eddye%Golden%NULL%2,                             Eddye%Golden%NULL%0,                             Matteo%Danieletto%NULL%2,                             Matteo%Danieletto%NULL%0,                             Manbir%Singh%NULL%2,                             Manbir%Singh%NULL%0,                             Dara%Meyer%NULL%2,                             Dara%Meyer%NULL%0,                             Paul F%O'Reilly%NULL%2,                             Paul F%O'Reilly%NULL%0,                             Laura%Huckins%NULL%2,                             Laura%Huckins%NULL%0,                             Patricia%Kovatch%NULL%2,                             Patricia%Kovatch%NULL%0,                             Joseph%Finkelstein%NULL%2,                             Joseph%Finkelstein%NULL%0,                             Robert M.%Freeman%NULL%2,                             Robert M.%Freeman%NULL%0,                             Edgar%Argulian%NULL%2,                             Edgar%Argulian%NULL%0,                             Andrew%Kasarskis%NULL%2,                             Andrew%Kasarskis%NULL%0,                             Bethany%Percha%NULL%2,                             Bethany%Percha%NULL%0,                             Judith A%Aberg%NULL%2,                             Judith A%Aberg%NULL%0,                             Emilia%Bagiella%NULL%3,                             Emilia%Bagiella%NULL%0,                             Carol R%Horowitz%NULL%2,                             Carol R%Horowitz%NULL%0,                             Barbara%Murphy%NULL%2,                             Barbara%Murphy%NULL%0,                             Eric J%Nestler%NULL%2,                             Eric J%Nestler%NULL%0,                             Eric E%Schadt%NULL%2,                             Eric E%Schadt%NULL%0,                             Judy H%Cho%NULL%2,                             Judy H%Cho%NULL%0,                             Carlos%Cordon-Cardo%NULL%2,                             Carlos%Cordon-Cardo%NULL%0,                             Valentin%Fuster%NULL%3,                             Valentin%Fuster%NULL%0,                             Dennis S%Charney%NULL%2,                             Dennis S%Charney%NULL%0,                             David L%Reich%NULL%2,                             David L%Reich%NULL%0,                             Erwin P%Bottinger%NULL%2,                             Erwin P%Bottinger%NULL%0,                             Matthew A%Levin%NULL%2,                             Matthew A%Levin%NULL%0,                             Jagat%Narula%NULL%3,                             Jagat%Narula%NULL%0,                             Zahi A%Fayad%NULL%2,                             Zahi A%Fayad%NULL%0,                             Allan C%Just%NULL%2,                             Allan C%Just%NULL%0,                             Alexander W%Charney%NULL%2,                             Alexander W%Charney%NULL%0,                             Girish N%Nadkarni%NULL%2,                             Girish N%Nadkarni%NULL%0,                             Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%2,                             Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%2,                             Anne%Chen%NULL%2,                             Wei%Hou%NULL%3,                             James M.%Graham%NULL%1,                             Haifang%Li%NULL%2,                             Paul S.%Richman%NULL%1,                             Henry C.%Thode%NULL%1,                             Adam J.%Singer%NULL%1,                             Tim Q.%Duong%NULL%1,                             Muhammad%Adrish%NULL%9,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0,                             Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%1,                             Qin%Liu%NULL%2,                             Xiao%Zhang%NULL%2,                             Shuyi%Liu%NULL%1,                             Weiqi%Chen%NULL%1,                             Jingjing%You%NULL%1,                             Qiuying%Chen%NULL%1,                             Minmin%Li%NULL%1,                             Zhuozhi%Chen%NULL%1,                             Luyan%Chen%NULL%1,                             Lv%Chen%NULL%1,                             Yuhao%Dong%NULL%1,                             Qingsi%Zeng%NULL%1,                             Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%1,                             Lei%Nie%NULL%1,                             Dongde%Wu%NULL%1,                             Jian%Chen%NULL%2,                             Zhifeng%Yang%NULL%1,                             Ling%Zhang%NULL%3,                             Dongqing%Li%NULL%1,                             Xia%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%1,                             Burcin%Hakoglu%NULL%2,                             Burcin%Hakoglu%NULL%0,                             Ali%Kadri Cirak%NULL%1,                             Gulru%Polat%NULL%1,                             Berna%Komurcuoglu%NULL%1,                             Berrin%Akkol%NULL%1,                             Cagri%Atasoy%NULL%1,                             Eda%Bayramic%NULL%1,                             Gunseli%Balci%NULL%1,                             Sena%Ataman%NULL%1,                             Sinem%Ermin%NULL%1,                             Enver%Yalniz%NULL%1,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%1,                             Qiaosen%Chen%NULL%2,                             Qiaosen%Chen%NULL%0,                             Sumeng%Li%NULL%1,                             Huadong%Li%NULL%1,                             Qian%Zhang%NULL%1,                             Sihong%Lu%NULL%1,                             Li%Wu%NULL%1,                             Leiqun%Xiong%NULL%1,                             Bobin%Mi%NULL%1,                             Di%Liu%NULL%3,                             Mengji%Lu%NULL%1,                             Dongliang%Yang%NULL%1,                             Hongbo%Jiang%hongbojiang3@163.com%1,                             Shaoping%Zheng%zhengspxx@126.com%1,                             Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%1,                             Hua%Zhang%NULL%2,                             Rui%Qiao%NULL%1,                             Qinggang%Ge%NULL%1,                             Shuisheng%Zhang%NULL%1,                             Zongxuan%Zhao%NULL%1,                             Ci%Tian%NULL%1,                             Qingbian%Ma%NULL%2,                             Qingbian%Ma%NULL%0,                             Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%1,                             Antonia%Ho%NULL%2,                             Riinu%Pius%NULL%2,                             Iain%Buchan%NULL%1,                             Gail%Carson%NULL%2,                             Thomas M%Drake%NULL%1,                             Jake%Dunning%NULL%2,                             Cameron J%Fairfield%NULL%2,                             Carrol%Gamble%NULL%2,                             Christopher A%Green%NULL%2,                             Rishi%Gupta%NULL%1,                             Sophie%Halpin%NULL%2,                             Hayley E%Hardwick%NULL%1,                             Karl A%Holden%NULL%1,                             Peter W%Horby%NULL%2,                             Clare%Jackson%NULL%2,                             Kenneth A%Mclean%NULL%2,                             Laura%Merson%NULL%2,                             Jonathan S%Nguyen-Van-Tam%NULL%1,                             Lisa%Norman%NULL%2,                             Mahdad%Noursadeghi%NULL%2,                             Piero L%Olliaro%NULL%1,                             Mark G%Pritchard%NULL%1,                             Clark D%Russell%NULL%2,                             Catherine A%Shaw%NULL%2,                             Aziz%Sheikh%NULL%2,                             Tom%Solomon%NULL%2,                             Cathie%Sudlow%NULL%1,                             Olivia V%Swann%NULL%1,                             Lance CW%Turtle%NULL%2,                             Peter JM%Openshaw%NULL%2,                             J Kenneth%Baillie%NULL%2,                             Malcolm G%Semple%NULL%3,                             Annemarie B%Docherty%NULL%3,                             Annemarie B%Docherty%NULL%0,                             Ewen M%Harrison%NULL%3,                             NULL%NULL%NULL%0,                             NULL%NULL%NULL%0,                             J Kenneth%Baillie%NULL%0,                             Malcolm G%Semple%NULL%0,                             Peter JM%Openshaw%NULL%0,                             Gail%Carson%NULL%0,                             Beatrice%Alex%NULL%1,                             Benjamin%Bach%NULL%1,                             Wendy S%Barclay%NULL%1,                             Debby%Bogaert%NULL%1,                             Meera%Chand%NULL%1,                             Graham S%Cooke%NULL%1,                             Annemarie B%Docherty%NULL%0,                             Jake%Dunning%NULL%0,                             Ana%da Silva Filipe%NULL%1,                             Tom%Fletcher%NULL%1,                             Christopher A%Green%NULL%0,                             Ewen M%Harrison%NULL%0,                             Julian A%Hiscox%NULL%1,                             Antonia Ying Wai%Ho%NULL%1,                             Peter W%Horby%NULL%0,                             Samreen%Ijaz%NULL%1,                             Saye%Khoo%NULL%1,                             Paul%Klenerman%NULL%1,                             Andrew%Law%NULL%2,                             Wei Shen%Lim%NULL%1,                             Alexander J%Mentzer%NULL%1,                             Laura%Merson%NULL%0,                             Alison M%Meynert%NULL%1,                             Mahdad%Noursadeghi%NULL%0,                             Shona C%Moore%NULL%2,                             Massimo%Palmarini%NULL%1,                             William A%Paxton%NULL%1,                             Georgios%Pollakis%NULL%1,                             Nicholas%Price%NULL%1,                             Andrew%Rambaut%NULL%1,                             David L%Robertson%NULL%1,                             Clark D%Russell%NULL%0,                             Vanessa%Sancho-Shimizu%NULL%1,                             Janet T%Scott%NULL%1,                             Louise%Sigfrid%NULL%1,                             Tom%Solomon%NULL%0,                             Shiranee%Sriskandan%NULL%1,                             David%Stuart%NULL%1,                             Charlotte%Summers%NULL%1,                             Richard S%Tedder%NULL%1,                             Emma C%Thomson%NULL%1,                             Ryan S%Thwaites%NULL%1,                             Lance CW%Turtle%NULL%0,                             Maria%Zambon%NULL%1,                             Hayley%Hardwick%NULL%1,                             Chloe%Donohue%NULL%1,                             Jane%Ewins%NULL%1,                             Wilna%Oosthuyzen%NULL%1,                             Fiona%Griffiths%NULL%1,                             Lisa%Norman%NULL%0,                             Riinu%Pius%NULL%0,                             Tom M%Drake%NULL%1,                             Cameron J%Fairfield%NULL%0,                             Stephen%Knight%NULL%1,                             Kenneth A%Mclean%NULL%0,                             Derek%Murphy%NULL%1,                             Catherine A%Shaw%NULL%0,                             Jo%Dalton%NULL%1,                             Michelle%Girvan%NULL%1,                             Egle%Saviciute%NULL%1,                             Stephanie%Roberts%NULL%1,                             Janet%Harrison%NULL%1,                             Laura%Marsh%NULL%1,                             Marie%Connor%NULL%1,                             Sophie%Halpin%NULL%0,                             Clare%Jackson%NULL%0,                             Carrol%Gamble%NULL%0,                             Gary%Leeming%NULL%1,                             Andrew%Law%NULL%0,                             Ross%Hendry%NULL%1,                             James%Scott-Brown%NULL%1,                             William%Greenhalf%NULL%1,                             Victoria%Shaw%NULL%1,                             Sarah%McDonald%NULL%2,                             Katie A%Ahmed%NULL%1,                             Jane A%Armstrong%NULL%1,                             Milton%Ashworth%NULL%1,                             Innocent G%Asiimwe%NULL%1,                             Siddharth%Bakshi%NULL%1,                             Samantha L%Barlow%NULL%1,                             Laura%Booth%NULL%1,                             Benjamin%Brennan%NULL%1,                             Katie%Bullock%NULL%1,                             Benjamin WA%Catterall%NULL%1,                             Jordan J%Clark%NULL%1,                             Emily A%Clarke%NULL%1,                             Sarah%Cole%NULL%1,                             Louise%Cooper%NULL%1,                             Helen%Cox%NULL%1,                             Christopher%Davis%NULL%1,                             Oslem%Dincarslan%NULL%1,                             Chris%Dunn%NULL%1,                             Philip%Dyer%NULL%1,                             Angela%Elliott%NULL%1,                             Anthony%Evans%NULL%1,                             Lewis WS%Fisher%NULL%1,                             Terry%Foster%NULL%1,                             Isabel%Garcia-Dorival%NULL%1,                             Willliam%Greenhalf%NULL%1,                             Philip%Gunning%NULL%1,                             Catherine%Hartley%NULL%1,                             Antonia%Ho%NULL%0,                             Rebecca L%Jensen%NULL%1,                             Christopher B%Jones%NULL%1,                             Trevor R%Jones%NULL%1,                             Shadia%Khandaker%NULL%1,                             Katharine%King%NULL%1,                             Robyn T%Kiy%NULL%1,                             Chrysa%Koukorava%NULL%1,                             Annette%Lake%NULL%1,                             Suzannah%Lant%NULL%1,                             Diane%Latawiec%NULL%1,                             L%Lavelle-Langham%NULL%1,                             Daniella%Lefteri%NULL%1,                             Lauren%Lett%NULL%1,                             Lucia A%Livoti%NULL%1,                             Maria%Mancini%NULL%1,                             Sarah%McDonald%NULL%0,                             Laurence%McEvoy%NULL%1,                             John%McLauchlan%NULL%1,                             Soeren%Metelmann%NULL%1,                             Nahida S%Miah%NULL%1,                             Joanna%Middleton%NULL%1,                             Joyce%Mitchell%NULL%1,                             Shona C%Moore%NULL%0,                             Ellen G%Murphy%NULL%1,                             Rebekah%Penrice-Randal%NULL%1,                             Jack%Pilgrim%NULL%1,                             Tessa%Prince%NULL%1,                             Will%Reynolds%NULL%1,                             P Matthew%Ridley%NULL%1,                             Debby%Sales%NULL%1,                             Victoria E%Shaw%NULL%1,                             Rebecca K%Shears%NULL%1,                             Benjamin%Small%NULL%1,                             Krishanthi S%Subramaniam%NULL%1,                             Agnieska%Szemiel%NULL%1,                             Aislynn%Taggart%NULL%1,                             Jolanta%Tanianis-Hughes%NULL%1,                             Jordan%Thomas%NULL%1,                             Erwan%Trochu%NULL%1,                             Libby%van Tonder%NULL%1,                             Eve%Wilcock%NULL%1,                             J Eunice%Zhang%NULL%1,                             Kayode%Adeniji%NULL%1,                             Daniel%Agranoff%NULL%1,                             Ken%Agwuh%NULL%1,                             Dhiraj%Ail%NULL%1,                             Ana%Alegria%NULL%1,                             Brian%Angus%NULL%1,                             Abdul%Ashish%NULL%1,                             Dougal%Atkinson%NULL%1,                             Shahedal%Bari%NULL%1,                             Gavin%Barlow%NULL%1,                             Stella%Barnass%NULL%1,                             Nicholas%Barrett%NULL%2,                             Christopher%Bassford%NULL%1,                             David%Baxter%NULL%1,                             Michael%Beadsworth%NULL%1,                             Jolanta%Bernatoniene%NULL%1,                             John%Berridge%NULL%1,                             Nicola%Best%NULL%1,                             Pieter%Bothma%NULL%1,                             David%Brealey%NULL%1,                             Robin%Brittain-Long%NULL%1,                             Naomi%Bulteel%NULL%1,                             Tom%Burden%NULL%1,                             Andrew%Burtenshaw%NULL%1,                             Vikki%Caruth%NULL%1,                             David%Chadwick%NULL%1,                             Duncan%Chambler%NULL%1,                             Nigel%Chee%NULL%1,                             Jenny%Child%NULL%1,                             Srikanth%Chukkambotla%NULL%1,                             Tom%Clark%NULL%1,                             Paul%Collini%NULL%1,                             Catherine%Cosgrove%NULL%1,                             Jason%Cupitt%NULL%1,                             Maria-Teresa%Cutino-Moguel%NULL%1,                             Paul%Dark%NULL%1,                             Chris%Dawson%NULL%1,                             Samir%Dervisevic%NULL%1,                             Phil%Donnison%NULL%1,                             Sam%Douthwaite%NULL%1,                             Ingrid%DuRand%NULL%1,                             Ahilanadan%Dushianthan%NULL%1,                             Tristan%Dyer%NULL%1,                             Cariad%Evans%NULL%1,                             Chi%Eziefula%NULL%1,                             Chrisopher%Fegan%NULL%1,                             Adam%Finn%NULL%1,                             Duncan%Fullerton%NULL%1,                             Sanjeev%Garg%NULL%2,                             Sanjeev%Garg%NULL%0,                             Atul%Garg%NULL%1,                             Jo%Godden%NULL%1,                             Arthur%Goldsmith%NULL%1,                             Clive%Graham%NULL%1,                             Elaine%Hardy%NULL%1,                             Stuart%Hartshorn%NULL%1,                             Daniel%Harvey%NULL%1,                             Peter%Havalda%NULL%1,                             Daniel B%Hawcutt%NULL%1,                             Maria%Hobrok%NULL%1,                             Luke%Hodgson%NULL%1,                             Anita%Holme%NULL%1,                             Anil%Hormis%NULL%1,                             Michael%Jacobs%NULL%1,                             Susan%Jain%NULL%1,                             Paul%Jennings%NULL%1,                             Agilan%Kaliappan%NULL%1,                             Vidya%Kasipandian%NULL%1,                             Stephen%Kegg%NULL%1,                             Michael%Kelsey%NULL%1,                             Jason%Kendall%NULL%1,                             Caroline%Kerrison%NULL%1,                             Ian%Kerslake%NULL%1,                             Oliver%Koch%NULL%2,                             Gouri%Koduri%NULL%1,                             George%Koshy%NULL%1,                             Shondipon%Laha%NULL%1,                             Susan%Larkin%NULL%1,                             Tamas%Leiner%NULL%1,                             Patrick%Lillie%NULL%1,                             James%Limb%NULL%1,                             Vanessa%Linnett%NULL%1,                             Jeff%Little%NULL%1,                             Michael%MacMahon%NULL%1,                             Emily%MacNaughton%NULL%1,                             Ravish%Mankregod%NULL%1,                             Huw%Masson%NULL%1,                             Elijah%Matovu%NULL%1,                             Katherine%McCullough%NULL%1,                             Ruth%McEwen%NULL%1,                             Manjula%Meda%NULL%1,                             Gary%Mills%NULL%1,                             Jane%Minton%NULL%1,                             Mariyam%Mirfenderesky%NULL%1,                             Kavya%Mohandas%NULL%1,                             Quen%Mok%NULL%1,                             James%Moon%NULL%1,                             Elinoor%Moore%NULL%1,                             Patrick%Morgan%NULL%1,                             Craig%Morris%NULL%1,                             Katherine%Mortimore%NULL%1,                             Samuel%Moses%NULL%1,                             Mbiye%Mpenge%NULL%1,                             Rohinton%Mulla%NULL%1,                             Michael%Murphy%NULL%1,                             Megan%Nagel%NULL%1,                             Thapas%Nagarajan%NULL%1,                             Mark%Nelson%NULL%1,                             Igor%Otahal%NULL%1,                             Mark%Pais%NULL%1,                             Selva%Panchatsharam%NULL%1,                             Hassan%Paraiso%NULL%1,                             Brij%Patel%NULL%1,                             Justin%Pepperell%NULL%1,                             Mark%Peters%NULL%1,                             Mandeep%Phull%NULL%1,                             Stefania%Pintus%NULL%1,                             Jagtur Singh%Pooni%NULL%1,                             Frank%Post%NULL%1,                             David%Price%NULL%1,                             Rachel%Prout%NULL%1,                             Nikolas%Rae%NULL%1,                             Henrik%Reschreiter%NULL%1,                             Tim%Reynolds%NULL%1,                             Neil%Richardson%NULL%1,                             Mark%Roberts%NULL%1,                             Devender%Roberts%NULL%1,                             Alistair%Rose%NULL%1,                             Guy%Rousseau%NULL%1,                             Brendan%Ryan%NULL%1,                             Taranprit%Saluja%NULL%1,                             Aarti%Shah%NULL%1,                             Prad%Shanmuga%NULL%1,                             Anil%Sharma%NULL%1,                             Anna%Shawcross%NULL%1,                             Jeremy%Sizer%NULL%1,                             Richard%Smith%NULL%1,                             Catherine%Snelson%NULL%1,                             Nick%Spittle%NULL%1,                             Nikki%Staines%NULL%1,                             Tom%Stambach%NULL%1,                             Richard%Stewart%NULL%1,                             Pradeep%Subudhi%NULL%1,                             Tamas%Szakmany%NULL%1,                             Kate%Tatham%NULL%1,                             Jo%Thomas%NULL%1,                             Chris%Thompson%NULL%1,                             Robert%Thompson%NULL%1,                             Ascanio%Tridente%NULL%1,                             Darell%Tupper-Carey%NULL%1,                             Mary%Twagira%NULL%1,                             Andrew%Ustianowski%NULL%1,                             Nick%Vallotton%NULL%1,                             Lisa%Vincent-Smith%NULL%1,                             Shico%Visuvanathan%NULL%1,                             Alan%Vuylsteke%NULL%1,                             Sam%Waddy%NULL%1,                             Rachel%Wake%NULL%1,                             Andrew%Walden%NULL%1,                             Ingeborg%Welters%NULL%1,                             Tony%Whitehouse%NULL%1,                             Paul%Whittaker%NULL%1,                             Ashley%Whittington%NULL%1,                             Meme%Wijesinghe%NULL%1,                             Martin%Williams%NULL%1,                             Lawrence%Wilson%NULL%1,                             Sarah%Wilson%NULL%1,                             Stephen%Winchester%NULL%1,                             Martin%Wiselka%NULL%1,                             Adam%Wolverson%NULL%1,                             Daniel G%Wooton%NULL%1,                             Andrew%Workman%NULL%1,                             Bryan%Yates%NULL%1,                             Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%1,                             Braulio A.%Marfil‐Garza%NULL%1,                             Erick%Martínez Rodríguez%NULL%1,                             José Omar%Barreto Rodríguez%NULL%1,                             Alicia Estela%López Romo%NULL%1,                             Paolo%Alberti Minutti%NULL%1,                             Juan Vicente%Alejandre Loya%NULL%1,                             Félix Emmanuel%Pérez Talavera%NULL%1,                             Freddy José%Ávila Cervera%NULL%1,                             Adriana%Velazquez Burciaga%NULL%1,                             Oscar%Morado Aramburo%NULL%1,                             Luis Alberto%Piña Olguín%NULL%1,                             Adrian%Soto‐Rodríguez%NULL%1,                             Andrés%Castañeda Prado%NULL%1,                             Patricio%Santillán Doherty%NULL%1,                             Juan%O Galindo%NULL%1,                             Luis Alberto%Guízar García%NULL%1,                             Daniel%Hernández Gordillo%NULL%1,                             Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%1,                             Aatish%Patel%NULL%1,                             Esmita%Charani%NULL%1,                             Sarah%Denny%NULL%1,                             Saleh A.%Alqahtani%NULL%1,                             Gary W.%Davies%NULL%1,                             Nabeela%Mughal%NULL%1,                             Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%1,                             Hyunsun%Lim%NULL%1,                             Dong-Wook%Kim%NULL%1,                             Jung Hyun%Chang%NULL%1,                             Yoon Jung%Choi%chris316@yuhs.ac%1,                             Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%6,                             Wenhua%Liang%NULL%3,                             Mei%Jiang%NULL%2,                             Weijie%Guan%NULL%3,                             Chen%Zhan%NULL%2,                             Tao%Wang%NULL%0,                             Chunli%Tang%NULL%3,                             Ling%Sang%NULL%3,                             Jiaxing%Liu%NULL%2,                             Zhengyi%Ni%NULL%2,                             Yu%Hu%NULL%0,                             Lei%Liu%NULL%8,                             Hong%Shan%NULL%5,                             Chunliang%Lei%NULL%2,                             Yixiang%Peng%NULL%2,                             Li%Wei%NULL%5,                             Yong%Liu%NULL%5,                             Yahua%Hu%NULL%2,                             Peng%Peng%NULL%7,                             Jianming%Wang%NULL%2,                             Jiyang%Liu%NULL%2,                             Zhong%Chen%NULL%5,                             Gang%Li%NULL%5,                             Zhijian%Zheng%NULL%2,                             Shaoqin%Qiu%NULL%2,                             Jie%Luo%NULL%5,                             Changjiang%Ye%NULL%2,                             Shaoyong%Zhu%NULL%2,                             Xiaoqing%Liu%NULL%2,                             Linling%Cheng%NULL%2,                             Feng%Ye%NULL%2,                             Jinping%Zheng%NULL%2,                             Nuofu%Zhang%NULL%2,                             Yimin%Li%NULL%2,                             Jianxing%He%NULL%2,                             Shiyue%Li%lishiyue@188.com%3,                             Nanshan%Zhong%NULL%4,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%3,                             Liu%Hu%NULL%1,                             Yiru%Wang%NULL%0,                             Luyan%Huang%NULL%1,                             Lingxi%Zhao%NULL%1,                             Congcong%Zhang%NULL%1,                             Xiyue%Liu%NULL%1,                             Ranran%Xu%NULL%1,                             Feng%Liu%NULL%0,                             Jinping%Li%NULL%1,                             Dawei%Ye%NULL%0,                             Tao%Wang%NULL%0,                             Yongman%Lv%lvyongman@126.com%0,                             Qingquan%Liu%qqliutj@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%1,                             Carol A C%Coupland%NULL%1,                             Ruth H%Keogh%NULL%1,                             Karla%Diaz-Ordaz%NULL%1,                             Elizabeth%Williamson%NULL%1,                             Ewen M%Harrison%NULL%0,                             Andrew%Hayward%NULL%1,                             Harry%Hemingway%NULL%1,                             Peter%Horby%NULL%1,                             Nisha%Mehta%NULL%1,                             Jonathan%Benger%NULL%1,                             Kamlesh%Khunti%NULL%0,                             David%Spiegelhalter%NULL%1,                             Aziz%Sheikh%NULL%0,                             Jonathan%Valabhji%NULL%0,                             Ronan A%Lyons%NULL%1,                             John%Robson%NULL%1,                             Malcolm G%Semple%NULL%0,                             Frank%Kee%NULL%1,                             Peter%Johnson%NULL%1,                             Susan%Jebb%NULL%1,                             Tony%Williams%NULL%1,                             Julia%Hippisley-Cox%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%1,                             Guang-Yao%Cai%NULL%1,                             Wei%Fang%NULL%2,                             Hua-Yi%Li%NULL%1,                             Si-Yuan%Wang%NULL%2,                             Si-Yuan%Wang%NULL%0,                             Lingxi%Chen%NULL%1,                             Yang%Yu%NULL%1,                             Dan%Liu%NULL%0,                             Sen%Xu%NULL%2,                             Peng-Fei%Cui%NULL%1,                             Shao-Qing%Zeng%NULL%2,                             Shao-Qing%Zeng%NULL%0,                             Xin-Xia%Feng%NULL%1,                             Rui-Di%Yu%NULL%1,                             Ya%Wang%NULL%2,                             Yuan%Yuan%NULL%1,                             Xiao-Fei%Jiao%NULL%1,                             Jian-Hua%Chi%NULL%1,                             Jia-Hao%Liu%NULL%1,                             Ru-Yuan%Li%NULL%1,                             Xu%Zheng%NULL%1,                             Chun-Yan%Song%NULL%1,                             Ning%Jin%NULL%1,                             Wen-Jian%Gong%NULL%1,                             Xing-Yu%Liu%NULL%1,                             Lei%Huang%NULL%2,                             Xun%Tian%NULL%1,                             Lin%Li%NULL%1,                             Hui%Xing%NULL%1,                             Ding%Ma%NULL%1,                             Chun-Rui%Li%NULL%1,                             Fei%Ye%yeyuanbei@hotmail.com%1,                             Qing-Lei%Gao%qingleigao@hotmail.com%2,                             Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%1,                             Ang%Li%NULL%1,                             Mengfan%Jiao%NULL%1,                             Qingmiao%Shi%NULL%1,                             Xiaocai%An%NULL%1,                             Yonghai%Feng%NULL%1,                             Lihua%Xing%NULL%1,                             Hongxia%Liang%NULL%1,                             Jiajun%Chen%NULL%1,                             Huiling%Li%NULL%1,                             Juan%Li%NULL%0,                             Zhigang%Ren%NULL%1,                             Ranran%Sun%NULL%1,                             Guangying%Cui%NULL%1,                             Yongjian%Zhou%NULL%1,                             Ming%Cheng%NULL%1,                             Pengfei%Jiao%NULL%1,                             Yu%Wang%NULL%1,                             Jiyuan%Xing%NULL%1,                             Shen%Shen%NULL%1,                             Qingxian%Zhang%NULL%1,                             Aiguo%Xu%NULL%1,                             Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%1,                             Michael%Ng%NULL%1,                             Shuang%Xu%NULL%1,                             Zhouming%Xu%NULL%1,                             Hui%Qiu%NULL%1,                             Yuwei%Liu%NULL%1,                             Jiayou%Lyu%NULL%1,                             Jiwen%You%NULL%1,                             Peng%Zhao%NULL%0,                             Shihao%Wang%NULL%1,                             Yunfei%Tang%NULL%1,                             Hao%Cui%NULL%1,                             Changxiao%Yu%NULL%1,                             Feng%Wang%NULL%5,                             Fei%Shao%NULL%1,                             Peng%Sun%NULL%1,                             Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%1,                             Huifang%Wang%NULL%1,                             Junwei%Huang%NULL%1,                             Yan%Geng%NULL%1,                             Shuqi%Jiang%NULL%1,                             Qiuping%Zhou%NULL%1,                             Xuan%Chen%NULL%1,                             Hongping%Hu%NULL%1,                             Weifeng%Li%NULL%1,                             Chengbin%Zhou%NULL%1,                             Xinglin%Gao%NULL%1,                             Na%Peng%pnatz@163.com%1,                             Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%1,                             Dandan%Cheng%NULL%1,                             Yiwei%Cao%NULL%1,                             Chuan%Hu%NULL%1,                             Fenglin%Zou%NULL%1,                             Wencheng%Yu%NULL%1,                             Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%1,                             Min Kyu%Kang%NULL%2,                             Min Kyu%Kang%NULL%0,                             Yu Rim%Lee%NULL%2,                             Yu Rim%Lee%NULL%0,                             Jeong Eun%Song%NULL%2,                             Jeong Eun%Song%NULL%0,                             Na Young%Kim%NULL%1,                             Young Oh%Kweon%NULL%1,                             Won Young%Tak%NULL%1,                             Se Young%Jang%NULL%1,                             Changhyeong%Lee%NULL%2,                             Changhyeong%Lee%NULL%0,                             Byung Seok%Kim%NULL%1,                             Jae Seok%Hwang%NULL%1,                             Byoung Kuk%Jang%NULL%1,                             Jinmok%Bae%NULL%1,                             Ji Yeon%Lee%NULL%0,                             Jeong Ill%Suh%NULL%1,                             Soo Young%Park%NULL%1,                             Woo Jin%Chung%NULL%2,                             Woo Jin%Chung%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0,                             Cristina%Roca-Oporto%NULL%0,                             Guillermo%Martín-Gutiérrez%NULL%0,                             María Dolores%Avilés%NULL%0,                             Carmen%Gómez-González%NULL%0,                             María Dolores%Navarro-Amuedo%NULL%0,                             Julia%Praena-Segovia%NULL%0,                             José%Molina%NULL%0,                             María%Paniagua-García%NULL%0,                             Horacio%García-Delgado%NULL%0,                             Antonio%Domínguez-Petit%NULL%0,                             Jerónimo%Pachón%NULL%0,                             José Miguel%Cisneros%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ruoran%Wang%NULL%0, Min%He%NULL%1, Wanhong%Yin%NULL%1, Xuelian%Liao%NULL%1, Bo%Wang%NULL%7, Xiaodong%Jin%NULL%1, Yao%Ma%NULL%3, Jirong%Yue%NULL%1, Lang%Bai%NULL%1, Dan%Liu%NULL%0, Ting%Zhu%NULL%1, Zhixin%Huang%NULL%1, Yan%Kang%kangyan@scu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has resulted in thousands of deaths in the world.
+ Information about prediction model of prognosis of SARS-CoV-2 infection is scarce.
+ We used machine learning for processing laboratory findings of 110 patients with SARS-CoV-2 pneumonia (including 51 non-survivors and 59 discharged patients).
+ The maximum relevance minimum redundancy (mRMR) algorithm and the least absolute shrinkage and selection operator logistic regression model were used for selection of laboratory features.
+ Seven laboratory features selected in the model were: prothrombin activity, urea, white blood cell, interleukin-2 receptor, indirect bilirubin, myoglobin, and fibrinogen degradation products.
+ The signature constructed using the seven features had 98% [93%, 100%] sensitivity and 91% [84%, 99%] specificity in predicting outcome of SARS-CoV-2 pneumonia.
+ Thus it is feasible to establish an accurate prediction model of outcome of SARS-CoV-2 pneumonia based on laboratory findings.
+</t>
+  </si>
+  <si>
+    <t>[Gang%Wu%NULL%0, Shuchang%Zhou%NULL%2, Yujin%Wang%NULL%2, Wenzhi%Lv%NULL%0, Shili%Wang%NULL%1, Ting%Wang%751884926@qq.com%1, Xiaoming%Li%lilyboston2002@qq.com%0]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Arjun S%Yadaw%NULL%0, Yan-chak%Li%NULL%1, Sonali%Bose%NULL%0, Ravi%Iyengar%NULL%1, Supinda%Bunyavanich%NULL%1, Gaurav%Pandey%NULL%1]</t>
+  </si>
+  <si>
+    <t>The Author(s). Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Shuai%Zhang%NULL%0, Mengfei%Guo%NULL%1, Limin%Duan%NULL%1, Feng%Wu%NULL%1, Guorong%Hu%NULL%1, Zhihui%Wang%NULL%1, Qi%Huang%NULL%0, Tingting%Liao%NULL%1, Juanjuan%Xu%NULL%1, Yanling%Ma%NULL%2, Zhilei%Lv%NULL%1, Wenjing%Xiao%NULL%1, Zilin%Zhao%NULL%1, Xueyun%Tan%NULL%1, Daquan%Meng%NULL%1, Shujing%Zhang%NULL%1, E%Zhou%NULL%1, Zhengrong%Yin%NULL%1, Wei%Geng%NULL%1, Xuan%Wang%NULL%3, Jianchu%Zhang%NULL%1, Jianguo%Chen%Chenj@mails.tjmu.edu.cn%1, Yu%Zhang%whxhzy@163.com%0, Yang%Jin%whuhjy@126.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased concentrations of serum aspartate transaminase (AST) and alanine transaminase (ALT) are common in COVID‐19 patients.
+ However, their capacity to predict mortality, particularly the AST/ALT ratio, commonly referred to as the De Ritis ratio, is unknown.
+ We investigated the association between the De Ritis ratio on admission and in‐hospital mortality in 105 consecutive patients with coronavirus disease of 2019 (COVID‐19) admitted to three COVID‐19 referral centres in Sardinia, Italy.
+ The De Ritis ratio was significantly lower in survivors than nonsurvivors (median: 1.25; IQR: 0.91‐1.64 vs 1.67; IQR: 1.38‐1.97, P = .
+002) whilst there were no significant between‐group differences in ALT and AST concentrations.
+ In ROC curve analysis, the AUC value of the De Ritis ratio was 0.701 (95% CI 0.603‐0.787, P = .
+0006) with sensitivity and specificity of 74% and 70%, respectively.
+ Kaplan‐Meier survival curves showed a significant association between the De Ritis ratio and mortality (logrank test P = .
+014).
+ By contrast, no associations were observed between the ALT and AST concentrations and mortality (logrank test P = .
+83 and P = .
+62, respectively).
+ In multivariate Cox regression analysis, the HR in patients with De Ritis ratios ≥1.63 (upper tertile of this parameter) remained significant after adjusting for age, gender, smoking status, cardiovascular disease, intensity of care, diabetes, respiratory diseases, malignancies and kidney disease (HR: 2.46, 95% CI 1.05‐5.73, P = .
+037).
+ Therefore, the De Ritis ratio on admission was significantly associated with in‐hospital mortality in COVID‐19 patients.
+ Larger studies are required to confirm the capacity of this parameter to independently predict mortality in this group.
+</t>
+  </si>
+  <si>
+    <t>[Angelo%Zinellu%azinellu@uniss.it%0, Francesco%Arru%NULL%2, Francesco%Arru%NULL%0, Andrea%De Vito%NULL%3, Alessandro%Sassu%NULL%2, Alessandro%Sassu%NULL%0, Giovanni%Valdes%NULL%1, Valentina%Scano%NULL%1, Elisabetta%Zinellu%NULL%1, Roberto%Perra%NULL%1, Giordano%Madeddu%NULL%11, Ciriaco%Carru%NULL%1, Pietro%Pirina%NULL%3, Arduino A.%Mangoni%NULL%2, Arduino A.%Mangoni%NULL%0, Sergio%Babudieri%NULL%4, Sergio%Babudieri%NULL%0, Alessandro G.%Fois%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aimed to build an easily applicable prognostic model based on routine clinical, radiological, and laboratory data available at admission, to predict mortality in coronavirus 19 disease (COVID-19) hospitalized patients.
+ Methods: We retrospectively collected clinical information from 1968 patients admitted to a hospital.
+ We built a predictive score based on a logistic regression model in which explicative variables were discretized using classification trees that facilitated the identification of the optimal sections in order to predict inpatient mortality in patients admitted with COVID-19. These sections were translated into a score indicating the probability of a patient’s death, thus making the results easy to interpret.
+ Results.
+ Median age was 67 years, 1104 patients (56.4%) were male, and 325 (16.5%) died during hospitalization.
+ Our final model identified nine key features: age, oxygen saturation, smoking, serum creatinine, lymphocytes, hemoglobin, platelets, C-reactive protein, and sodium at admission.
+ The discrimination of the model was excellent in the training, validation, and test samples (AUC: 0.865, 0.808, and 0.883, respectively).
+ We constructed a prognostic scale to determine the probability of death associated with each score.
+ Conclusions: We designed an easily applicable predictive model for early identification of patients at high risk of death due to COVID-19 during hospitalization.
+</t>
+  </si>
+  <si>
+    <t>[Juan%Torres-Macho%NULL%0, Pablo%Ryan%NULL%3, Jorge%Valencia%NULL%2, Jorge%Valencia%NULL%0, Mario%Pérez-Butragueño%NULL%2, Mario%Pérez-Butragueño%NULL%0, Eva%Jiménez%NULL%2, Eva%Jiménez%NULL%0, Mario%Fontán-Vela%NULL%1, Elsa%Izquierdo-García%NULL%2, Elsa%Izquierdo-García%NULL%0, Inés%Fernandez-Jimenez%NULL%1, Elena%Álvaro-Alonso%NULL%1, Andrea%Lazaro%NULL%2, Andrea%Lazaro%NULL%0, Marta%Alvarado%NULL%1, Helena%Notario%NULL%1, Salvador%Resino%NULL%1, Daniel%Velez-Serrano%NULL%1, Alejandro%Meca%NULL%1]</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>[Qingquan%Liu%NULL%0, Yiru%Wang%NULL%4, Xuecheng%Zhao%NULL%1, Lixuan%Wang%NULL%1, Feng%Liu%NULL%5, Tao%Wang%NULL%0, Dawei%Ye%NULL%4, Yongman%Lv%NULL%4]</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>[Bianca%Magro%NULL%0, Valentina%Zuccaro%NULL%1, Luca%Novelli%NULL%1, Lorenzo%Zileri%NULL%2, Lorenzo%Zileri%NULL%0, Ciro%Celsa%NULL%1, Federico%Raimondi%NULL%2, Federico%Raimondi%NULL%0, Mauro%Gori%NULL%1, Giulia%Cammà%NULL%1, Salvatore%Battaglia%NULL%1, Vincenzo Giuseppe%Genova%NULL%1, Laura%Paris%NULL%1, Matteo%Tacelli%NULL%1, Francesco Antonio%Mancarella%NULL%1, Marco%Enea%NULL%1, Massimo%Attanasio%NULL%1, Michele%Senni%NULL%1, Fabiano%Di Marco%NULL%1, Luca Ferdinando%Lorini%NULL%1, Stefano%Fagiuoli%NULL%1, Raffaele%Bruno%NULL%2, Calogero%Cammà%NULL%1, Antonio%Gasbarrini%NULL%3, Francesco%Di Gennaro%NULL%2, Francesco%Di Gennaro%NULL%0]</t>
+  </si>
+  <si>
+    <t>Public Library of Science</t>
+  </si>
+  <si>
+    <t>[Ze-yang%Ding%NULL%0, Gan-xun%Li%NULL%1, Lin%Chen%NULL%6, Chang%Shu%NULL%2, Jia%Song%NULL%1, Wei%Wang%NULL%0, Yu-wei%Wang%NULL%1, Qian%Chen%NULL%2, Guan-nan%Jin%NULL%1, Tong-tong%Liu%NULL%1, Jun-nan%Liang%NULL%1, Peng%Zhu%NULL%1, Wei%Zhu%NULL%5, Yong%Li%NULL%5, Bin-hao%Zhang%NULL%1, Huan%Feng%NULL%1, Wan-guang%Zhang%NULL%1, Zhen-yu%Yin%NULL%1, Wen-kui%Yu%NULL%1, Yang%Yang%NULL%0, Hua-qiu%Zhang%NULL%1, Zhou-ping%Tang%NULL%1, Hui%Wang%NULL%0, Jun-bo%Hu%NULL%1, Ji-hong%Liu%NULL%1, Ping%Yin%NULL%1, Xiao-ping%Chen%NULL%1, Bixiang%Zhang%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>European Association for the Study of the Liver. Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Hazal Cansu%Acar%hazal.acar@istanbul.edu.tr%0, Günay%Can%NULL%2, Günay%Can%NULL%0, Rıdvan%Karaali%NULL%1, Şermin%Börekçi%NULL%1, İlker İnanç%Balkan%NULL%1, Bilun%Gemicioğlu%NULL%1, Dildar%Konukoğlu%NULL%1, Ethem%Erginöz%NULL%1, Mehmet Sarper%Erdoğan%NULL%1, Fehmi%Tabak%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mattia%Bellan%NULL%0, Danila%Azzolina%NULL%1, Eyal%Hayden%NULL%2, Eyal%Hayden%NULL%0, Gianluca%Gaidano%NULL%2, Gianluca%Gaidano%NULL%0, Mario%Pirisi%NULL%2, Mario%Pirisi%NULL%0, Antonio%Acquaviva%NULL%2, Antonio%Acquaviva%NULL%0, Gianluca%Aimaretti%NULL%2, Gianluca%Aimaretti%NULL%0, Paolo%Aluffi Valletti%NULL%3, Paolo%Aluffi Valletti%NULL%0, Roberto%Angilletta%NULL%2, Roberto%Angilletta%NULL%0, Roberto%Arioli%NULL%2, Roberto%Arioli%NULL%0, Gian Carlo%Avanzi%NULL%2, Gian Carlo%Avanzi%NULL%0, Gianluca%Avino%NULL%2, Gianluca%Avino%NULL%0, Piero Emilio%Balbo%NULL%2, Piero Emilio%Balbo%NULL%0, Giulia%Baldon%NULL%2, Giulia%Baldon%NULL%0, Francesca%Baorda%NULL%2, Francesca%Baorda%NULL%0, Emanuela%Barbero%NULL%2, Emanuela%Barbero%NULL%0, Alessio%Baricich%NULL%2, Alessio%Baricich%NULL%0, Michela%Barini%NULL%2, Michela%Barini%NULL%0, Francesco%Barone-Adesi%NULL%2, Francesco%Barone-Adesi%NULL%0, Sofia%Battistini%NULL%2, Sofia%Battistini%NULL%0, Michela%Beltrame%NULL%2, Michela%Beltrame%NULL%0, Matteo%Bertoli%NULL%2, Matteo%Bertoli%NULL%0, Stephanie%Bertolin%NULL%2, Stephanie%Bertolin%NULL%0, Marinella%Bertolotti%NULL%2, Marinella%Bertolotti%NULL%0, Marta%Betti%NULL%2, Marta%Betti%NULL%0, Flavio%Bobbio%NULL%2, Flavio%Bobbio%NULL%0, Paolo%Boffano%NULL%2, Paolo%Boffano%NULL%0, Lucio%Boglione%NULL%2, Lucio%Boglione%NULL%0, Silvio%Borrè%NULL%2, Silvio%Borrè%NULL%0, Matteo%Brucoli%NULL%2, Matteo%Brucoli%NULL%0, Elisa%Calzaducca%NULL%2, Elisa%Calzaducca%NULL%0, Edoardo%Cammarata%NULL%2, Edoardo%Cammarata%NULL%0, Vincenzo%Cantaluppi%NULL%2, Vincenzo%Cantaluppi%NULL%0, Roberto%Cantello%NULL%2, Roberto%Cantello%NULL%0, Andrea%Capponi%NULL%2, Andrea%Capponi%NULL%0, Alessandro%Carriero%NULL%2, Alessandro%Carriero%NULL%0, Giuseppe Francesco%Casciaro%NULL%2, Giuseppe Francesco%Casciaro%NULL%0, Luigi Mario%Castello%NULL%2, Luigi Mario%Castello%NULL%0, Federico%Ceruti%NULL%2, Federico%Ceruti%NULL%0, Guido%Chichino%NULL%2, Guido%Chichino%NULL%0, Emilio%Chirico%NULL%2, Emilio%Chirico%NULL%0, Carlo%Cisari%NULL%1, Micol Giulia%Cittone%NULL%2, Micol Giulia%Cittone%NULL%0, Crizia%Colombo%NULL%2, Crizia%Colombo%NULL%0, Cristoforo%Comi%NULL%2, Cristoforo%Comi%NULL%0, Eleonora%Croce%NULL%2, Eleonora%Croce%NULL%0, Tommaso%Daffara%NULL%2, Tommaso%Daffara%NULL%0, Pietro%Danna%NULL%2, Pietro%Danna%NULL%0, Francesco%Della Corte%NULL%2, Francesco%Della Corte%NULL%0, Simona%De Vecchi%NULL%2, Simona%De Vecchi%NULL%0, Umberto%Dianzani%NULL%2, Umberto%Dianzani%NULL%0, Davide%Di Benedetto%NULL%2, Davide%Di Benedetto%NULL%0, Elia%Esposto%NULL%2, Elia%Esposto%NULL%0, Fabrizio%Faggiano%NULL%2, Fabrizio%Faggiano%NULL%0, Zeno%Falaschi%NULL%2, Zeno%Falaschi%NULL%0, Daniela%Ferrante%NULL%2, Daniela%Ferrante%NULL%0, Alice%Ferrero%NULL%2, Alice%Ferrero%NULL%0, Ileana%Gagliardi%NULL%2, Ileana%Gagliardi%NULL%0, Alessandra%Galbiati%NULL%2, Alessandra%Galbiati%NULL%0, Silvia%Gallo%NULL%2, Silvia%Gallo%NULL%0, Pietro Luigi%Garavelli%NULL%2, Pietro Luigi%Garavelli%NULL%0, Clara Ada%Gardino%NULL%2, Clara Ada%Gardino%NULL%0, Massimiliano%Garzaro%NULL%3, Massimiliano%Garzaro%NULL%0, Maria Luisa%Gastaldello%NULL%2, Maria Luisa%Gastaldello%NULL%0, Francesco%Gavelli%NULL%2, Francesco%Gavelli%NULL%0, Alessandra%Gennari%NULL%2, Alessandra%Gennari%NULL%0, Greta Maria%Giacomini%NULL%2, Greta Maria%Giacomini%NULL%0, Irene%Giacone%NULL%2, Irene%Giacone%NULL%0, Valentina%Giai Via%NULL%2, Valentina%Giai Via%NULL%0, Francesca%Giolitti%NULL%2, Francesca%Giolitti%NULL%0, Laura Cristina%Gironi%NULL%2, Laura Cristina%Gironi%NULL%0, Carla%Gramaglia%NULL%2, Carla%Gramaglia%NULL%0, Leonardo%Grisafi%NULL%2, Leonardo%Grisafi%NULL%0, Ilaria%Inserra%NULL%2, Ilaria%Inserra%NULL%0, Marco%Invernizzi%NULL%2, Marco%Invernizzi%NULL%0, Marco%Krengli%NULL%2, Marco%Krengli%NULL%0, Emanuela%Labella%NULL%2, Emanuela%Labella%NULL%0, Irene Cecilia%Landi%NULL%2, Irene Cecilia%Landi%NULL%0, Raffaella%Landi%NULL%2, Raffaella%Landi%NULL%0, Ilaria%Leone%NULL%2, Ilaria%Leone%NULL%0, Veronica%Lio%NULL%2, Veronica%Lio%NULL%0, Luca%Lorenzini%NULL%2, Luca%Lorenzini%NULL%0, Antonio%Maconi%NULL%2, Antonio%Maconi%NULL%0, Mario%Malerba%NULL%2, Mario%Malerba%NULL%0, Giulia Francesca%Manfredi%NULL%2, Giulia Francesca%Manfredi%NULL%0, Maria%Martelli%NULL%2, Maria%Martelli%NULL%0, Letizia%Marzari%NULL%2, Letizia%Marzari%NULL%0, Paolo%Marzullo%NULL%2, Paolo%Marzullo%NULL%0, Marco%Mennuni%NULL%2, Marco%Mennuni%NULL%0, Claudia%Montabone%NULL%2, Claudia%Montabone%NULL%0, Umberto%Morosini%NULL%2, Umberto%Morosini%NULL%0, Marco%Mussa%NULL%2, Marco%Mussa%NULL%0, Ilaria%Nerici%NULL%2, Ilaria%Nerici%NULL%0, Alessandro%Nuzzo%NULL%2, Alessandro%Nuzzo%NULL%0, Carlo%Olivieri%NULL%2, Carlo%Olivieri%NULL%0, Samuel Alberto%Padelli%NULL%2, Samuel Alberto%Padelli%NULL%0, Massimiliano%Panella%NULL%2, Massimiliano%Panella%NULL%0, Andrea%Parisini%NULL%2, Andrea%Parisini%NULL%0, Alessio%Paschè%NULL%2, Alessio%Paschè%NULL%0, Filippo%Patrucco%NULL%2, Filippo%Patrucco%NULL%0, Giuseppe%Patti%NULL%2, Giuseppe%Patti%NULL%0, Alberto%Pau%NULL%2, Alberto%Pau%NULL%0, Anita Rebecca%Pedrinelli%NULL%2, Anita Rebecca%Pedrinelli%NULL%0, Ilaria%Percivale%NULL%2, Ilaria%Percivale%NULL%0, Luca%Ragazzoni%NULL%2, Luca%Ragazzoni%NULL%0, Roberta%Re%NULL%2, Roberta%Re%NULL%0, Cristina%Rigamonti%NULL%2, Cristina%Rigamonti%NULL%0, Eleonora%Rizzi%NULL%2, Eleonora%Rizzi%NULL%0, Andrea%Rognoni%NULL%2, Andrea%Rognoni%NULL%0, Annalisa%Roveta%NULL%2, Annalisa%Roveta%NULL%0, Luigia%Salamina%NULL%2, Luigia%Salamina%NULL%0, Matteo%Santagostino%NULL%2, Matteo%Santagostino%NULL%0, Massimo%Saraceno%NULL%2, Massimo%Saraceno%NULL%0, Paola%Savoia%NULL%2, Paola%Savoia%NULL%0, Marco%Sciarra%NULL%2, Marco%Sciarra%NULL%0, Andrea%Schimmenti%NULL%2, Andrea%Schimmenti%NULL%0, Lorenza%Scotti%NULL%2, Lorenza%Scotti%NULL%0, Enrico%Spinoni%NULL%2, Enrico%Spinoni%NULL%0, Carlo%Smirne%NULL%2, Carlo%Smirne%NULL%0, Vanessa%Tarantino%NULL%2, Vanessa%Tarantino%NULL%0, Paolo Amedeo%Tillio%NULL%2, Paolo Amedeo%Tillio%NULL%0, Stelvio%Tonello%NULL%2, Stelvio%Tonello%NULL%0, Rosanna%Vaschetto%NULL%2, Rosanna%Vaschetto%NULL%0, Veronica%Vassia%NULL%2, Veronica%Vassia%NULL%0, Domenico%Zagaria%NULL%2, Domenico%Zagaria%NULL%0, Elisa%Zavattaro%NULL%2, Elisa%Zavattaro%NULL%0, Patrizia%Zeppegno%NULL%2, Patrizia%Zeppegno%NULL%0, Francesca%Zottarelli%NULL%2, Francesca%Zottarelli%NULL%0, Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%2, Pier Paolo%Sainaghi%pierpaolo.sainaghi@med.uniupo.it%0]</t>
+  </si>
+  <si>
+    <t>Hindawi</t>
+  </si>
+  <si>
+    <t>[Giulia%Besutti%giulia.besutti@ausl.re.it%0, Marta%Ottone%NULL%2, Marta%Ottone%NULL%0, Tommaso%Fasano%NULL%1, Pierpaolo%Pattacini%NULL%1, Valentina%Iotti%NULL%1, Lucia%Spaggiari%NULL%1, Riccardo%Bonacini%NULL%1, Andrea%Nitrosi%NULL%1, Efrem%Bonelli%NULL%1, Simone%Canovi%NULL%1, Rossana%Colla%NULL%1, Alessandro%Zerbini%NULL%1, Marco%Massari%NULL%0, Ivana%Lattuada%NULL%1, Anna Maria%Ferrari%NULL%1, Paolo%Giorgi Rossi%NULL%0, Massimo%Costantini%NULL%1, Roberto%Grilli%NULL%0, Massimiliano%Marino%NULL%0, Giulio%Formoso%NULL%0, Debora%Formisano%NULL%0, Emanuela%Bedeschi%NULL%1, Cinzia%Perilli%NULL%1, Elisabetta%La Rosa%NULL%1, Eufemia%Bisaccia%NULL%1, Ivano%Venturi%NULL%1, Massimo%Vicentini%NULL%0, Cinzia%Campari%NULL%1, Francesco%Gioia%NULL%1, Serena%Broccoli%NULL%1, Pamela%Mancuso%NULL%1, Marco%Foracchia%NULL%1, Mirco%Pinotti%NULL%1, Nicola%Facciolongo%NULL%1, Laura%Trabucco%NULL%1, Stefano%De Pietri%NULL%1, Giorgio Francesco%Danelli%NULL%1, Laura%Albertazzi%NULL%1, Enrica%Bellesia%NULL%1, Mattia%Corradini%NULL%1, Elena%Magnani%NULL%1, Annalisa%Pilia%NULL%1, Alessandra%Polese%NULL%1, Silvia Storchi%Incerti%NULL%1, Piera%Zaldini%NULL%1, Bonanno%Orsola%NULL%1, Matteo%Revelli%NULL%1, Carlo%Salvarani%NULL%1, Carmine%Pinto%NULL%1, Francesco%Venturelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Bo%Chen%NULL%0, Hong-Qiu%Gu%NULL%1, Yi%Liu (刘艺)%NULL%1, Guqin%Zhang%NULL%0, Hang%Yang%NULL%1, Huifang%Hu%NULL%1, Chenyang%Lu%NULL%1, Yang%Li%NULL%0, Liyi%Wang%NULL%1, Yi%Liu (刘毅)%yi2006liu@163.com%1, Yi%Zhao%zhao.y1977@163.com%5, Huaqin%Pan%phq2012@whu.edu.cn%4]</t>
+  </si>
+  <si>
+    <t>Research Network of Computational and Structural Biotechnology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;COVID-19 pandemic has created an extreme pressure on the global healthcare services.
+ Fast, reliable, and early clinical assessment of the severity of the disease can help in allocating and prioritizing resources to reduce mortality.
+ In order to study the important blood biomarkers for predicting disease mortality, a retrospective study was conducted on a dataset made public by Yan et al.
+ in [1] of 375 COVID-19 positive patients admitted to Tongji Hospital (China) from January 10 to February 18, 2020. Demographic and clinical characteristics and patient outcomes were investigated using machine learning tools to identify key biomarkers to predict the mortality of individual patient.
+ A nomogram was developed for predicting the mortality risk among COVID-19 patients.
+ Lactate dehydrogenase, neutrophils (%), lymphocyte (%), high-sensitivity C-reactive protein, and age (LNLCA)—acquired at hospital admission—were identified as key predictors of death by multi-tree XGBoost model.
+ The area under curve (AUC) of the nomogram for the derivation and validation cohort were 0.961 and 0.991, respectively.
+ An integrated score (LNLCA) was calculated with the corresponding death probability.
+ COVID-19 patients were divided into three subgroups: low-, moderate-, and high-risk groups using LNLCA cutoff values of 10.4 and 12.65 with the death probability less than 5%, 5–50%, and above 50%, respectively.
+ The prognostic model, nomogram, and LNLCA score can help in early detection of high mortality risk of COVID-19 patients, which will help doctors to improve the management of patient stratification.
+</t>
+  </si>
+  <si>
+    <t>[Muhammad E. H.%Chowdhury%mchowdhury@qu.edu.qa%0, Tawsifur%Rahman%NULL%0, Tawsifur%Rahman%NULL%0, Amith%Khandakar%NULL%3, Somaya%Al-Madeed%NULL%2, Susu M.%Zughaier%NULL%5, Suhail A. R.%Doi%NULL%3, Hanadi%Hassen%NULL%1, Mohammad T.%Islam%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer US</t>
+  </si>
+  <si>
+    <t>[Yi-Min%Dong%NULL%0, Jia%Sun%NULL%1, Yi-Xin%Li%NULL%1, Qian%Chen%NULL%0, Qing-Quan%Liu%NULL%1, Zhou%Sun%NULL%1, Ran%Pang%NULL%1, Fei%Chen%NULL%1, Bing-Yang%Xu%NULL%1, Anne%Manyande%NULL%1, Taane G%Clark%NULL%1, Jin-Ping%Li%NULL%1, Ilkay Erdogan%Orhan%NULL%1, Yu-Ke%Tian%NULL%1, Tao%Wang%wt7636@126.com%0, Wei%Wu%wt7636@126.com%1, Da-Wei%Ye%wt7636@126.com%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>This study aimed to establish and validate the nomograms to predict the mortality risk of patients with coronavirus disease 2019 (COVID-19) using routine clinical indicators.
+ This retrospective study included a development cohort enrolled 2,119 hospitalized patients with COVID-19 and a validation cohort included 1,504 patients with COVID-19. The demographics, clinical manifestations, vital signs, and laboratory tests of the patients at admission and outcome of in-hospital death were recorded.
+ The independent factors associated with death were identified by a forward stepwise multivariate logistic regression analysis and used to construct the two prognostic nomograms.
+ The nomogram 1 was a full model to include nine factors identified in the multivariate logistic regression and nomogram 2 was built by selecting four factors from nine to perform as a reduced model.
+ The nomogram 1 and nomogram 2 showed better performance in discrimination and calibration than the Multilobular infiltration, hypo-Lymphocytosis, Bacterial coinfection, Smoking history, hyper-Tension and Age (MuLBSTA) score in training.
+ In validation, nomogram 1 performed better than nomogram 2 for calibration.
+ We recommend the application of nomogram 1 in general hospitals which provide robust prognostic performance though more cumbersome; nomogram 2 in the out-patient, emergency department, and mobile cabin hospitals, which depend on less laboratory examinations to make the assessment more convenient.
+ Both the nomograms can help the clinicians to identify the patients at risk of death with routine clinical indicators at admission, which may reduce the overall mortality of COVID-19.</t>
+  </si>
+  <si>
+    <t>[Jialin%He%NULL%0, Caiping%Song%NULL%1, En%Liu%NULL%1, Xi%Liu%NULL%0, Hao%Wu%NULL%1, Hui%Lin%NULL%1, Yuliang%Liu%NULL%1, Qi%Li%NULL%0, Zhi%Xu%NULL%1, XiaoBao%Ren%NULL%1, Cheng%Zhang%NULL%1, Wenjing%Zhang%NULL%1, Wei%Duan%NULL%3, Yongfeng%Tian%NULL%1, Ping%Li%NULL%2, Mingdong%Hu%NULL%1, Shiming%Yang%NULL%0, Yu%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
+  </si>
+  <si>
+    <t>[Meng%Jiang%NULL%0, Changli%Li%NULL%1, Li%Zheng%NULL%1, Wenzhi%Lv%NULL%0, Zhigang%He%NULL%2, Xinwu%Cui%NULL%1, Christoph F.%Dietrich%NULL%1]</t>
+  </si>
+  <si>
+    <t>AME Publishing Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aged population with comorbidities demonstrated high mortality rate and severe clinical outcome in the patients with coronavirus disease 2019 (COVID-19).
+ However, whether age-adjusted Charlson comorbidity index score (CCIS) predict fatal outcomes remains uncertain.
+</t>
+  </si>
+  <si>
+    <t>[Do Hyoung%Kim%NULL%0, Hayne Cho%Park%NULL%2, Hayne Cho%Park%NULL%0, Ajin%Cho%NULL%1, Juhee%Kim%NULL%1, Kyu-sang%Yun%NULL%1, Jinseog%Kim%NULL%1, Young-Ki%Lee%NULL%1, Sinan%Kardes.%NULL%2, Sinan%Kardes.%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To establish an effective nomogram for predicting in-hospital mortality of COVID-19, a retrospective cohort study was conducted in two hospitals in Wuhan, China, with a total of 4,086 hospitalized COVID-19 cases.
+ All patients have reached therapeutic endpoint (death or discharge).
+ First, a total of 3,022 COVID-19 cases in Wuhan Huoshenshan hospital were divided chronologically into two sets, one (1,780 cases, including 47 died) for nomogram modeling and the other (1,242 cases, including 22 died) for internal validation.
+ We then enrolled 1,064 COVID-19 cases (29 died) in Wuhan Taikang-Tongji hospital for external validation.
+ Independent factors included age (HR for per year increment: 1.05), severity at admission (HR for per rank increment: 2.91), dyspnea (HR: 2.18), cardiovascular disease (HR: 3.25), and levels of lactate dehydrogenase (HR: 4.53), total bilirubin (HR: 2.56), blood glucose (HR: 2.56), and urea (HR: 2.14), which were finally selected into the nomogram.
+ The C-index for the internal resampling (0.97, 95% CI: 0.95-0.98), the internal validation (0.96, 95% CI: 0.94-0.98), and the external validation (0.92, 95% CI: 0.86-0.98) demonstrated the fair discrimination ability.
+ The calibration plots showed optimal agreement between nomogram prediction and actual observation.
+ We established and validated a novel prognostic nomogram that could predict in-hospital mortality of COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Li%Li%NULL%0, Xiaoyu%Fang%NULL%1, Lixia%Cheng%NULL%1, Penghao%Wang%NULL%1, Shen%Li%NULL%1, Hao%Yu%NULL%1, Yao%Zhang%NULL%0, Nan%Jiang%NULL%0, Tingting%Zeng%NULL%1, Chao%Hou%NULL%1, Jing%Zhou%NULL%0, Shiru%Li%NULL%1, Yingzi%Pan%NULL%1, Yitong%Li%NULL%1, Lili%Nie%NULL%1, Yang%Li%NULL%0, Qidi%Sun%NULL%1, Hong%Jia%NULL%1, Mengxia%Li%NULL%1, Guoqiang%Cao%NULL%1, Xiangyu%Ma%NULL%1]</t>
+  </si>
+  <si>
+    <t>Impact Journals</t>
+  </si>
+  <si>
+    <t>[Maarten C%Ottenhoff%NULL%0, Lucas A%Ramos%NULL%2, Lucas A%Ramos%NULL%0, Wouter%Potters%NULL%1, Marcus L F%Janssen%NULL%1, Deborah%Hubers%NULL%1, Shi%Hu%NULL%1, Egill A%Fridgeirsson%NULL%1, Dan%Piña-Fuentes%NULL%1, Rajat%Thomas%NULL%1, Iwan C C%van der Horst%NULL%1, Christian%Herff%NULL%2, Christian%Herff%NULL%0, Pieter%Kubben%NULL%1, Paul W G%Elbers%NULL%1, Henk A%Marquering%NULL%1, Max%Welling%NULL%1, Suat%Simsek%NULL%1, Martijn D%de Kruif%NULL%1, Tom%Dormans%NULL%1, Lucas M%Fleuren%NULL%1, Michiel%Schinkel%NULL%1, Peter G%Noordzij%NULL%1, Joop P%van den Bergh%NULL%2, Joop P%van den Bergh%NULL%0, Caroline E%Wyers%NULL%1, David T B%Buis%NULL%2, David T B%Buis%NULL%0, W Joost%Wiersinga%NULL%1, Ella H C%van den Hout%NULL%1, Auke C%Reidinga%NULL%1, Daisy%Rusch%NULL%1, Kim C E%Sigaloff%NULL%1, Renee A%Douma%NULL%1, Lianne%de Haan%NULL%1, Niels C%Gritters van den Oever%NULL%1, Roger J M W%Rennenberg%NULL%1, Guido A%van Wingen%NULL%1, Marcel J H%Aries%NULL%1, Martijn%Beudel%NULL%2, Martijn%Beudel%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare researchers have been working on mortality prediction for COVID-19 patients with differing levels of severity.
+ A rapid and reliable clinical evaluation of disease intensity will assist in the allocation and prioritization of mortality mitigation resources.
+ The novelty of the work proposed in this paper is an early prediction model of high mortality risk for both COVID-19 and non-COVID-19 patients, which provides state-of-the-art performance, in an external validation cohort from a different population.
+ Retrospective research was performed on two separate hospital datasets from two different countries for model development and validation.
+ In the first dataset, COVID-19 and non-COVID-19 patients were admitted to the emergency department in Boston (24 March 2020 to 30 April 2020), and in the second dataset, 375 COVID-19 patients were admitted to Tongji Hospital in China (10 January 2020 to 18 February 2020).
+ The key parameters to predict the risk of mortality for COVID-19 and non-COVID-19 patients were identified and a nomogram-based scoring technique was developed using the top-ranked five parameters.
+ Age, Lymphocyte count, D-dimer, CRP, and Creatinine (ALDCC), information acquired at hospital admission, were identified by the logistic regression model as the primary predictors of hospital death.
+ For the development cohort, and internal and external validation cohorts, the area under the curves (AUCs) were 0.987, 0.999, and 0.992, respectively.
+ All the patients are categorized into three groups using ALDCC score and death probability: Low (probability &amp;lt; 5%), Moderate (5% &amp;lt; probability &amp;lt; 50%), and High (probability &amp;gt; 50%) risk groups.
+ The prognostic model, nomogram, and ALDCC score will be able to assist in the early identification of both COVID-19 and non-COVID-19 patients with high mortality risk, helping physicians to improve patient management.
+</t>
+  </si>
+  <si>
+    <t>[Tawsifur%Rahman%NULL%0, Fajer A.%Al-Ishaq%NULL%2, Fajer A.%Al-Ishaq%NULL%0, Fatima S.%Al-Mohannadi%NULL%1, Reem S.%Mubarak%NULL%1, Maryam H.%Al-Hitmi%NULL%1, Khandaker Reajul%Islam%NULL%1, Amith%Khandakar%NULL%0, Ali Ait%Hssain%NULL%4, Ali Ait%Hssain%NULL%0, Somaya%Al-Madeed%NULL%0, Susu M.%Zughaier%NULL%0, Susu M.%Zughaier%NULL%0, Muhammad E. H.%Chowdhury%NULL%0, Muhammad E. H.%Chowdhury%NULL%0, Antonella%Santone%NULL%3, Antonella%Santone%NULL%0, Antonella%Santone%NULL%0, Emanuele%Neri%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The coronavirus disease 2019 (COVID-19) after outbreaking in Wuhan increasingly spread throughout the world.
+ Fast, reliable, and easily accessible clinical assessment of the severity of the disease can help in allocating and prioritizing resources to reduce mortality.
+ The objective of the study was to develop and validate an early scoring tool to stratify the risk of death using readily available complete blood count (CBC) biomarkers.
+ A retrospective study was conducted on twenty-three CBC blood biomarkers for predicting disease mortality for 375 COVID-19 patients admitted to Tongji Hospital, China from January 10 to February 18, 2020. Machine learning based key biomarkers among the CBC parameters as the mortality predictors were identified.
+ A multivariate logistic regression-based nomogram and a scoring system was developed to categorize the patients in three risk groups (low, moderate, and high) for predicting the mortality risk among COVID-19 patients.
+ Lymphocyte count, neutrophils count, age, white blood cell count, monocytes (%), platelet count, red blood cell distribution width parameters collected at hospital admission were selected as important biomarkers for death prediction using random forest feature selection technique.
+ A CBC score was devised for calculating the death probability of the patients and was used to categorize the patients into three sub-risk groups: low (&amp;lt;=5%), moderate (&amp;gt;5% and &amp;lt;=50%), and high (&amp;gt;50%), respectively.
+ The area under the curve (AUC) of the model for the development and internal validation cohort were 0.961 and 0.88, respectively.
+ The proposed model was further validated with an external cohort of 103 patients of Dhaka Medical College, Bangladesh, which exhibits in an AUC of 0.963. The proposed CBC parameter-based prognostic model and the associated web-application, can help the medical doctors to improve the management by early prediction of mortality risk of the COVID-19 patients in the low-resource countries.
+</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper analyzes a sample of patients hospitalized with COVID-19 in the region of Madrid (Spain).
+ Survival analysis, logistic regression, and machine learning techniques (both supervised and unsupervised) are applied to carry out the analysis where the endpoint variable is the reason for hospital discharge (home or deceased).
+ The different methods applied show the importance of variables such as age, O2 saturation at Emergency Rooms (ER), and whether the patient comes from a nursing home.
+ In addition, biclustering is used to globally analyze the patient-drug dataset, extracting segments of patients.
+ We highlight the validity of the classifiers developed to predict the mortality, reaching an appreciable accuracy.
+ Finally, interpretable decision rules for estimating the risk of mortality of patients can be obtained from the decision tree, which can be crucial in the prioritization of medical care and resources.
+</t>
+  </si>
+  <si>
+    <t>[Manuel%Sánchez-Montañés%NULL%0, Pablo%Rodríguez-Belenguer%NULL%2, Pablo%Rodríguez-Belenguer%NULL%0, Antonio J.%Serrano-López%NULL%1, Emilio%Soria-Olivas%NULL%2, Emilio%Soria-Olivas%NULL%0, Yasser%Alakhdar-Mohmara%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction: COVID-19 has overloaded worldwide medical facilities, leaving some potentially high-risk patients trapped in outpatient clinics without sufficient treatment.
+ However, there is still a lack of a simple and effective tool to identify these patients early.
+</t>
+  </si>
+  <si>
+    <t>[Hai%Wang%NULL%0, Haibo%Ai%NULL%1, Yunong%Fu%NULL%1, Qinglin%Li%NULL%1, Ruixia%Cui%NULL%1, Xiaohua%Ma%NULL%1, Yan-fen%Ma%NULL%1, Zi%Wang%NULL%1, Tong%Liu%NULL%1, Yunxiang%Long%NULL%1, Kai%Qu%NULL%1, Chang%Liu%NULL%1, Jingyao%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong%Ji%NULL%0, Dawei%Zhang%NULL%1, Jing%Xu%NULL%0, Zhu%Chen%NULL%2, Tieniu%Yang%NULL%1, Peng%Zhao%NULL%0, Guofeng%Chen%NULL%1, Gregory%Cheng%NULL%1, Yudong%Wang%NULL%1, Jingfeng%Bi%NULL%1, Lin%Tan%NULL%1, George%Lau%NULL%1, Enqiang%Qin%qeq2004@sina.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The epidemic phase of Coronavirus disease 2019 (COVID-19) made the Worldwide health system struggle against a severe interstitial pneumonia requiring high-intensity care settings for respiratory failure.
+ A rationalisation of resources and a specific treatment path were necessary.
+ The study suggests a predictive model drawing on clinical data gathered by 119 consecutive patients with laboratory-confirmed COVID-19 admitted in Busto Arsizio hospital.
+ We derived a score that identifies the risk of clinical evolution and in-hospital mortality clustering patients into four groups.
+ The study outcomes have been compared across the derivation and validation samples.
+ The prediction rule is based on eight simple patient characteristics that were independently associated with study outcomes.
+ It is able to stratify COVID-19 patients into four severity classes, with in-hospital mortality rates of 0% in group 1, 6–12.5% in group 2, 7–20% in group 3 and 60–86% in group 4 across the derivation and validation sample.
+ The prediction model derived in this study identifies COVID-19 patients with low risk of in-hospital mortality and ICU admission.
+ The prediction model that the study presents identifies COVID-19 patients with low risk of in-hospital mortality and admission to ICU.
+ Moreover, it establishes an intermediate portion of patients that should be treated accurately in order to avoid an unfavourable clinical evolution.
+ A further validation of the model is important before its implementation as a decision-making tool to guide the initial management of patients.
+</t>
+  </si>
+  <si>
+    <t>[Fabrizio%Foieni%fabrizio.foieni@asst-valleolona.it%0, Girolamo%Sala%girolamo.sala@asst-valleolona.it%1, Jason Giuseppe%Mognarelli%giuseppe.mognarelli@unimi.it%1, Giulia%Suigo%NULL%1, Davide%Zampini%NULL%1, Matteo%Pistoia%NULL%1, Mariella%Ciola%NULL%1, Tommaso%Ciampani%NULL%1, Carolina%Ultori%NULL%1, Paolo%Ghiringhelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>Springer International Publishing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: Coronavirus disease 2019 (COVID-19) is a novel infectious disease of multi-system involvement with significant pulmonary manifestations.
+ So far, many prognostic models have been introduced to guide treatment and resource management.
+ However, data on the impact of measurable respiratory parameters associated with the disease are scarce.
+</t>
+  </si>
+  <si>
+    <t>[Alexander%Muacevic%NULL%0, John R%Adler%NULL%5, Sultan M%Kamran%NULL%2, Sultan M%Kamran%NULL%0, Zill-e-Humayun%Mirza%NULL%1, Hussain Abdul%Moeed%NULL%1, Arshad%Naseem%NULL%1, Maryam%Hussain%NULL%1, Imran%Fazal%NULL%1, Farrukh%Saeed%NULL%1, Wasim%Alamgir%NULL%1, Salman%Saleem%NULL%1, Sidra%Riaz%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cureus</t>
+  </si>
+  <si>
+    <t>[Leonardo%Lorente%NULL%0, María M.%Martín%NULL%1, Mónica%Argueso%NULL%1, Jordi%Solé-Violán%NULL%1, Alina%Perez%NULL%1, José Alberto%Marcos Y Ramos%NULL%1, Luis%Ramos-Gómez%NULL%1, Sergio%López%NULL%1, Andrés%Franco%NULL%1, Agustín F.%González-Rivero%NULL%1, María%Martín%NULL%1, Verónica%Gonzalez%NULL%1, Julia%Alcoba-Flórez%NULL%1, Miguel Ángel%Rodriguez%NULL%1, Marta%Riaño-Ruiz%NULL%1, Juan%Guillermo O Campo%NULL%1, Lourdes%González%NULL%1, Tamara%Cantera%NULL%1, Raquel%Ortiz-López%NULL%1, Nazario%Ojeda%NULL%1, Aurelio%Rodríguez-Pérez%NULL%1, Casimira%Domínguez%NULL%1, Alejandro%Jiménez%NULL%1]</t>
+  </si>
+  <si>
+    <t>Société française d'anesthésie et de réanimation (Sfar). Published by Elsevier Masson SAS.</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0, Rita%Kukafka%NULL%1, Arriel%Benis%NULL%2, Arriel%Benis%NULL%0, Jinfeng%Li%NULL%1, Pan%Pan%NULL%2, Pan%Pan%NULL%0, Yichao%Li%NULL%2, Yichao%Li%NULL%0, Yongjiu%Xiao%NULL%2, Yongjiu%Xiao%NULL%0, Bingchao%Han%NULL%2, Bingchao%Han%NULL%0, Longxiang%Su%NULL%2, Longxiang%Su%NULL%0, Mingliang%Su%NULL%2, Mingliang%Su%NULL%0, Yansheng%Li%NULL%2, Yansheng%Li%NULL%0, Siqi%Zhang%NULL%2, Siqi%Zhang%NULL%0, Dapeng%Jiang%NULL%2, Dapeng%Jiang%NULL%0, Xia%Chen%NULL%2, Xia%Chen%NULL%0, Fuquan%Zhou%NULL%2, Fuquan%Zhou%NULL%0, Ling%Ma%NULL%2, Ling%Ma%NULL%0, Pengtao%Bao%NULL%3, Pengtao%Bao%NULL%0, Lixin%Xie%xielx301@126.com%2, Lixin%Xie%xielx301@126.com%0]</t>
+  </si>
+  <si>
+    <t>JMIR Publications</t>
+  </si>
+  <si>
+    <t>[Sonsoles%Salto-Alejandre%NULL%0, Cristina%Roca-Oporto%NULL%2, Guillermo%Martín-Gutiérrez%NULL%2, María Dolores%Avilés%NULL%3, Carmen%Gómez-González%NULL%2, María Dolores%Navarro-Amuedo%NULL%2, Julia%Praena-Segovia%NULL%2, José%Molina%NULL%2, María%Paniagua-García%NULL%2, Horacio%García-Delgado%NULL%2, Antonio%Domínguez-Petit%NULL%2, Jerónimo%Pachón%NULL%4, José Miguel%Cisneros%NULL%5]</t>
+  </si>
+  <si>
+    <t>The British Infection Association. Published by Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Justin J.%Turcotte%NULL%0, Barry R.%Meisenberg%NULL%2, Barry R.%Meisenberg%NULL%0, James H.%MacDonald%NULL%1, Nandakumar%Menon%NULL%1, Marcia B.%Fowler%NULL%1, Michaline%West%NULL%1, Jane%Rhule%NULL%1, Sadaf S.%Qureshi%NULL%1, Eileen B.%MacDonald%NULL%1, Yu Ru%Kou%NULL%10, Yu Ru%Kou%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Gunther%Eysenbach%NULL%0, Sarah%Poole%NULL%2, Sarah%Poole%NULL%0, Meeta%Pradhan%NULL%1, Akhil%Vaid%NULL%5, Akhil%Vaid%NULL%0, Sulaiman%Somani%NULL%5, Sulaiman%Somani%NULL%0, Adam J%Russak%NULL%6, Adam J%Russak%NULL%0, Jessica K%De Freitas%NULL%5, Jessica K%De Freitas%NULL%0, Fayzan F%Chaudhry%NULL%2, Fayzan F%Chaudhry%NULL%0, Ishan%Paranjpe%NULL%0, Ishan%Paranjpe%NULL%0, Kipp W%Johnson%NULL%4, Kipp W%Johnson%NULL%0, Samuel J%Lee%NULL%2, Samuel J%Lee%NULL%0, Riccardo%Miotto%NULL%4, Riccardo%Miotto%NULL%0, Felix%Richter%NULL%3, Felix%Richter%NULL%0, Shan%Zhao%NULL%0, Shan%Zhao%NULL%0, Noam D%Beckmann%NULL%2, Noam D%Beckmann%NULL%0, Nidhi%Naik%NULL%2, Nidhi%Naik%NULL%0, Arash%Kia%NULL%0, Arash%Kia%NULL%0, Prem%Timsina%NULL%0, Prem%Timsina%NULL%0, Anuradha%Lala%NULL%0, Anuradha%Lala%NULL%0, Manish%Paranjpe%NULL%2, Manish%Paranjpe%NULL%0, Eddye%Golden%NULL%4, Eddye%Golden%NULL%0, Matteo%Danieletto%NULL%4, Matteo%Danieletto%NULL%0, Manbir%Singh%NULL%4, Manbir%Singh%NULL%0, Dara%Meyer%NULL%4, Dara%Meyer%NULL%0, Paul F%O'Reilly%NULL%2, Paul F%O'Reilly%NULL%0, Laura%Huckins%NULL%2, Laura%Huckins%NULL%0, Patricia%Kovatch%NULL%5, Patricia%Kovatch%NULL%0, Joseph%Finkelstein%NULL%4, Joseph%Finkelstein%NULL%0, Robert M.%Freeman%NULL%2, Robert M.%Freeman%NULL%0, Edgar%Argulian%NULL%2, Edgar%Argulian%NULL%0, Andrew%Kasarskis%NULL%2, Andrew%Kasarskis%NULL%0, Bethany%Percha%NULL%2, Bethany%Percha%NULL%0, Judith A%Aberg%NULL%4, Judith A%Aberg%NULL%0, Emilia%Bagiella%NULL%0, Emilia%Bagiella%NULL%0, Carol R%Horowitz%NULL%4, Carol R%Horowitz%NULL%0, Barbara%Murphy%NULL%4, Barbara%Murphy%NULL%0, Eric J%Nestler%NULL%4, Eric J%Nestler%NULL%0, Eric E%Schadt%NULL%2, Eric E%Schadt%NULL%0, Judy H%Cho%NULL%2, Judy H%Cho%NULL%0, Carlos%Cordon-Cardo%NULL%0, Carlos%Cordon-Cardo%NULL%0, Valentin%Fuster%NULL%0, Valentin%Fuster%NULL%0, Dennis S%Charney%NULL%2, Dennis S%Charney%NULL%0, David L%Reich%NULL%4, David L%Reich%NULL%0, Erwin P%Bottinger%NULL%4, Erwin P%Bottinger%NULL%0, Matthew A%Levin%NULL%4, Matthew A%Levin%NULL%0, Jagat%Narula%NULL%5, Jagat%Narula%NULL%0, Zahi A%Fayad%NULL%4, Zahi A%Fayad%NULL%0, Allan C%Just%NULL%2, Allan C%Just%NULL%0, Alexander W%Charney%NULL%4, Alexander W%Charney%NULL%0, Girish N%Nadkarni%NULL%4, Girish N%Nadkarni%NULL%0, Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%5, Benjamin S%Glicksberg%benjamin.glicksberg@mssm.edu%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aimed to develop risk scores based on clinical characteristics at presentation to predict intensive care unit (ICU) admission and mortality in COVID-19 patients.
+ 641 hospitalized patients with laboratory-confirmed COVID-19 were selected from 4997 persons under investigation.
+ We performed a retrospective review of medical records of demographics, comorbidities and laboratory tests at the initial presentation.
+ Primary outcomes were ICU admission and death.
+ Logistic regression was used to identify independent clinical variables predicting the two outcomes.
+ The model was validated by splitting the data into 70% for training and 30% for testing.
+ Performance accuracy was evaluated using area under the curve (AUC) of the receiver operating characteristic analysis (ROC).
+ Five significant variables predicting ICU admission were lactate dehydrogenase, procalcitonin, pulse oxygen saturation, smoking history, and lymphocyte count.
+ Seven significant variables predicting mortality were heart failure, procalcitonin, lactate dehydrogenase, chronic obstructive pulmonary disease, pulse oxygen saturation, heart rate, and age.
+ The mortality group uniquely contained cardiopulmonary variables.
+ The risk score model yielded good accuracy with an AUC of 0.74 ([95% CI, 0.63–0.85], p = 0.001) for predicting ICU admission and 0.83 ([95% CI, 0.73–0.92], p&amp;lt;0.001) for predicting mortality for the testing dataset.
+ This study identified key independent clinical variables that predicted ICU admission and mortality associated with COVID-19. This risk score system may prove useful for frontline physicians in clinical decision-making under time-sensitive and resource-constrained environment.
+</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0, Anne%Chen%NULL%4, Wei%Hou%NULL%0, James M.%Graham%NULL%2, Haifang%Li%NULL%0, Paul S.%Richman%NULL%2, Henry C.%Thode%NULL%2, Adam J.%Singer%NULL%2, Tim Q.%Duong%NULL%2, Muhammad%Adrish%NULL%30, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>Aim: Early detection of coronavirus disease 2019 (COVID-19) patients who are likely to develop worse outcomes is of great importance, which may help select patients at risk of rapid deterioration who should require high-level monitoring and more aggressive treatment.
+ We aimed to develop and validate a nomogram for predicting 30-days poor outcome of patients with COVID-19.</t>
+  </si>
+  <si>
+    <t>[Bin%Zhang%NULL%0, Qin%Liu%NULL%2, Xiao%Zhang%NULL%0, Shuyi%Liu%NULL%1, Weiqi%Chen%NULL%1, Jingjing%You%NULL%1, Qiuying%Chen%NULL%1, Minmin%Li%NULL%1, Zhuozhi%Chen%NULL%1, Luyan%Chen%NULL%1, Lv%Chen%NULL%1, Yuhao%Dong%NULL%1, Qingsi%Zeng%NULL%1, Shuixing%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jing%Yu%NULL%0, Lei%Nie%NULL%1, Dongde%Wu%NULL%1, Jian%Chen%NULL%2, Zhifeng%Yang%NULL%1, Ling%Zhang%NULL%5, Dongqing%Li%NULL%1, Xia%Zhou%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yelda%Varol%yeldavatansever@hotmail.com%0, Burcin%Hakoglu%NULL%2, Burcin%Hakoglu%NULL%0, Ali%Kadri Cirak%NULL%1, Gulru%Polat%NULL%1, Berna%Komurcuoglu%NULL%1, Berrin%Akkol%NULL%1, Cagri%Atasoy%NULL%1, Eda%Bayramic%NULL%1, Gunseli%Balci%NULL%1, Sena%Ataman%NULL%1, Sinem%Ermin%NULL%1, Enver%Yalniz%NULL%1, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Zhihong%Weng%NULL%0, Qiaosen%Chen%NULL%2, Qiaosen%Chen%NULL%0, Sumeng%Li%NULL%1, Huadong%Li%NULL%2, Qian%Zhang%NULL%1, Sihong%Lu%NULL%1, Li%Wu%NULL%1, Leiqun%Xiong%NULL%1, Bobin%Mi%NULL%1, Di%Liu%NULL%3, Mengji%Lu%NULL%1, Dongliang%Yang%NULL%1, Hongbo%Jiang%hongbojiang3@163.com%1, Shaoping%Zheng%zhengspxx@126.com%1, Xin%Zheng%xin11@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Junhong%Wang%NULL%0, Hua%Zhang%NULL%2, Rui%Qiao%NULL%1, Qinggang%Ge%NULL%1, Shuisheng%Zhang%NULL%1, Zongxuan%Zhao%NULL%1, Ci%Tian%NULL%1, Qingbian%Ma%NULL%2, Qingbian%Ma%NULL%0, Ning%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>SAGE Publications</t>
+  </si>
+  <si>
+    <t>[Stephen R%Knight%NULL%0, Antonia%Ho%NULL%3, Riinu%Pius%NULL%3, Iain%Buchan%NULL%1, Gail%Carson%NULL%3, Thomas M%Drake%NULL%1, Jake%Dunning%NULL%3, Cameron J%Fairfield%NULL%2, Carrol%Gamble%NULL%3, Christopher A%Green%NULL%3, Rishi%Gupta%NULL%1, Sophie%Halpin%NULL%3, Hayley E%Hardwick%NULL%2, Karl A%Holden%NULL%2, Peter W%Horby%NULL%3, Clare%Jackson%NULL%3, Kenneth A%Mclean%NULL%2, Laura%Merson%NULL%3, Jonathan S%Nguyen-Van-Tam%NULL%2, Lisa%Norman%NULL%3, Mahdad%Noursadeghi%NULL%2, Piero L%Olliaro%NULL%1, Mark G%Pritchard%NULL%1, Clark D%Russell%NULL%3, Catherine A%Shaw%NULL%2, Aziz%Sheikh%NULL%2, Tom%Solomon%NULL%2, Cathie%Sudlow%NULL%1, Olivia V%Swann%NULL%1, Lance CW%Turtle%NULL%2, Peter JM%Openshaw%NULL%3, J Kenneth%Baillie%NULL%3, Malcolm G%Semple%NULL%4, Annemarie B%Docherty%NULL%0, Annemarie B%Docherty%NULL%0, Ewen M%Harrison%NULL%4, NULL%NULL%NULL%0, NULL%NULL%NULL%0, J Kenneth%Baillie%NULL%0, Malcolm G%Semple%NULL%0, Peter JM%Openshaw%NULL%0, Gail%Carson%NULL%0, Beatrice%Alex%NULL%1, Benjamin%Bach%NULL%1, Wendy S%Barclay%NULL%0, Debby%Bogaert%NULL%1, Meera%Chand%NULL%0, Graham S%Cooke%NULL%0, Annemarie B%Docherty%NULL%0, Jake%Dunning%NULL%0, Ana%da Silva Filipe%NULL%1, Tom%Fletcher%NULL%1, Christopher A%Green%NULL%0, Ewen M%Harrison%NULL%0, Julian A%Hiscox%NULL%1, Antonia Ying Wai%Ho%NULL%1, Peter W%Horby%NULL%0, Samreen%Ijaz%NULL%1, Saye%Khoo%NULL%1, Paul%Klenerman%NULL%1, Andrew%Law%NULL%2, Wei Shen%Lim%NULL%1, Alexander J%Mentzer%NULL%1, Laura%Merson%NULL%0, Alison M%Meynert%NULL%1, Mahdad%Noursadeghi%NULL%0, Shona C%Moore%NULL%2, Massimo%Palmarini%NULL%1, William A%Paxton%NULL%1, Georgios%Pollakis%NULL%1, Nicholas%Price%NULL%1, Andrew%Rambaut%NULL%1, David L%Robertson%NULL%1, Clark D%Russell%NULL%0, Vanessa%Sancho-Shimizu%NULL%1, Janet T%Scott%NULL%1, Louise%Sigfrid%NULL%2, Tom%Solomon%NULL%0, Shiranee%Sriskandan%NULL%1, David%Stuart%NULL%1, Charlotte%Summers%NULL%1, Richard S%Tedder%NULL%1, Emma C%Thomson%NULL%1, Ryan S%Thwaites%NULL%1, Lance CW%Turtle%NULL%0, Maria%Zambon%NULL%0, Hayley%Hardwick%NULL%1, Chloe%Donohue%NULL%1, Jane%Ewins%NULL%1, Wilna%Oosthuyzen%NULL%1, Fiona%Griffiths%NULL%1, Lisa%Norman%NULL%0, Riinu%Pius%NULL%0, Tom M%Drake%NULL%1, Cameron J%Fairfield%NULL%0, Stephen%Knight%NULL%1, Kenneth A%Mclean%NULL%0, Derek%Murphy%NULL%1, Catherine A%Shaw%NULL%0, Jo%Dalton%NULL%1, Michelle%Girvan%NULL%1, Egle%Saviciute%NULL%1, Stephanie%Roberts%NULL%1, Janet%Harrison%NULL%1, Laura%Marsh%NULL%1, Marie%Connor%NULL%1, Sophie%Halpin%NULL%0, Clare%Jackson%NULL%0, Carrol%Gamble%NULL%0, Gary%Leeming%NULL%1, Andrew%Law%NULL%0, Ross%Hendry%NULL%1, James%Scott-Brown%NULL%1, William%Greenhalf%NULL%1, Victoria%Shaw%NULL%1, Sarah%McDonald%NULL%2, Katie A%Ahmed%NULL%1, Jane A%Armstrong%NULL%1, Milton%Ashworth%NULL%1, Innocent G%Asiimwe%NULL%1, Siddharth%Bakshi%NULL%1, Samantha L%Barlow%NULL%1, Laura%Booth%NULL%1, Benjamin%Brennan%NULL%1, Katie%Bullock%NULL%1, Benjamin WA%Catterall%NULL%1, Jordan J%Clark%NULL%1, Emily A%Clarke%NULL%1, Sarah%Cole%NULL%1, Louise%Cooper%NULL%1, Helen%Cox%NULL%1, Christopher%Davis%NULL%1, Oslem%Dincarslan%NULL%1, Chris%Dunn%NULL%1, Philip%Dyer%NULL%1, Angela%Elliott%NULL%1, Anthony%Evans%NULL%1, Lewis WS%Fisher%NULL%1, Terry%Foster%NULL%1, Isabel%Garcia-Dorival%NULL%1, Willliam%Greenhalf%NULL%1, Philip%Gunning%NULL%1, Catherine%Hartley%NULL%1, Antonia%Ho%NULL%0, Rebecca L%Jensen%NULL%1, Christopher B%Jones%NULL%1, Trevor R%Jones%NULL%1, Shadia%Khandaker%NULL%1, Katharine%King%NULL%1, Robyn T%Kiy%NULL%1, Chrysa%Koukorava%NULL%1, Annette%Lake%NULL%1, Suzannah%Lant%NULL%1, Diane%Latawiec%NULL%1, L%Lavelle-Langham%NULL%1, Daniella%Lefteri%NULL%1, Lauren%Lett%NULL%1, Lucia A%Livoti%NULL%1, Maria%Mancini%NULL%1, Sarah%McDonald%NULL%0, Laurence%McEvoy%NULL%1, John%McLauchlan%NULL%1, Soeren%Metelmann%NULL%1, Nahida S%Miah%NULL%1, Joanna%Middleton%NULL%1, Joyce%Mitchell%NULL%1, Shona C%Moore%NULL%0, Ellen G%Murphy%NULL%1, Rebekah%Penrice-Randal%NULL%1, Jack%Pilgrim%NULL%1, Tessa%Prince%NULL%1, Will%Reynolds%NULL%1, P Matthew%Ridley%NULL%1, Debby%Sales%NULL%1, Victoria E%Shaw%NULL%1, Rebecca K%Shears%NULL%1, Benjamin%Small%NULL%1, Krishanthi S%Subramaniam%NULL%1, Agnieska%Szemiel%NULL%1, Aislynn%Taggart%NULL%1, Jolanta%Tanianis-Hughes%NULL%1, Jordan%Thomas%NULL%1, Erwan%Trochu%NULL%1, Libby%van Tonder%NULL%1, Eve%Wilcock%NULL%1, J Eunice%Zhang%NULL%1, Kayode%Adeniji%NULL%1, Daniel%Agranoff%NULL%1, Ken%Agwuh%NULL%1, Dhiraj%Ail%NULL%1, Ana%Alegria%NULL%1, Brian%Angus%NULL%1, Abdul%Ashish%NULL%1, Dougal%Atkinson%NULL%1, Shahedal%Bari%NULL%1, Gavin%Barlow%NULL%1, Stella%Barnass%NULL%1, Nicholas%Barrett%NULL%3, Christopher%Bassford%NULL%1, David%Baxter%NULL%1, Michael%Beadsworth%NULL%1, Jolanta%Bernatoniene%NULL%1, John%Berridge%NULL%1, Nicola%Best%NULL%1, Pieter%Bothma%NULL%1, David%Brealey%NULL%1, Robin%Brittain-Long%NULL%1, Naomi%Bulteel%NULL%1, Tom%Burden%NULL%1, Andrew%Burtenshaw%NULL%1, Vikki%Caruth%NULL%1, David%Chadwick%NULL%1, Duncan%Chambler%NULL%1, Nigel%Chee%NULL%1, Jenny%Child%NULL%1, Srikanth%Chukkambotla%NULL%1, Tom%Clark%NULL%1, Paul%Collini%NULL%1, Catherine%Cosgrove%NULL%1, Jason%Cupitt%NULL%1, Maria-Teresa%Cutino-Moguel%NULL%1, Paul%Dark%NULL%1, Chris%Dawson%NULL%1, Samir%Dervisevic%NULL%1, Phil%Donnison%NULL%1, Sam%Douthwaite%NULL%1, Ingrid%DuRand%NULL%1, Ahilanadan%Dushianthan%NULL%1, Tristan%Dyer%NULL%1, Cariad%Evans%NULL%1, Chi%Eziefula%NULL%1, Chrisopher%Fegan%NULL%1, Adam%Finn%NULL%1, Duncan%Fullerton%NULL%1, Sanjeev%Garg%NULL%2, Sanjeev%Garg%NULL%0, Atul%Garg%NULL%1, Jo%Godden%NULL%1, Arthur%Goldsmith%NULL%1, Clive%Graham%NULL%1, Elaine%Hardy%NULL%1, Stuart%Hartshorn%NULL%1, Daniel%Harvey%NULL%1, Peter%Havalda%NULL%1, Daniel B%Hawcutt%NULL%1, Maria%Hobrok%NULL%1, Luke%Hodgson%NULL%1, Anita%Holme%NULL%1, Anil%Hormis%NULL%1, Michael%Jacobs%NULL%1, Susan%Jain%NULL%1, Paul%Jennings%NULL%1, Agilan%Kaliappan%NULL%1, Vidya%Kasipandian%NULL%1, Stephen%Kegg%NULL%1, Michael%Kelsey%NULL%1, Jason%Kendall%NULL%1, Caroline%Kerrison%NULL%1, Ian%Kerslake%NULL%1, Oliver%Koch%NULL%2, Gouri%Koduri%NULL%1, George%Koshy%NULL%1, Shondipon%Laha%NULL%1, Susan%Larkin%NULL%1, Tamas%Leiner%NULL%1, Patrick%Lillie%NULL%1, James%Limb%NULL%1, Vanessa%Linnett%NULL%1, Jeff%Little%NULL%1, Michael%MacMahon%NULL%1, Emily%MacNaughton%NULL%1, Ravish%Mankregod%NULL%1, Huw%Masson%NULL%1, Elijah%Matovu%NULL%1, Katherine%McCullough%NULL%1, Ruth%McEwen%NULL%1, Manjula%Meda%NULL%1, Gary%Mills%NULL%1, Jane%Minton%NULL%1, Mariyam%Mirfenderesky%NULL%1, Kavya%Mohandas%NULL%1, Quen%Mok%NULL%1, James%Moon%NULL%1, Elinoor%Moore%NULL%1, Patrick%Morgan%NULL%1, Craig%Morris%NULL%1, Katherine%Mortimore%NULL%1, Samuel%Moses%NULL%1, Mbiye%Mpenge%NULL%1, Rohinton%Mulla%NULL%1, Michael%Murphy%NULL%1, Megan%Nagel%NULL%1, Thapas%Nagarajan%NULL%1, Mark%Nelson%NULL%1, Igor%Otahal%NULL%1, Mark%Pais%NULL%1, Selva%Panchatsharam%NULL%1, Hassan%Paraiso%NULL%1, Brij%Patel%NULL%1, Justin%Pepperell%NULL%1, Mark%Peters%NULL%1, Mandeep%Phull%NULL%1, Stefania%Pintus%NULL%1, Jagtur Singh%Pooni%NULL%1, Frank%Post%NULL%1, David%Price%NULL%1, Rachel%Prout%NULL%1, Nikolas%Rae%NULL%1, Henrik%Reschreiter%NULL%1, Tim%Reynolds%NULL%1, Neil%Richardson%NULL%1, Mark%Roberts%NULL%1, Devender%Roberts%NULL%1, Alistair%Rose%NULL%1, Guy%Rousseau%NULL%1, Brendan%Ryan%NULL%1, Taranprit%Saluja%NULL%1, Aarti%Shah%NULL%1, Prad%Shanmuga%NULL%1, Anil%Sharma%NULL%1, Anna%Shawcross%NULL%1, Jeremy%Sizer%NULL%1, Richard%Smith%NULL%1, Catherine%Snelson%NULL%1, Nick%Spittle%NULL%1, Nikki%Staines%NULL%1, Tom%Stambach%NULL%1, Richard%Stewart%NULL%1, Pradeep%Subudhi%NULL%1, Tamas%Szakmany%NULL%1, Kate%Tatham%NULL%1, Jo%Thomas%NULL%1, Chris%Thompson%NULL%1, Robert%Thompson%NULL%1, Ascanio%Tridente%NULL%1, Darell%Tupper-Carey%NULL%1, Mary%Twagira%NULL%1, Andrew%Ustianowski%NULL%1, Nick%Vallotton%NULL%1, Lisa%Vincent-Smith%NULL%1, Shico%Visuvanathan%NULL%1, Alan%Vuylsteke%NULL%1, Sam%Waddy%NULL%1, Rachel%Wake%NULL%1, Andrew%Walden%NULL%1, Ingeborg%Welters%NULL%1, Tony%Whitehouse%NULL%1, Paul%Whittaker%NULL%1, Ashley%Whittington%NULL%1, Meme%Wijesinghe%NULL%1, Martin%Williams%NULL%1, Lawrence%Wilson%NULL%1, Sarah%Wilson%NULL%1, Stephen%Winchester%NULL%1, Martin%Wiselka%NULL%2, Adam%Wolverson%NULL%1, Daniel G%Wooton%NULL%1, Andrew%Workman%NULL%1, Bryan%Yates%NULL%1, Peter%Young%NULL%1]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t>[Adrian%Soto‐Mota%adrian.soto@dpag.ox.ac.uk%0, Braulio A.%Marfil‐Garza%NULL%1, Erick%Martínez Rodríguez%NULL%1, José Omar%Barreto Rodríguez%NULL%1, Alicia Estela%López Romo%NULL%1, Paolo%Alberti Minutti%NULL%1, Juan Vicente%Alejandre Loya%NULL%1, Félix Emmanuel%Pérez Talavera%NULL%1, Freddy José%Ávila Cervera%NULL%1, Adriana%Velazquez Burciaga%NULL%1, Oscar%Morado Aramburo%NULL%1, Luis Alberto%Piña Olguín%NULL%1, Adrian%Soto‐Rodríguez%NULL%1, Andrés%Castañeda Prado%NULL%1, Patricio%Santillán Doherty%NULL%1, Juan%O Galindo%NULL%1, Luis Alberto%Guízar García%NULL%1, Daniel%Hernández Gordillo%NULL%1, Juan%Gutiérrez Mejía%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ahmed%Abdulaal%NULL%0, Aatish%Patel%NULL%1, Esmita%Charani%NULL%1, Sarah%Denny%NULL%1, Saleh A.%Alqahtani%NULL%1, Gary W.%Davies%NULL%1, Nabeela%Mughal%NULL%1, Luke S. P.%Moore%l.moore@imperial.ac.uk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The rapid spread of COVID-19 has resulted in the shortage of medical resources, which necessitates accurate prognosis prediction to triage patients effectively.
+ This study used the nationwide cohort of South Korea to develop a machine learning model to predict prognosis based on sociodemographic and medical information.
+ Of 10,237 COVID-19 patients, 228 (2.2%) died, 7772 (75.9%) recovered, and 2237 (21.9%) were still in isolation or being treated at the last follow-up (April 16, 2020).
+ The Cox proportional hazards regression analysis revealed that age &amp;gt; 70, male sex, moderate or severe disability, the presence of symptoms, nursing home residence, and comorbidities of diabetes mellitus (DM), chronic lung disease, or asthma were significantly associated with increased risk of mortality (p ≤ 0.047).
+ For machine learning, the least absolute shrinkage and selection operator (LASSO), linear support vector machine (SVM), SVM with radial basis function kernel, random forest (RF), and k-nearest neighbors were tested.
+ In prediction of mortality, LASSO and linear SVM demonstrated high sensitivities (90.7% [95% confidence interval: 83.3, 97.3] and 92.0% [85.9, 98.1], respectively) and specificities (91.4% [90.3, 92.5] and 91.8%, [90.7, 92.9], respectively) while maintaining high specificities &amp;gt; 90%, as well as high area under the receiver operating characteristics curves (0.963 [0.946, 0.979] and 0.962 [0.945, 0.979], respectively).
+ The most significant predictors for LASSO included old age and preexisting DM or cancer; for RF they were old age, infection route (cluster infection or infection from personal contact), and underlying hypertension.
+ The proposed prediction model may be helpful for the quick triage of patients without having to wait for the results of additional tests such as laboratory or radiologic studies, during a pandemic when limited medical resources must be wisely allocated without hesitation.
+</t>
+  </si>
+  <si>
+    <t>[Chansik%An%NULL%0, Hyunsun%Lim%NULL%1, Dong-Wook%Kim%NULL%1, Jung Hyun%Chang%NULL%1, Yoon Jung%Choi%chris316@yuhs.ac%1, Seong Woo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ruchong%Chen%NULL%0, Wenhua%Liang%NULL%7, Mei%Jiang%NULL%6, Weijie%Guan%NULL%7, Chen%Zhan%NULL%4, Tao%Wang%NULL%0, Chunli%Tang%NULL%5, Ling%Sang%NULL%11, Jiaxing%Liu%NULL%4, Zhengyi%Ni%NULL%6, Yu%Hu%NULL%0, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chunliang%Lei%NULL%6, Yixiang%Peng%NULL%6, Li%Wei%NULL%0, Yong%Liu%NULL%0, Yahua%Hu%NULL%6, Peng%Peng%NULL%0, Jianming%Wang%NULL%0, Jiyang%Liu%NULL%7, Zhong%Chen%NULL%0, Gang%Li%NULL%0, Zhijian%Zheng%NULL%6, Shaoqin%Qiu%NULL%6, Jie%Luo%NULL%0, Changjiang%Ye%NULL%6, Shaoyong%Zhu%NULL%6, Xiaoqing%Liu%NULL%5, Linling%Cheng%NULL%4, Feng%Ye%NULL%8, Jinping%Zheng%NULL%6, Nuofu%Zhang%NULL%6, Yimin%Li%NULL%7, Jianxing%He%NULL%6, Shiyue%Li%lishiyue@188.com%9, Nanshan%Zhong%NULL%9, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>American College of Chest Physicians. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+              •
+              Initial blood urea nitrogen (BUN) and D-dimer levels were associated with mortality in COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Anying%Cheng%NULL%0, Liu%Hu%NULL%3, Yiru%Wang%NULL%0, Luyan%Huang%NULL%3, Lingxi%Zhao%NULL%3, Congcong%Zhang%NULL%3, Xiyue%Liu%NULL%3, Ranran%Xu%NULL%3, Feng%Liu%NULL%0, Jinping%Li%NULL%3, Dawei%Ye%NULL%0, Tao%Wang%NULL%0, Yongman%Lv%lvyongman@126.com%0, Qingquan%Liu%qqliutj@163.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V. and International Society of Chemotherapy.</t>
+  </si>
+  <si>
+    <t>[Ash K%Clift%NULL%0, Carol A C%Coupland%NULL%1, Ruth H%Keogh%NULL%1, Karla%Diaz-Ordaz%NULL%1, Elizabeth%Williamson%NULL%1, Ewen M%Harrison%NULL%0, Andrew%Hayward%NULL%0, Harry%Hemingway%NULL%1, Peter%Horby%NULL%1, Nisha%Mehta%NULL%1, Jonathan%Benger%NULL%1, Kamlesh%Khunti%NULL%0, David%Spiegelhalter%NULL%1, Aziz%Sheikh%NULL%0, Jonathan%Valabhji%NULL%0, Ronan A%Lyons%NULL%1, John%Robson%NULL%1, Malcolm G%Semple%NULL%0, Frank%Kee%NULL%1, Peter%Johnson%NULL%1, Susan%Jebb%NULL%1, Tony%Williams%NULL%1, Julia%Hippisley-Cox%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;Soaring cases of coronavirus disease (COVID-19) are pummeling the global health system.
+ Overwhelmed health facilities have endeavored to mitigate the pandemic, but mortality of COVID-19 continues to increase.
+ Here, we present a mortality risk prediction model for COVID-19 (MRPMC) that uses patients’ clinical data on admission to stratify patients by mortality risk, which enables prediction of physiological deterioration and death up to 20 days in advance.
+ This ensemble model is built using four machine learning methods including Logistic Regression, Support Vector Machine, Gradient Boosted Decision Tree, and Neural Network.
+ We validate MRPMC in an internal validation cohort and two external validation cohorts, where it achieves an AUC of 0.9621 (95% CI: 0.9464–0.9778), 0.9760 (0.9613–0.9906), and 0.9246 (0.8763–0.9729), respectively.
+ This model enables expeditious and accurate mortality risk stratification of patients with COVID-19, and potentially facilitates more responsive health systems that are conducive to high risk COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Yue%Gao%NULL%0, Guang-Yao%Cai%NULL%1, Wei%Fang%NULL%0, Hua-Yi%Li%NULL%1, Si-Yuan%Wang%NULL%2, Si-Yuan%Wang%NULL%0, Lingxi%Chen%NULL%1, Yang%Yu%NULL%2, Dan%Liu%NULL%0, Sen%Xu%NULL%0, Peng-Fei%Cui%NULL%1, Shao-Qing%Zeng%NULL%2, Shao-Qing%Zeng%NULL%0, Xin-Xia%Feng%NULL%1, Rui-Di%Yu%NULL%1, Ya%Wang%NULL%0, Yuan%Yuan%NULL%0, Xiao-Fei%Jiao%NULL%1, Jian-Hua%Chi%NULL%1, Jia-Hao%Liu%NULL%1, Ru-Yuan%Li%NULL%1, Xu%Zheng%NULL%1, Chun-Yan%Song%NULL%1, Ning%Jin%NULL%1, Wen-Jian%Gong%NULL%1, Xing-Yu%Liu%NULL%1, Lei%Huang%NULL%0, Xun%Tian%NULL%1, Lin%Li%NULL%4, Hui%Xing%NULL%1, Ding%Ma%NULL%1, Chun-Rui%Li%NULL%1, Fei%Ye%yeyuanbei@hotmail.com%1, Qing-Lei%Gao%qingleigao@hotmail.com%2, Qing-Lei%Gao%qingleigao@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain high-risk factors related to the death of COVID-19 have been reported, however, there were few studies on a death prediction model.
+ This study was conducted to delineate the clinical characteristics of patients with coronavirus disease 2019 (covid-19) of different degree and establish a death prediction model.
+ In this multi-centered, retrospective, observational study, we enrolled 523 COVID-19 cases discharged before February 20, 2020 in Henan Province, China, compared clinical data, screened for high-risk fatal factors, built a death prediction model and validated the model in 429 mild cases, six fatal cases discharged after February 16, 2020 from Henan and 14 cases from Wuhan.
+ Out of the 523 cases, 429 were mild, 78 severe survivors, 16 non-survivors.
+ The non-survivors with median age 71 were older and had more comorbidities than the mild and severe survivors.
+ Non-survivors had a relatively delay in hospitalization, with higher white blood cell count, neutrophil percentage, D-dimer, LDH, BNP, and PCT levels and lower proportion of eosinophils, lymphocytes and albumin.
+ Discriminative models were constructed by using random forest with 16 non-survivors and 78 severe survivors.
+ Age was the leading risk factors for poor prognosis, with AUC of 0.907 (95% CI 0.831–0.983).
+ Mixed model constructed with combination of age, demographics, symptoms, and laboratory findings at admission had better performance (p = 0.021) with a generalized AUC of 0.9852 (95% CI 0.961–1).
+ We chose 0.441 as death prediction threshold (with 0.85 sensitivity and 0.987 specificity) and validated the model in 429 mild cases, six fatal cases discharged after February 16, 2020 from Henan and 14 cases from Wuhan successfully.
+ Mixed model can accurately predict clinical outcomes of COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Xiaoxu%Ma%NULL%0, Ang%Li%NULL%1, Mengfan%Jiao%NULL%1, Qingmiao%Shi%NULL%1, Xiaocai%An%NULL%1, Yonghai%Feng%NULL%1, Lihua%Xing%NULL%1, Hongxia%Liang%NULL%1, Jiajun%Chen%NULL%1, Huiling%Li%NULL%1, Juan%Li%NULL%0, Zhigang%Ren%NULL%1, Ranran%Sun%NULL%1, Guangying%Cui%NULL%1, Yongjian%Zhou%NULL%1, Ming%Cheng%NULL%1, Pengfei%Jiao%NULL%1, Yu%Wang%NULL%0, Jiyuan%Xing%NULL%1, Shen%Shen%NULL%1, Qingxian%Zhang%NULL%1, Aiguo%Xu%NULL%1, Zujiang%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aimed to identify clinical features for prognosing mortality risk using machine-learning methods in patients with coronavirus disease 2019 (COVID-19).
+ A retrospective study of the inpatients with COVID-19 admitted from 15 January to 15 March 2020 in Wuhan is reported.
+ The data of symptoms, comorbidity, demographic, vital sign, CT scans results and laboratory test results on admission were collected.
+ Machine-learning methods (Random Forest and XGboost) were used to rank clinical features for mortality risk.
+ Multivariate logistic regression models were applied to identify clinical features with statistical significance.
+ The predictors of mortality were lactate dehydrogenase (LDH), C-reactive protein (CRP) and age based on 500 bootstrapped samples.
+ A multivariate logistic regression model was formed to predict mortality 292 in-sample patients with area under the receiver operating characteristics (AUROC) of 0.9521, which was better than CURB-65 (AUROC of 0.8501) and the machine-learning-based model (AUROC of 0.4530).
+ An out-sample data set of 13 patients was further tested to show our model (AUROC of 0.6061) was also better than CURB-65 (AUROC of 0.4608) and the machine-learning-based model (AUROC of 0.2292).
+ LDH, CRP and age can be used to identify severe patients with COVID-19 on hospital admission.
+</t>
+  </si>
+  <si>
+    <t>[Xuedi%Ma%NULL%0, Michael%Ng%NULL%1, Shuang%Xu%NULL%1, Zhouming%Xu%NULL%1, Hui%Qiu%NULL%1, Yuwei%Liu%NULL%3, Jiayou%Lyu%NULL%1, Jiwen%You%NULL%1, Peng%Zhao%NULL%0, Shihao%Wang%NULL%1, Yunfei%Tang%NULL%1, Hao%Cui%NULL%1, Changxiao%Yu%NULL%1, Feng%Wang%NULL%0, Fei%Shao%NULL%1, Peng%Sun%NULL%0, Ziren%Tang%NULL%1]</t>
+  </si>
+  <si>
+    <t>Cambridge University Press</t>
+  </si>
+  <si>
+    <t>[Xiaojun%Ma%NULL%0, Huifang%Wang%NULL%1, Junwei%Huang%NULL%1, Yan%Geng%NULL%1, Shuqi%Jiang%NULL%1, Qiuping%Zhou%NULL%1, Xuan%Chen%NULL%1, Hongping%Hu%NULL%1, Weifeng%Li%NULL%1, Chengbin%Zhou%NULL%1, Xinglin%Gao%NULL%1, Na%Peng%pnatz@163.com%1, Yiyu%Deng%yiyudeng666@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background: The global COVID-19 epidemic remains severe, with the cumulative global death toll reaching more than 207,170 as of May 2, 2020 (1).
+</t>
+  </si>
+  <si>
+    <t>[Deng%Pan%NULL%0, Dandan%Cheng%NULL%1, Yiwei%Cao%NULL%1, Chuan%Hu%NULL%1, Fenglin%Zou%NULL%1, Wencheng%Yu%NULL%1, Tao%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jung Gil%Park%NULL%0, Min Kyu%Kang%NULL%2, Min Kyu%Kang%NULL%0, Yu Rim%Lee%NULL%2, Yu Rim%Lee%NULL%0, Jeong Eun%Song%NULL%2, Jeong Eun%Song%NULL%0, Na Young%Kim%NULL%1, Young Oh%Kweon%NULL%1, Won Young%Tak%NULL%1, Se Young%Jang%NULL%1, Changhyeong%Lee%NULL%2, Changhyeong%Lee%NULL%0, Byung Seok%Kim%NULL%1, Jae Seok%Hwang%NULL%1, Byoung Kuk%Jang%NULL%1, Jinmok%Bae%NULL%1, Ji Yeon%Lee%NULL%0, Jeong Ill%Suh%NULL%1, Soo Young%Park%NULL%1, Woo Jin%Chung%NULL%2, Woo Jin%Chung%NULL%0, NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -6984,7 +7747,7 @@
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1864</v>
+        <v>2023</v>
       </c>
       <c r="F2" t="s">
         <v>79</v>
@@ -6996,10 +7759,10 @@
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="3">
@@ -7013,10 +7776,10 @@
         <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>937</v>
+        <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>1865</v>
+        <v>2026</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -7028,10 +7791,10 @@
         <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="4">
@@ -7048,7 +7811,7 @@
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>1866</v>
+        <v>2028</v>
       </c>
       <c r="F4" t="s">
         <v>90</v>
@@ -7060,10 +7823,10 @@
         <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="5">
@@ -7074,25 +7837,25 @@
         <v>43965.0</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>875</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>1867</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>1394</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
         <v>143</v>
@@ -7109,10 +7872,10 @@
         <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>940</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>1868</v>
+        <v>2030</v>
       </c>
       <c r="F6" t="s">
         <v>100</v>
@@ -7124,10 +7887,10 @@
         <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="7">
@@ -7141,10 +7904,10 @@
         <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>2032</v>
       </c>
       <c r="E7" t="s">
-        <v>1869</v>
+        <v>2033</v>
       </c>
       <c r="F7" t="s">
         <v>105</v>
@@ -7156,10 +7919,10 @@
         <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="8">
@@ -7173,10 +7936,10 @@
         <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>2034</v>
       </c>
       <c r="E8" t="s">
-        <v>1870</v>
+        <v>2035</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -7188,10 +7951,10 @@
         <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J8" t="s">
-        <v>143</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="9">
@@ -7208,7 +7971,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>1871</v>
+        <v>2037</v>
       </c>
       <c r="F9" t="s">
         <v>115</v>
@@ -7220,10 +7983,10 @@
         <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J9" t="s">
-        <v>143</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="10">
@@ -7240,7 +8003,7 @@
         <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>1872</v>
+        <v>2039</v>
       </c>
       <c r="F10" t="s">
         <v>120</v>
@@ -7252,10 +8015,10 @@
         <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J10" t="s">
-        <v>143</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="11">
@@ -7272,7 +8035,7 @@
         <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>1873</v>
+        <v>2041</v>
       </c>
       <c r="F11" t="s">
         <v>125</v>
@@ -7284,10 +8047,10 @@
         <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="12">
@@ -7301,10 +8064,10 @@
         <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>947</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>1874</v>
+        <v>2043</v>
       </c>
       <c r="F12" t="s">
         <v>130</v>
@@ -7316,10 +8079,10 @@
         <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>143</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="13">
@@ -7336,7 +8099,7 @@
         <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>1875</v>
+        <v>2044</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
@@ -7348,10 +8111,10 @@
         <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="14">
@@ -7365,10 +8128,10 @@
         <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>950</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
-        <v>1876</v>
+        <v>2046</v>
       </c>
       <c r="F14" t="s">
         <v>140</v>
@@ -7380,10 +8143,10 @@
         <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="15">
@@ -7400,7 +8163,7 @@
         <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>1877</v>
+        <v>2048</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
@@ -7412,10 +8175,10 @@
         <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="16">
@@ -7429,10 +8192,10 @@
         <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>953</v>
+        <v>2050</v>
       </c>
       <c r="E16" t="s">
-        <v>1878</v>
+        <v>2051</v>
       </c>
       <c r="F16" t="s">
         <v>150</v>
@@ -7444,10 +8207,10 @@
         <v>151</v>
       </c>
       <c r="I16" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="17">
@@ -7464,7 +8227,7 @@
         <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>1879</v>
+        <v>2053</v>
       </c>
       <c r="F17" t="s">
         <v>155</v>
@@ -7476,10 +8239,10 @@
         <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="18">
@@ -7490,28 +8253,28 @@
         <v>44228.0</v>
       </c>
       <c r="C18" t="s">
-        <v>682</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>1088</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>685</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s">
         <v>143</v>
       </c>
       <c r="J18" t="s">
-        <v>1535</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -7522,25 +8285,25 @@
         <v>44228.0</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1880</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>1394</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
         <v>143</v>
@@ -7557,10 +8320,10 @@
         <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>157</v>
+        <v>2055</v>
       </c>
       <c r="E20" t="s">
-        <v>1881</v>
+        <v>2056</v>
       </c>
       <c r="F20" t="s">
         <v>159</v>
@@ -7572,10 +8335,10 @@
         <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="21">
@@ -7592,7 +8355,7 @@
         <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>1882</v>
+        <v>2058</v>
       </c>
       <c r="F21" t="s">
         <v>164</v>
@@ -7604,10 +8367,10 @@
         <v>165</v>
       </c>
       <c r="I21" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="22">
@@ -7618,28 +8381,28 @@
         <v>44245.0</v>
       </c>
       <c r="C22" t="s">
-        <v>689</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>690</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>1092</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>692</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
         <v>143</v>
       </c>
       <c r="J22" t="s">
-        <v>1540</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23">
@@ -7653,10 +8416,10 @@
         <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>2060</v>
       </c>
       <c r="E23" t="s">
-        <v>1883</v>
+        <v>2061</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
@@ -7668,10 +8431,10 @@
         <v>170</v>
       </c>
       <c r="I23" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="24">
@@ -7682,28 +8445,28 @@
         <v>44287.0</v>
       </c>
       <c r="C24" t="s">
-        <v>694</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>1094</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>696</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
         <v>143</v>
       </c>
       <c r="J24" t="s">
-        <v>1543</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
@@ -7717,10 +8480,10 @@
         <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>172</v>
+        <v>2063</v>
       </c>
       <c r="E25" t="s">
-        <v>1884</v>
+        <v>2064</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
@@ -7732,10 +8495,10 @@
         <v>175</v>
       </c>
       <c r="I25" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="26">
@@ -7752,7 +8515,7 @@
         <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>1885</v>
+        <v>2066</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -7764,10 +8527,10 @@
         <v>180</v>
       </c>
       <c r="I26" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="27">
@@ -7781,10 +8544,10 @@
         <v>181</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>2068</v>
       </c>
       <c r="E27" t="s">
-        <v>1886</v>
+        <v>2069</v>
       </c>
       <c r="F27" t="s">
         <v>184</v>
@@ -7796,10 +8559,10 @@
         <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="28">
@@ -7813,10 +8576,10 @@
         <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>2070</v>
       </c>
       <c r="E28" t="s">
-        <v>1887</v>
+        <v>188</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -7828,10 +8591,10 @@
         <v>190</v>
       </c>
       <c r="I28" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="29">
@@ -7845,10 +8608,10 @@
         <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>2072</v>
       </c>
       <c r="E29" t="s">
-        <v>1888</v>
+        <v>2073</v>
       </c>
       <c r="F29" t="s">
         <v>194</v>
@@ -7860,10 +8623,10 @@
         <v>195</v>
       </c>
       <c r="I29" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="30">
@@ -7877,10 +8640,10 @@
         <v>196</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>2074</v>
       </c>
       <c r="E30" t="s">
-        <v>1889</v>
+        <v>2075</v>
       </c>
       <c r="F30" t="s">
         <v>199</v>
@@ -7892,10 +8655,10 @@
         <v>200</v>
       </c>
       <c r="I30" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="31">
@@ -7906,28 +8669,28 @@
         <v>44326.0</v>
       </c>
       <c r="C31" t="s">
-        <v>703</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>704</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>1101</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="G31" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s">
-        <v>706</v>
+        <v>91</v>
       </c>
       <c r="I31" t="s">
         <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>1551</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32">
@@ -7944,7 +8707,7 @@
         <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>1890</v>
+        <v>2076</v>
       </c>
       <c r="F32" t="s">
         <v>204</v>
@@ -7956,10 +8719,10 @@
         <v>91</v>
       </c>
       <c r="I32" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
-        <v>143</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="33">
@@ -7973,10 +8736,10 @@
         <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>971</v>
+        <v>2077</v>
       </c>
       <c r="E33" t="s">
-        <v>1891</v>
+        <v>2078</v>
       </c>
       <c r="F33" t="s">
         <v>208</v>
@@ -7988,10 +8751,10 @@
         <v>209</v>
       </c>
       <c r="I33" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="34">
@@ -8005,10 +8768,10 @@
         <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>2080</v>
       </c>
       <c r="E34" t="s">
-        <v>1892</v>
+        <v>2081</v>
       </c>
       <c r="F34" t="s">
         <v>213</v>
@@ -8020,10 +8783,10 @@
         <v>195</v>
       </c>
       <c r="I34" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="35">
@@ -8034,7 +8797,7 @@
         <v>43963.0</v>
       </c>
       <c r="C35" t="s">
-        <v>472</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
         <v>69</v>
@@ -8043,16 +8806,16 @@
         <v>72</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s">
         <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>1394</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
         <v>143</v>
@@ -8066,28 +8829,28 @@
         <v>44126.0</v>
       </c>
       <c r="C36" t="s">
-        <v>710</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>1105</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s">
-        <v>712</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s">
         <v>143</v>
       </c>
       <c r="J36" t="s">
-        <v>1556</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37">
@@ -8104,7 +8867,7 @@
         <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>1893</v>
+        <v>2083</v>
       </c>
       <c r="F37" t="s">
         <v>217</v>
@@ -8116,10 +8879,10 @@
         <v>91</v>
       </c>
       <c r="I37" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="38">
@@ -8136,7 +8899,7 @@
         <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>1894</v>
+        <v>2085</v>
       </c>
       <c r="F38" t="s">
         <v>221</v>
@@ -8148,10 +8911,10 @@
         <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="39">
@@ -8168,7 +8931,7 @@
         <v>143</v>
       </c>
       <c r="E39" t="s">
-        <v>1895</v>
+        <v>2087</v>
       </c>
       <c r="F39" t="s">
         <v>225</v>
@@ -8180,10 +8943,10 @@
         <v>226</v>
       </c>
       <c r="I39" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J39" t="s">
-        <v>143</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="40">
@@ -8200,7 +8963,7 @@
         <v>228</v>
       </c>
       <c r="E40" t="s">
-        <v>1896</v>
+        <v>2089</v>
       </c>
       <c r="F40" t="s">
         <v>230</v>
@@ -8212,10 +8975,10 @@
         <v>231</v>
       </c>
       <c r="I40" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J40" t="s">
-        <v>143</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="41">
@@ -8232,7 +8995,7 @@
         <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>1897</v>
+        <v>2090</v>
       </c>
       <c r="F41" t="s">
         <v>235</v>
@@ -8244,10 +9007,10 @@
         <v>236</v>
       </c>
       <c r="I41" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J41" t="s">
-        <v>143</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="42">
@@ -8261,10 +9024,10 @@
         <v>237</v>
       </c>
       <c r="D42" t="s">
-        <v>238</v>
+        <v>2091</v>
       </c>
       <c r="E42" t="s">
-        <v>1898</v>
+        <v>2092</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -8276,10 +9039,10 @@
         <v>241</v>
       </c>
       <c r="I42" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J42" t="s">
-        <v>143</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="43">
@@ -8293,10 +9056,10 @@
         <v>242</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>2093</v>
       </c>
       <c r="E43" t="s">
-        <v>1899</v>
+        <v>2094</v>
       </c>
       <c r="F43" t="s">
         <v>245</v>
@@ -8308,10 +9071,10 @@
         <v>246</v>
       </c>
       <c r="I43" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J43" t="s">
-        <v>143</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="44">
@@ -8328,7 +9091,7 @@
         <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>1900</v>
+        <v>2095</v>
       </c>
       <c r="F44" t="s">
         <v>250</v>
@@ -8340,10 +9103,10 @@
         <v>251</v>
       </c>
       <c r="I44" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J44" t="s">
-        <v>143</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="45">
@@ -8354,28 +9117,28 @@
         <v>2020.0</v>
       </c>
       <c r="C45" t="s">
-        <v>721</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>1114</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G45" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s">
-        <v>692</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s">
         <v>143</v>
       </c>
       <c r="J45" t="s">
-        <v>1566</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
@@ -8392,7 +9155,7 @@
         <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>1901</v>
+        <v>2096</v>
       </c>
       <c r="F46" t="s">
         <v>255</v>
@@ -8404,10 +9167,10 @@
         <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="47">
@@ -8418,28 +9181,28 @@
         <v>44136.0</v>
       </c>
       <c r="C47" t="s">
-        <v>724</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>1116</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="G47" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>1569</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s">
         <v>143</v>
       </c>
       <c r="J47" t="s">
-        <v>1570</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48">
@@ -8453,10 +9216,10 @@
         <v>256</v>
       </c>
       <c r="D48" t="s">
-        <v>986</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>1902</v>
+        <v>2097</v>
       </c>
       <c r="F48" t="s">
         <v>259</v>
@@ -8468,10 +9231,10 @@
         <v>260</v>
       </c>
       <c r="I48" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J48" t="s">
-        <v>143</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="49">
@@ -8488,7 +9251,7 @@
         <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>1903</v>
+        <v>2098</v>
       </c>
       <c r="F49" t="s">
         <v>264</v>
@@ -8500,10 +9263,10 @@
         <v>265</v>
       </c>
       <c r="I49" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J49" t="s">
-        <v>143</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="50">
@@ -8520,7 +9283,7 @@
         <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>1904</v>
+        <v>2100</v>
       </c>
       <c r="F50" t="s">
         <v>269</v>
@@ -8532,10 +9295,10 @@
         <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J50" t="s">
-        <v>143</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="51">
@@ -8552,7 +9315,7 @@
         <v>272</v>
       </c>
       <c r="E51" t="s">
-        <v>1905</v>
+        <v>2102</v>
       </c>
       <c r="F51" t="s">
         <v>274</v>
@@ -8564,10 +9327,10 @@
         <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J51" t="s">
-        <v>143</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="52">
@@ -8581,10 +9344,10 @@
         <v>276</v>
       </c>
       <c r="D52" t="s">
-        <v>991</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>1906</v>
+        <v>2103</v>
       </c>
       <c r="F52" t="s">
         <v>279</v>
@@ -8596,10 +9359,10 @@
         <v>280</v>
       </c>
       <c r="I52" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J52" t="s">
-        <v>143</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="53">
@@ -8613,10 +9376,10 @@
         <v>281</v>
       </c>
       <c r="D53" t="s">
-        <v>993</v>
+        <v>2104</v>
       </c>
       <c r="E53" t="s">
-        <v>1907</v>
+        <v>2105</v>
       </c>
       <c r="F53" t="s">
         <v>284</v>
@@ -8628,10 +9391,10 @@
         <v>285</v>
       </c>
       <c r="I53" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J53" t="s">
-        <v>143</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="54">
@@ -8642,28 +9405,28 @@
         <v>44172.0</v>
       </c>
       <c r="C54" t="s">
-        <v>733</v>
+        <v>68</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>1123</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G54" t="s">
-        <v>684</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s">
-        <v>712</v>
+        <v>91</v>
       </c>
       <c r="I54" t="s">
         <v>143</v>
       </c>
       <c r="J54" t="s">
-        <v>1556</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55">
@@ -8680,7 +9443,7 @@
         <v>287</v>
       </c>
       <c r="E55" t="s">
-        <v>1908</v>
+        <v>2106</v>
       </c>
       <c r="F55" t="s">
         <v>289</v>
@@ -8692,10 +9455,10 @@
         <v>91</v>
       </c>
       <c r="I55" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J55" t="s">
-        <v>143</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="56">
@@ -8709,10 +9472,10 @@
         <v>290</v>
       </c>
       <c r="D56" t="s">
-        <v>291</v>
+        <v>2108</v>
       </c>
       <c r="E56" t="s">
-        <v>1909</v>
+        <v>2109</v>
       </c>
       <c r="F56" t="s">
         <v>293</v>
@@ -8724,10 +9487,10 @@
         <v>294</v>
       </c>
       <c r="I56" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J56" t="s">
-        <v>143</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="57">
@@ -8744,7 +9507,7 @@
         <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>1910</v>
+        <v>2111</v>
       </c>
       <c r="F57" t="s">
         <v>298</v>
@@ -8756,10 +9519,10 @@
         <v>299</v>
       </c>
       <c r="I57" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J57" t="s">
-        <v>143</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="58">
@@ -8773,10 +9536,10 @@
         <v>300</v>
       </c>
       <c r="D58" t="s">
-        <v>999</v>
+        <v>2112</v>
       </c>
       <c r="E58" t="s">
-        <v>1911</v>
+        <v>2113</v>
       </c>
       <c r="F58" t="s">
         <v>303</v>
@@ -8788,10 +9551,10 @@
         <v>304</v>
       </c>
       <c r="I58" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J58" t="s">
-        <v>143</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="59">
@@ -8805,10 +9568,10 @@
         <v>305</v>
       </c>
       <c r="D59" t="s">
-        <v>306</v>
+        <v>2114</v>
       </c>
       <c r="E59" t="s">
-        <v>1912</v>
+        <v>2115</v>
       </c>
       <c r="F59" t="s">
         <v>308</v>
@@ -8820,10 +9583,10 @@
         <v>309</v>
       </c>
       <c r="I59" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J59" t="s">
-        <v>143</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="60">
@@ -8837,10 +9600,10 @@
         <v>310</v>
       </c>
       <c r="D60" t="s">
-        <v>311</v>
+        <v>2116</v>
       </c>
       <c r="E60" t="s">
-        <v>1913</v>
+        <v>2117</v>
       </c>
       <c r="F60" t="s">
         <v>313</v>
@@ -8852,10 +9615,10 @@
         <v>314</v>
       </c>
       <c r="I60" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J60" t="s">
-        <v>143</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="61">
@@ -8869,10 +9632,10 @@
         <v>315</v>
       </c>
       <c r="D61" t="s">
-        <v>1003</v>
+        <v>316</v>
       </c>
       <c r="E61" t="s">
-        <v>1914</v>
+        <v>2119</v>
       </c>
       <c r="F61" t="s">
         <v>318</v>
@@ -8884,10 +9647,10 @@
         <v>319</v>
       </c>
       <c r="I61" t="s">
-        <v>1390</v>
+        <v>143</v>
       </c>
       <c r="J61" t="s">
-        <v>143</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="62">
@@ -8901,10 +9664,10 @@
         <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>2120</v>
       </c>
       <c r="E62" t="s">
-        <v>1915</v>
+        <v>2121</v>
       </c>
       <c r="F62" t="s">
         <v>323</v>
@@ -8916,10 +9679,10 @@
         <v>324</v>
       </c>
       <c r="I62" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J62" t="s">
-        <v>143</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="63">
@@ -8936,7 +9699,7 @@
         <v>326</v>
       </c>
       <c r="E63" t="s">
-        <v>1916</v>
+        <v>2122</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
@@ -8948,10 +9711,10 @@
         <v>329</v>
       </c>
       <c r="I63" t="s">
-        <v>1388</v>
+        <v>143</v>
       </c>
       <c r="J63" t="s">
-        <v>143</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="64">
@@ -8968,7 +9731,7 @@
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>1917</v>
+        <v>330</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -8980,10 +9743,10 @@
         <v>226</v>
       </c>
       <c r="I64" t="s">
-        <v>1392</v>
+        <v>143</v>
       </c>
       <c r="J64" t="s">
-        <v>143</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="65">
@@ -8994,25 +9757,25 @@
         <v>44106.0</v>
       </c>
       <c r="C65" t="s">
-        <v>498</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>499</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>1918</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G65" t="s">
-        <v>459</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s">
         <v>91</v>
       </c>
       <c r="I65" t="s">
-        <v>1394</v>
+        <v>143</v>
       </c>
       <c r="J65" t="s">
         <v>143</v>
